--- a/data/134/DEUSTATIS/old/National accounts - Gross fixed capital formation quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Gross fixed capital formation quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5624" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="72">
   <si>
     <t>National accounts - Gross fixed capital formation (nominal/
 price-adjusted): Germany, quarters, original and adjusted
@@ -229,7 +229,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:47:57</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:51:01</t>
   </si>
 </sst>
 </file>
@@ -3860,13 +3860,13 @@
         <v>198.475</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>174.555</v>
+        <v>174.923</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>196.485</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>44</v>
+        <v>198.432</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>200.851</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>44</v>
@@ -4240,13 +4240,13 @@
         <v>64.959</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>52.253</v>
+        <v>52.305</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>57.352</v>
-      </c>
-      <c r="DU9" t="s" s="10">
-        <v>44</v>
+        <v>57.471</v>
+      </c>
+      <c r="DU9" t="n" s="10">
+        <v>53.701</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>44</v>
@@ -5380,13 +5380,13 @@
         <v>94.289</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>89.373</v>
+        <v>89.681</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>105.258</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>44</v>
+        <v>107.071</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>112.731</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>44</v>
@@ -5760,13 +5760,13 @@
         <v>58.328</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>55.692</v>
+        <v>55.926</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>65.389</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>44</v>
+        <v>66.387</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>70.548</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>44</v>
@@ -6140,13 +6140,13 @@
         <v>35.961</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>33.681</v>
+        <v>33.755</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>39.869</v>
-      </c>
-      <c r="DU14" t="s" s="10">
-        <v>44</v>
+        <v>40.684</v>
+      </c>
+      <c r="DU14" t="n" s="10">
+        <v>42.183</v>
       </c>
       <c r="DV14" t="s" s="10">
         <v>44</v>
@@ -6520,13 +6520,13 @@
         <v>22.639</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>23.193</v>
+        <v>23.267</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>25.173</v>
-      </c>
-      <c r="DU15" t="s" s="10">
-        <v>44</v>
+        <v>25.54</v>
+      </c>
+      <c r="DU15" t="n" s="10">
+        <v>26.307</v>
       </c>
       <c r="DV15" t="s" s="10">
         <v>44</v>
@@ -6903,10 +6903,10 @@
         <v>10.488</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>14.696</v>
-      </c>
-      <c r="DU16" t="s" s="10">
-        <v>44</v>
+        <v>15.144</v>
+      </c>
+      <c r="DU16" t="n" s="10">
+        <v>15.876</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>44</v>
@@ -7280,13 +7280,13 @@
         <v>39.227</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>32.929</v>
+        <v>32.937</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>33.875</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>44</v>
+        <v>33.89</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>34.419</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>44</v>
@@ -7665,13 +7665,13 @@
         <v>118.36</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>102.39</v>
+        <v>102.61</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>113.03</v>
-      </c>
-      <c r="DU19" t="s" s="10">
-        <v>44</v>
+        <v>114.13</v>
+      </c>
+      <c r="DU19" t="n" s="10">
+        <v>112.15</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>44</v>
@@ -8045,13 +8045,13 @@
         <v>120.4</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>95.82</v>
+        <v>95.94</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>104.49</v>
-      </c>
-      <c r="DU20" t="s" s="10">
-        <v>44</v>
+        <v>104.74</v>
+      </c>
+      <c r="DU20" t="n" s="10">
+        <v>97.45</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>44</v>
@@ -9185,13 +9185,13 @@
         <v>111.05</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>102.43</v>
+        <v>102.78</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>116.78</v>
-      </c>
-      <c r="DU23" t="s" s="10">
-        <v>44</v>
+        <v>118.79</v>
+      </c>
+      <c r="DU23" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="DV23" t="s" s="10">
         <v>44</v>
@@ -9565,13 +9565,13 @@
         <v>114.41</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>106.22</v>
+        <v>106.66</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>120.54</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>44</v>
+        <v>122.42</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>123.55</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>44</v>
@@ -9945,13 +9945,13 @@
         <v>105.97</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>96.72</v>
+        <v>96.93</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>111.12</v>
-      </c>
-      <c r="DU25" t="s" s="10">
-        <v>44</v>
+        <v>113.3</v>
+      </c>
+      <c r="DU25" t="n" s="10">
+        <v>111.89</v>
       </c>
       <c r="DV25" t="s" s="10">
         <v>44</v>
@@ -10325,13 +10325,13 @@
         <v>100.68</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>100.28</v>
+        <v>100.59</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>105.02</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>44</v>
+        <v>106.58</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>104.04</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>44</v>
@@ -10705,13 +10705,13 @@
         <v>116.37</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>89.79</v>
+        <v>89.8</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>123.15</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>44</v>
+        <v>126.55</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>127.35</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>44</v>
@@ -11085,13 +11085,13 @@
         <v>135.36</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>113.98</v>
+        <v>114.01</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>117.24</v>
-      </c>
-      <c r="DU28" t="s" s="10">
-        <v>44</v>
+        <v>117.29</v>
+      </c>
+      <c r="DU28" t="n" s="10">
+        <v>119.07</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>44</v>
@@ -11470,13 +11470,13 @@
         <v>179.267</v>
       </c>
       <c r="DS30" t="n" s="10">
-        <v>155.079</v>
+        <v>155.412</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>171.194</v>
-      </c>
-      <c r="DU30" t="s" s="10">
-        <v>44</v>
+        <v>172.86</v>
+      </c>
+      <c r="DU30" t="n" s="10">
+        <v>169.861</v>
       </c>
       <c r="DV30" t="s" s="10">
         <v>44</v>
@@ -11850,13 +11850,13 @@
         <v>62.29</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>49.573</v>
+        <v>49.635</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>54.059</v>
-      </c>
-      <c r="DU31" t="s" s="10">
-        <v>44</v>
+        <v>54.188</v>
+      </c>
+      <c r="DU31" t="n" s="10">
+        <v>50.416</v>
       </c>
       <c r="DV31" t="s" s="10">
         <v>44</v>
@@ -12990,13 +12990,13 @@
         <v>80.856</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>74.58</v>
+        <v>74.835</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>85.028</v>
-      </c>
-      <c r="DU34" t="s" s="10">
-        <v>44</v>
+        <v>86.492</v>
+      </c>
+      <c r="DU34" t="n" s="10">
+        <v>86.572</v>
       </c>
       <c r="DV34" t="s" s="10">
         <v>44</v>
@@ -13370,13 +13370,13 @@
         <v>50.159</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>46.568</v>
+        <v>46.761</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>52.846</v>
-      </c>
-      <c r="DU35" t="s" s="10">
-        <v>44</v>
+        <v>53.67</v>
+      </c>
+      <c r="DU35" t="n" s="10">
+        <v>54.166</v>
       </c>
       <c r="DV35" t="s" s="10">
         <v>44</v>
@@ -13750,13 +13750,13 @@
         <v>30.699</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>28.019</v>
+        <v>28.08</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>32.191</v>
-      </c>
-      <c r="DU36" t="s" s="10">
-        <v>44</v>
+        <v>32.822</v>
+      </c>
+      <c r="DU36" t="n" s="10">
+        <v>32.414</v>
       </c>
       <c r="DV36" t="s" s="10">
         <v>44</v>
@@ -14130,13 +14130,13 @@
         <v>19.448</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>19.371</v>
+        <v>19.431</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>20.286</v>
-      </c>
-      <c r="DU37" t="s" s="10">
-        <v>44</v>
+        <v>20.588</v>
+      </c>
+      <c r="DU37" t="n" s="10">
+        <v>20.097</v>
       </c>
       <c r="DV37" t="s" s="10">
         <v>44</v>
@@ -14510,13 +14510,13 @@
         <v>11.233</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>8.667</v>
+        <v>8.668</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>11.887</v>
-      </c>
-      <c r="DU38" t="s" s="10">
-        <v>44</v>
+        <v>12.216</v>
+      </c>
+      <c r="DU38" t="n" s="10">
+        <v>12.293</v>
       </c>
       <c r="DV38" t="s" s="10">
         <v>44</v>
@@ -14890,13 +14890,13 @@
         <v>36.429</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>30.675</v>
+        <v>30.683</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>31.552</v>
-      </c>
-      <c r="DU39" t="s" s="10">
-        <v>44</v>
+        <v>31.566</v>
+      </c>
+      <c r="DU39" t="n" s="10">
+        <v>32.045</v>
       </c>
       <c r="DV39" t="s" s="10">
         <v>44</v>
@@ -15275,13 +15275,13 @@
         <v>195.81</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>171.753</v>
+        <v>172.125</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>189.604</v>
-      </c>
-      <c r="DU41" t="s" s="10">
-        <v>44</v>
+        <v>191.46</v>
+      </c>
+      <c r="DU41" t="n" s="10">
+        <v>188.135</v>
       </c>
       <c r="DV41" t="s" s="10">
         <v>44</v>
@@ -15655,13 +15655,13 @@
         <v>64.153</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>51.721</v>
+        <v>51.787</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>56.4</v>
-      </c>
-      <c r="DU42" t="s" s="10">
-        <v>44</v>
+        <v>56.534</v>
+      </c>
+      <c r="DU42" t="n" s="10">
+        <v>52.6</v>
       </c>
       <c r="DV42" t="s" s="10">
         <v>44</v>
@@ -16795,13 +16795,13 @@
         <v>92.969</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>87.34</v>
+        <v>87.639</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>99.579</v>
-      </c>
-      <c r="DU45" t="s" s="10">
-        <v>44</v>
+        <v>101.287</v>
+      </c>
+      <c r="DU45" t="n" s="10">
+        <v>101.383</v>
       </c>
       <c r="DV45" t="s" s="10">
         <v>44</v>
@@ -17175,13 +17175,13 @@
         <v>57.529</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>54.376</v>
+        <v>54.604</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>61.707</v>
-      </c>
-      <c r="DU46" t="s" s="10">
-        <v>44</v>
+        <v>62.671</v>
+      </c>
+      <c r="DU46" t="n" s="10">
+        <v>63.248</v>
       </c>
       <c r="DV46" t="s" s="10">
         <v>44</v>
@@ -17555,13 +17555,13 @@
         <v>35.44</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>32.964</v>
+        <v>33.035</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>37.872</v>
-      </c>
-      <c r="DU47" t="s" s="10">
-        <v>44</v>
+        <v>38.616</v>
+      </c>
+      <c r="DU47" t="n" s="10">
+        <v>38.135</v>
       </c>
       <c r="DV47" t="s" s="10">
         <v>44</v>
@@ -17935,13 +17935,13 @@
         <v>22.219</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>22.631</v>
+        <v>22.701</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>23.701</v>
-      </c>
-      <c r="DU48" t="s" s="10">
-        <v>44</v>
+        <v>24.053</v>
+      </c>
+      <c r="DU48" t="n" s="10">
+        <v>23.48</v>
       </c>
       <c r="DV48" t="s" s="10">
         <v>44</v>
@@ -18315,13 +18315,13 @@
         <v>13.221</v>
       </c>
       <c r="DS49" t="n" s="10">
-        <v>10.333</v>
+        <v>10.334</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>14.171</v>
-      </c>
-      <c r="DU49" t="s" s="10">
-        <v>44</v>
+        <v>14.563</v>
+      </c>
+      <c r="DU49" t="n" s="10">
+        <v>14.655</v>
       </c>
       <c r="DV49" t="s" s="10">
         <v>44</v>
@@ -18695,13 +18695,13 @@
         <v>38.688</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>32.692</v>
+        <v>32.699</v>
       </c>
       <c r="DT50" t="n" s="10">
-        <v>33.625</v>
-      </c>
-      <c r="DU50" t="s" s="10">
-        <v>44</v>
+        <v>33.639</v>
+      </c>
+      <c r="DU50" t="n" s="10">
+        <v>34.152</v>
       </c>
       <c r="DV50" t="s" s="10">
         <v>44</v>
@@ -18725,64 +18725,64 @@
         <v>43</v>
       </c>
       <c r="C53" t="n" s="10">
-        <v>96.05</v>
+        <v>96.053</v>
       </c>
       <c r="D53" t="n" s="10">
-        <v>98.326</v>
+        <v>98.329</v>
       </c>
       <c r="E53" t="n" s="10">
-        <v>99.762</v>
+        <v>99.754</v>
       </c>
       <c r="F53" t="n" s="10">
-        <v>103.275</v>
+        <v>103.277</v>
       </c>
       <c r="G53" t="n" s="10">
-        <v>107.696</v>
+        <v>107.701</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>107.748</v>
+        <v>107.75</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>106.006</v>
+        <v>105.997</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>106.514</v>
+        <v>106.516</v>
       </c>
       <c r="K53" t="n" s="10">
-        <v>105.029</v>
+        <v>105.031</v>
       </c>
       <c r="L53" t="n" s="10">
-        <v>104.611</v>
+        <v>104.613</v>
       </c>
       <c r="M53" t="n" s="10">
-        <v>105.76</v>
+        <v>105.754</v>
       </c>
       <c r="N53" t="n" s="10">
-        <v>104.418</v>
+        <v>104.42</v>
       </c>
       <c r="O53" t="n" s="10">
-        <v>108.019</v>
+        <v>108.021</v>
       </c>
       <c r="P53" t="n" s="10">
-        <v>109.442</v>
+        <v>109.444</v>
       </c>
       <c r="Q53" t="n" s="10">
-        <v>110.366</v>
+        <v>110.362</v>
       </c>
       <c r="R53" t="n" s="10">
         <v>112.944</v>
       </c>
       <c r="S53" t="n" s="10">
-        <v>110.634</v>
+        <v>110.636</v>
       </c>
       <c r="T53" t="n" s="10">
         <v>112.212</v>
       </c>
       <c r="U53" t="n" s="10">
-        <v>112.275</v>
+        <v>112.273</v>
       </c>
       <c r="V53" t="n" s="10">
-        <v>111.141</v>
+        <v>111.143</v>
       </c>
       <c r="W53" t="n" s="10">
         <v>105.143</v>
@@ -18791,10 +18791,10 @@
         <v>112.97</v>
       </c>
       <c r="Y53" t="n" s="10">
-        <v>112.65</v>
+        <v>112.649</v>
       </c>
       <c r="Z53" t="n" s="10">
-        <v>112.753</v>
+        <v>112.754</v>
       </c>
       <c r="AA53" t="n" s="10">
         <v>109.475</v>
@@ -18809,25 +18809,25 @@
         <v>112.624</v>
       </c>
       <c r="AE53" t="n" s="10">
-        <v>115.489</v>
+        <v>115.491</v>
       </c>
       <c r="AF53" t="n" s="10">
         <v>114.104</v>
       </c>
       <c r="AG53" t="n" s="10">
-        <v>114.79</v>
+        <v>114.789</v>
       </c>
       <c r="AH53" t="n" s="10">
-        <v>113.717</v>
+        <v>113.716</v>
       </c>
       <c r="AI53" t="n" s="10">
-        <v>116.803</v>
+        <v>116.804</v>
       </c>
       <c r="AJ53" t="n" s="10">
-        <v>117.322</v>
+        <v>117.323</v>
       </c>
       <c r="AK53" t="n" s="10">
-        <v>119.0</v>
+        <v>118.997</v>
       </c>
       <c r="AL53" t="n" s="10">
         <v>118.656</v>
@@ -18869,10 +18869,10 @@
         <v>109.474</v>
       </c>
       <c r="AY53" t="n" s="10">
-        <v>108.55</v>
+        <v>108.551</v>
       </c>
       <c r="AZ53" t="n" s="10">
-        <v>108.045</v>
+        <v>108.044</v>
       </c>
       <c r="BA53" t="n" s="10">
         <v>108.25</v>
@@ -18929,19 +18929,19 @@
         <v>128.181</v>
       </c>
       <c r="BS53" t="n" s="10">
-        <v>130.3</v>
+        <v>130.299</v>
       </c>
       <c r="BT53" t="n" s="10">
-        <v>128.454</v>
+        <v>128.455</v>
       </c>
       <c r="BU53" t="n" s="10">
-        <v>129.203</v>
+        <v>129.204</v>
       </c>
       <c r="BV53" t="n" s="10">
-        <v>127.622</v>
+        <v>127.623</v>
       </c>
       <c r="BW53" t="n" s="10">
-        <v>117.563</v>
+        <v>117.561</v>
       </c>
       <c r="BX53" t="n" s="10">
         <v>117.326</v>
@@ -18950,19 +18950,19 @@
         <v>117.835</v>
       </c>
       <c r="BZ53" t="n" s="10">
-        <v>117.418</v>
+        <v>117.42</v>
       </c>
       <c r="CA53" t="n" s="10">
-        <v>118.281</v>
+        <v>118.28</v>
       </c>
       <c r="CB53" t="n" s="10">
-        <v>126.11</v>
+        <v>126.109</v>
       </c>
       <c r="CC53" t="n" s="10">
         <v>127.631</v>
       </c>
       <c r="CD53" t="n" s="10">
-        <v>126.296</v>
+        <v>126.298</v>
       </c>
       <c r="CE53" t="n" s="10">
         <v>134.425</v>
@@ -18977,13 +18977,13 @@
         <v>137.978</v>
       </c>
       <c r="CI53" t="n" s="10">
-        <v>139.526</v>
+        <v>139.525</v>
       </c>
       <c r="CJ53" t="n" s="10">
-        <v>139.831</v>
+        <v>139.83</v>
       </c>
       <c r="CK53" t="n" s="10">
-        <v>140.117</v>
+        <v>140.118</v>
       </c>
       <c r="CL53" t="n" s="10">
         <v>139.728</v>
@@ -19001,97 +19001,97 @@
         <v>145.031</v>
       </c>
       <c r="CQ53" t="n" s="10">
-        <v>147.722</v>
+        <v>147.72</v>
       </c>
       <c r="CR53" t="n" s="10">
         <v>145.974</v>
       </c>
       <c r="CS53" t="n" s="10">
-        <v>146.487</v>
+        <v>146.486</v>
       </c>
       <c r="CT53" t="n" s="10">
-        <v>148.297</v>
+        <v>148.299</v>
       </c>
       <c r="CU53" t="n" s="10">
-        <v>148.756</v>
+        <v>148.758</v>
       </c>
       <c r="CV53" t="n" s="10">
-        <v>149.556</v>
+        <v>149.547</v>
       </c>
       <c r="CW53" t="n" s="10">
-        <v>151.036</v>
+        <v>151.041</v>
       </c>
       <c r="CX53" t="n" s="10">
-        <v>154.857</v>
+        <v>154.859</v>
       </c>
       <c r="CY53" t="n" s="10">
         <v>157.768</v>
       </c>
       <c r="CZ53" t="n" s="10">
-        <v>157.024</v>
+        <v>157.011</v>
       </c>
       <c r="DA53" t="n" s="10">
-        <v>159.034</v>
+        <v>159.042</v>
       </c>
       <c r="DB53" t="n" s="10">
-        <v>159.628</v>
+        <v>159.633</v>
       </c>
       <c r="DC53" t="n" s="10">
-        <v>162.366</v>
+        <v>162.367</v>
       </c>
       <c r="DD53" t="n" s="10">
-        <v>166.885</v>
+        <v>166.859</v>
       </c>
       <c r="DE53" t="n" s="10">
-        <v>168.682</v>
+        <v>168.697</v>
       </c>
       <c r="DF53" t="n" s="10">
-        <v>170.593</v>
+        <v>170.604</v>
       </c>
       <c r="DG53" t="n" s="10">
-        <v>172.848</v>
+        <v>172.852</v>
       </c>
       <c r="DH53" t="n" s="10">
-        <v>176.727</v>
+        <v>176.677</v>
       </c>
       <c r="DI53" t="n" s="10">
-        <v>179.636</v>
+        <v>179.662</v>
       </c>
       <c r="DJ53" t="n" s="10">
-        <v>182.429</v>
+        <v>182.449</v>
       </c>
       <c r="DK53" t="n" s="10">
-        <v>184.64</v>
+        <v>184.642</v>
       </c>
       <c r="DL53" t="n" s="10">
-        <v>186.161</v>
+        <v>186.083</v>
       </c>
       <c r="DM53" t="n" s="10">
-        <v>187.295</v>
+        <v>187.343</v>
       </c>
       <c r="DN53" t="n" s="10">
-        <v>187.08</v>
+        <v>187.108</v>
       </c>
       <c r="DO53" t="n" s="10">
-        <v>187.602</v>
+        <v>187.596</v>
       </c>
       <c r="DP53" t="n" s="10">
-        <v>175.484</v>
+        <v>175.386</v>
       </c>
       <c r="DQ53" t="n" s="10">
-        <v>182.245</v>
+        <v>182.317</v>
       </c>
       <c r="DR53" t="n" s="10">
-        <v>187.528</v>
+        <v>187.561</v>
       </c>
       <c r="DS53" t="n" s="10">
-        <v>188.539</v>
+        <v>188.898</v>
       </c>
       <c r="DT53" t="n" s="10">
-        <v>193.209</v>
-      </c>
-      <c r="DU53" t="s" s="10">
-        <v>44</v>
+        <v>195.02</v>
+      </c>
+      <c r="DU53" t="n" s="10">
+        <v>196.552</v>
       </c>
       <c r="DV53" t="s" s="10">
         <v>44</v>
@@ -19465,13 +19465,13 @@
         <v>56.857</v>
       </c>
       <c r="DS54" t="n" s="10">
-        <v>56.878</v>
+        <v>56.935</v>
       </c>
       <c r="DT54" t="n" s="10">
-        <v>57.3</v>
-      </c>
-      <c r="DU54" t="s" s="10">
-        <v>44</v>
+        <v>57.419</v>
+      </c>
+      <c r="DU54" t="n" s="10">
+        <v>55.682</v>
       </c>
       <c r="DV54" t="s" s="10">
         <v>44</v>
@@ -20605,13 +20605,13 @@
         <v>95.23</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>97.065</v>
+        <v>97.372</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>100.769</v>
-      </c>
-      <c r="DU57" t="s" s="10">
-        <v>44</v>
+        <v>102.571</v>
+      </c>
+      <c r="DU57" t="n" s="10">
+        <v>105.399</v>
       </c>
       <c r="DV57" t="s" s="10">
         <v>44</v>
@@ -20985,13 +20985,13 @@
         <v>58.959</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>60.37</v>
+        <v>60.604</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>62.69</v>
-      </c>
-      <c r="DU58" t="s" s="10">
-        <v>44</v>
+        <v>63.682</v>
+      </c>
+      <c r="DU58" t="n" s="10">
+        <v>65.98</v>
       </c>
       <c r="DV58" t="s" s="10">
         <v>44</v>
@@ -21365,13 +21365,13 @@
         <v>36.271</v>
       </c>
       <c r="DS59" t="n" s="10">
-        <v>36.695</v>
+        <v>36.768</v>
       </c>
       <c r="DT59" t="n" s="10">
-        <v>38.079</v>
-      </c>
-      <c r="DU59" t="s" s="10">
-        <v>44</v>
+        <v>38.889</v>
+      </c>
+      <c r="DU59" t="n" s="10">
+        <v>39.419</v>
       </c>
       <c r="DV59" t="s" s="10">
         <v>44</v>
@@ -21751,7 +21751,7 @@
         <v>57</v>
       </c>
       <c r="DU60" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV60" t="s" s="10">
         <v>44</v>
@@ -22131,7 +22131,7 @@
         <v>57</v>
       </c>
       <c r="DU61" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV61" t="s" s="10">
         <v>44</v>
@@ -22145,64 +22145,64 @@
         <v>43</v>
       </c>
       <c r="C62" t="n" s="10">
-        <v>10.897</v>
+        <v>10.9</v>
       </c>
       <c r="D62" t="n" s="10">
-        <v>10.853</v>
+        <v>10.856</v>
       </c>
       <c r="E62" t="n" s="10">
-        <v>11.122</v>
+        <v>11.114</v>
       </c>
       <c r="F62" t="n" s="10">
-        <v>11.449</v>
+        <v>11.451</v>
       </c>
       <c r="G62" t="n" s="10">
-        <v>11.836</v>
+        <v>11.841</v>
       </c>
       <c r="H62" t="n" s="10">
-        <v>12.112</v>
+        <v>12.114</v>
       </c>
       <c r="I62" t="n" s="10">
-        <v>12.259</v>
+        <v>12.25</v>
       </c>
       <c r="J62" t="n" s="10">
-        <v>12.095</v>
+        <v>12.097</v>
       </c>
       <c r="K62" t="n" s="10">
-        <v>11.988</v>
+        <v>11.99</v>
       </c>
       <c r="L62" t="n" s="10">
+        <v>11.971</v>
+      </c>
+      <c r="M62" t="n" s="10">
         <v>11.969</v>
       </c>
-      <c r="M62" t="n" s="10">
-        <v>11.975</v>
-      </c>
       <c r="N62" t="n" s="10">
-        <v>12.173</v>
+        <v>12.175</v>
       </c>
       <c r="O62" t="n" s="10">
-        <v>12.13</v>
+        <v>12.132</v>
       </c>
       <c r="P62" t="n" s="10">
-        <v>12.181</v>
+        <v>12.183</v>
       </c>
       <c r="Q62" t="n" s="10">
-        <v>12.262</v>
+        <v>12.258</v>
       </c>
       <c r="R62" t="n" s="10">
         <v>12.405</v>
       </c>
       <c r="S62" t="n" s="10">
-        <v>12.555</v>
+        <v>12.557</v>
       </c>
       <c r="T62" t="n" s="10">
         <v>12.617</v>
       </c>
       <c r="U62" t="n" s="10">
-        <v>12.823</v>
+        <v>12.821</v>
       </c>
       <c r="V62" t="n" s="10">
-        <v>12.912</v>
+        <v>12.914</v>
       </c>
       <c r="W62" t="n" s="10">
         <v>13.103</v>
@@ -22211,10 +22211,10 @@
         <v>13.202</v>
       </c>
       <c r="Y62" t="n" s="10">
-        <v>13.326</v>
+        <v>13.325</v>
       </c>
       <c r="Z62" t="n" s="10">
-        <v>13.373</v>
+        <v>13.374</v>
       </c>
       <c r="AA62" t="n" s="10">
         <v>13.415</v>
@@ -22229,25 +22229,25 @@
         <v>13.553</v>
       </c>
       <c r="AE62" t="n" s="10">
-        <v>14.212</v>
+        <v>14.214</v>
       </c>
       <c r="AF62" t="n" s="10">
         <v>14.393</v>
       </c>
       <c r="AG62" t="n" s="10">
-        <v>14.526</v>
+        <v>14.525</v>
       </c>
       <c r="AH62" t="n" s="10">
-        <v>14.635</v>
+        <v>14.634</v>
       </c>
       <c r="AI62" t="n" s="10">
-        <v>15.429</v>
+        <v>15.43</v>
       </c>
       <c r="AJ62" t="n" s="10">
-        <v>15.615</v>
+        <v>15.616</v>
       </c>
       <c r="AK62" t="n" s="10">
-        <v>15.686</v>
+        <v>15.683</v>
       </c>
       <c r="AL62" t="n" s="10">
         <v>15.861</v>
@@ -22289,10 +22289,10 @@
         <v>17.203</v>
       </c>
       <c r="AY62" t="n" s="10">
-        <v>16.758</v>
+        <v>16.759</v>
       </c>
       <c r="AZ62" t="n" s="10">
-        <v>16.852</v>
+        <v>16.851</v>
       </c>
       <c r="BA62" t="n" s="10">
         <v>17.007</v>
@@ -22349,19 +22349,19 @@
         <v>19.546</v>
       </c>
       <c r="BS62" t="n" s="10">
-        <v>20.173</v>
+        <v>20.172</v>
       </c>
       <c r="BT62" t="n" s="10">
-        <v>20.513</v>
+        <v>20.514</v>
       </c>
       <c r="BU62" t="n" s="10">
-        <v>20.652</v>
+        <v>20.653</v>
       </c>
       <c r="BV62" t="n" s="10">
-        <v>20.883</v>
+        <v>20.884</v>
       </c>
       <c r="BW62" t="n" s="10">
-        <v>20.455</v>
+        <v>20.453</v>
       </c>
       <c r="BX62" t="n" s="10">
         <v>20.737</v>
@@ -22370,19 +22370,19 @@
         <v>21.033</v>
       </c>
       <c r="BZ62" t="n" s="10">
-        <v>21.049</v>
+        <v>21.051</v>
       </c>
       <c r="CA62" t="n" s="10">
-        <v>20.789</v>
+        <v>20.788</v>
       </c>
       <c r="CB62" t="n" s="10">
-        <v>20.828</v>
+        <v>20.827</v>
       </c>
       <c r="CC62" t="n" s="10">
         <v>21.065</v>
       </c>
       <c r="CD62" t="n" s="10">
-        <v>21.324</v>
+        <v>21.326</v>
       </c>
       <c r="CE62" t="n" s="10">
         <v>22.485</v>
@@ -22397,13 +22397,13 @@
         <v>22.876</v>
       </c>
       <c r="CI62" t="n" s="10">
-        <v>22.974</v>
+        <v>22.973</v>
       </c>
       <c r="CJ62" t="n" s="10">
-        <v>23.166</v>
+        <v>23.165</v>
       </c>
       <c r="CK62" t="n" s="10">
-        <v>23.414</v>
+        <v>23.415</v>
       </c>
       <c r="CL62" t="n" s="10">
         <v>23.708</v>
@@ -22421,97 +22421,97 @@
         <v>24.152</v>
       </c>
       <c r="CQ62" t="n" s="10">
-        <v>24.687</v>
+        <v>24.685</v>
       </c>
       <c r="CR62" t="n" s="10">
         <v>24.774</v>
       </c>
       <c r="CS62" t="n" s="10">
-        <v>25.135</v>
+        <v>25.134</v>
       </c>
       <c r="CT62" t="n" s="10">
-        <v>25.544</v>
+        <v>25.546</v>
       </c>
       <c r="CU62" t="n" s="10">
-        <v>26.337</v>
+        <v>26.339</v>
       </c>
       <c r="CV62" t="n" s="10">
-        <v>26.833</v>
+        <v>26.824</v>
       </c>
       <c r="CW62" t="n" s="10">
-        <v>27.078</v>
+        <v>27.083</v>
       </c>
       <c r="CX62" t="n" s="10">
-        <v>27.401</v>
+        <v>27.403</v>
       </c>
       <c r="CY62" t="n" s="10">
         <v>28.1</v>
       </c>
       <c r="CZ62" t="n" s="10">
-        <v>28.571</v>
+        <v>28.558</v>
       </c>
       <c r="DA62" t="n" s="10">
-        <v>28.781</v>
+        <v>28.789</v>
       </c>
       <c r="DB62" t="n" s="10">
-        <v>28.801</v>
+        <v>28.806</v>
       </c>
       <c r="DC62" t="n" s="10">
-        <v>29.56</v>
+        <v>29.561</v>
       </c>
       <c r="DD62" t="n" s="10">
-        <v>29.964</v>
+        <v>29.938</v>
       </c>
       <c r="DE62" t="n" s="10">
-        <v>30.244</v>
+        <v>30.259</v>
       </c>
       <c r="DF62" t="n" s="10">
-        <v>30.947</v>
+        <v>30.958</v>
       </c>
       <c r="DG62" t="n" s="10">
-        <v>31.21</v>
+        <v>31.214</v>
       </c>
       <c r="DH62" t="n" s="10">
-        <v>31.94</v>
+        <v>31.89</v>
       </c>
       <c r="DI62" t="n" s="10">
-        <v>32.255</v>
+        <v>32.281</v>
       </c>
       <c r="DJ62" t="n" s="10">
-        <v>32.798</v>
+        <v>32.818</v>
       </c>
       <c r="DK62" t="n" s="10">
-        <v>33.487</v>
+        <v>33.489</v>
       </c>
       <c r="DL62" t="n" s="10">
-        <v>34.11</v>
+        <v>34.032</v>
       </c>
       <c r="DM62" t="n" s="10">
-        <v>34.504</v>
+        <v>34.552</v>
       </c>
       <c r="DN62" t="n" s="10">
-        <v>34.936</v>
+        <v>34.964</v>
       </c>
       <c r="DO62" t="n" s="10">
-        <v>34.94</v>
+        <v>34.934</v>
       </c>
       <c r="DP62" t="n" s="10">
-        <v>33.814</v>
+        <v>33.716</v>
       </c>
       <c r="DQ62" t="n" s="10">
-        <v>34.707</v>
+        <v>34.779</v>
       </c>
       <c r="DR62" t="n" s="10">
-        <v>35.441</v>
+        <v>35.474</v>
       </c>
       <c r="DS62" t="n" s="10">
-        <v>34.596</v>
+        <v>34.591</v>
       </c>
       <c r="DT62" t="n" s="10">
-        <v>35.14</v>
-      </c>
-      <c r="DU62" t="s" s="10">
-        <v>44</v>
+        <v>35.03</v>
+      </c>
+      <c r="DU62" t="n" s="10">
+        <v>35.471</v>
       </c>
       <c r="DV62" t="s" s="10">
         <v>44</v>
@@ -22533,13 +22533,13 @@
         <v>79.97</v>
       </c>
       <c r="D64" t="n" s="10">
-        <v>80.74</v>
+        <v>80.75</v>
       </c>
       <c r="E64" t="n" s="10">
         <v>81.2</v>
       </c>
       <c r="F64" t="n" s="10">
-        <v>83.43</v>
+        <v>83.44</v>
       </c>
       <c r="G64" t="n" s="10">
         <v>85.97</v>
@@ -22548,7 +22548,7 @@
         <v>85.15</v>
       </c>
       <c r="I64" t="n" s="10">
-        <v>82.95</v>
+        <v>82.94</v>
       </c>
       <c r="J64" t="n" s="10">
         <v>82.8</v>
@@ -22560,7 +22560,7 @@
         <v>80.2</v>
       </c>
       <c r="M64" t="n" s="10">
-        <v>80.68</v>
+        <v>80.67</v>
       </c>
       <c r="N64" t="n" s="10">
         <v>79.44</v>
@@ -22632,7 +22632,7 @@
         <v>89.46</v>
       </c>
       <c r="AK64" t="n" s="10">
-        <v>90.93</v>
+        <v>90.92</v>
       </c>
       <c r="AL64" t="n" s="10">
         <v>90.41</v>
@@ -22824,7 +22824,7 @@
         <v>98.92</v>
       </c>
       <c r="CW64" t="n" s="10">
-        <v>99.56</v>
+        <v>99.57</v>
       </c>
       <c r="CX64" t="n" s="10">
         <v>101.77</v>
@@ -22833,22 +22833,22 @@
         <v>103.57</v>
       </c>
       <c r="CZ64" t="n" s="10">
-        <v>102.65</v>
+        <v>102.64</v>
       </c>
       <c r="DA64" t="n" s="10">
         <v>103.57</v>
       </c>
       <c r="DB64" t="n" s="10">
-        <v>103.58</v>
+        <v>103.59</v>
       </c>
       <c r="DC64" t="n" s="10">
         <v>104.63</v>
       </c>
       <c r="DD64" t="n" s="10">
-        <v>106.95</v>
+        <v>106.93</v>
       </c>
       <c r="DE64" t="n" s="10">
-        <v>107.6</v>
+        <v>107.61</v>
       </c>
       <c r="DF64" t="n" s="10">
         <v>107.98</v>
@@ -22857,46 +22857,46 @@
         <v>108.68</v>
       </c>
       <c r="DH64" t="n" s="10">
-        <v>110.3</v>
+        <v>110.27</v>
       </c>
       <c r="DI64" t="n" s="10">
-        <v>111.15</v>
+        <v>111.17</v>
       </c>
       <c r="DJ64" t="n" s="10">
-        <v>111.96</v>
+        <v>111.98</v>
       </c>
       <c r="DK64" t="n" s="10">
         <v>112.7</v>
       </c>
       <c r="DL64" t="n" s="10">
-        <v>112.84</v>
+        <v>112.8</v>
       </c>
       <c r="DM64" t="n" s="10">
-        <v>112.86</v>
+        <v>112.89</v>
       </c>
       <c r="DN64" t="n" s="10">
-        <v>112.03</v>
+        <v>112.05</v>
       </c>
       <c r="DO64" t="n" s="10">
-        <v>111.97</v>
+        <v>111.96</v>
       </c>
       <c r="DP64" t="n" s="10">
-        <v>104.3</v>
+        <v>104.24</v>
       </c>
       <c r="DQ64" t="n" s="10">
-        <v>108.99</v>
+        <v>109.04</v>
       </c>
       <c r="DR64" t="n" s="10">
-        <v>111.61</v>
+        <v>111.63</v>
       </c>
       <c r="DS64" t="n" s="10">
-        <v>110.78</v>
+        <v>111.0</v>
       </c>
       <c r="DT64" t="n" s="10">
-        <v>111.31</v>
-      </c>
-      <c r="DU64" t="s" s="10">
-        <v>44</v>
+        <v>112.35</v>
+      </c>
+      <c r="DU64" t="n" s="10">
+        <v>109.93</v>
       </c>
       <c r="DV64" t="s" s="10">
         <v>44</v>
@@ -23270,13 +23270,13 @@
         <v>104.84</v>
       </c>
       <c r="DS65" t="n" s="10">
-        <v>104.42</v>
+        <v>104.55</v>
       </c>
       <c r="DT65" t="n" s="10">
-        <v>104.77</v>
-      </c>
-      <c r="DU65" t="s" s="10">
-        <v>44</v>
+        <v>105.02</v>
+      </c>
+      <c r="DU65" t="n" s="10">
+        <v>101.12</v>
       </c>
       <c r="DV65" t="s" s="10">
         <v>44</v>
@@ -24410,13 +24410,13 @@
         <v>111.81</v>
       </c>
       <c r="DS68" t="n" s="10">
-        <v>111.55</v>
+        <v>111.9</v>
       </c>
       <c r="DT68" t="n" s="10">
-        <v>111.86</v>
-      </c>
-      <c r="DU68" t="s" s="10">
-        <v>44</v>
+        <v>113.86</v>
+      </c>
+      <c r="DU68" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="DV68" t="s" s="10">
         <v>44</v>
@@ -24790,13 +24790,13 @@
         <v>115.3</v>
       </c>
       <c r="DS69" t="n" s="10">
-        <v>115.47</v>
+        <v>115.91</v>
       </c>
       <c r="DT69" t="n" s="10">
-        <v>115.63</v>
-      </c>
-      <c r="DU69" t="s" s="10">
-        <v>44</v>
+        <v>117.5</v>
+      </c>
+      <c r="DU69" t="n" s="10">
+        <v>115.57</v>
       </c>
       <c r="DV69" t="s" s="10">
         <v>44</v>
@@ -25170,13 +25170,13 @@
         <v>106.55</v>
       </c>
       <c r="DS70" t="n" s="10">
-        <v>105.64</v>
+        <v>105.86</v>
       </c>
       <c r="DT70" t="n" s="10">
-        <v>106.18</v>
-      </c>
-      <c r="DU70" t="s" s="10">
-        <v>44</v>
+        <v>108.37</v>
+      </c>
+      <c r="DU70" t="n" s="10">
+        <v>104.62</v>
       </c>
       <c r="DV70" t="s" s="10">
         <v>44</v>
@@ -25556,7 +25556,7 @@
         <v>57</v>
       </c>
       <c r="DU71" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV71" t="s" s="10">
         <v>44</v>
@@ -25936,7 +25936,7 @@
         <v>57</v>
       </c>
       <c r="DU72" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV72" t="s" s="10">
         <v>44</v>
@@ -25950,64 +25950,64 @@
         <v>43</v>
       </c>
       <c r="C73" t="n" s="10">
-        <v>52.97</v>
+        <v>52.99</v>
       </c>
       <c r="D73" t="n" s="10">
-        <v>52.65</v>
+        <v>52.67</v>
       </c>
       <c r="E73" t="n" s="10">
-        <v>53.9</v>
+        <v>53.86</v>
       </c>
       <c r="F73" t="n" s="10">
-        <v>56.04</v>
+        <v>56.05</v>
       </c>
       <c r="G73" t="n" s="10">
-        <v>56.73</v>
+        <v>56.75</v>
       </c>
       <c r="H73" t="n" s="10">
-        <v>57.42</v>
+        <v>57.43</v>
       </c>
       <c r="I73" t="n" s="10">
-        <v>57.84</v>
+        <v>57.8</v>
       </c>
       <c r="J73" t="n" s="10">
-        <v>56.98</v>
+        <v>56.99</v>
       </c>
       <c r="K73" t="n" s="10">
-        <v>56.08</v>
+        <v>56.09</v>
       </c>
       <c r="L73" t="n" s="10">
-        <v>55.72</v>
+        <v>55.73</v>
       </c>
       <c r="M73" t="n" s="10">
-        <v>55.59</v>
+        <v>55.56</v>
       </c>
       <c r="N73" t="n" s="10">
-        <v>56.26</v>
+        <v>56.27</v>
       </c>
       <c r="O73" t="n" s="10">
-        <v>55.85</v>
+        <v>55.86</v>
       </c>
       <c r="P73" t="n" s="10">
-        <v>55.93</v>
+        <v>55.94</v>
       </c>
       <c r="Q73" t="n" s="10">
-        <v>56.05</v>
+        <v>56.03</v>
       </c>
       <c r="R73" t="n" s="10">
         <v>56.49</v>
       </c>
       <c r="S73" t="n" s="10">
-        <v>57.08</v>
+        <v>57.09</v>
       </c>
       <c r="T73" t="n" s="10">
         <v>57.12</v>
       </c>
       <c r="U73" t="n" s="10">
-        <v>57.88</v>
+        <v>57.87</v>
       </c>
       <c r="V73" t="n" s="10">
-        <v>58.1</v>
+        <v>58.11</v>
       </c>
       <c r="W73" t="n" s="10">
         <v>58.75</v>
@@ -26019,7 +26019,7 @@
         <v>59.33</v>
       </c>
       <c r="Z73" t="n" s="10">
-        <v>59.44</v>
+        <v>59.45</v>
       </c>
       <c r="AA73" t="n" s="10">
         <v>59.68</v>
@@ -26034,7 +26034,7 @@
         <v>59.88</v>
       </c>
       <c r="AE73" t="n" s="10">
-        <v>63.05</v>
+        <v>63.06</v>
       </c>
       <c r="AF73" t="n" s="10">
         <v>63.65</v>
@@ -26052,7 +26052,7 @@
         <v>68.69</v>
       </c>
       <c r="AK73" t="n" s="10">
-        <v>68.96</v>
+        <v>68.95</v>
       </c>
       <c r="AL73" t="n" s="10">
         <v>69.58</v>
@@ -26094,7 +26094,7 @@
         <v>73.24</v>
       </c>
       <c r="AY73" t="n" s="10">
-        <v>71.11</v>
+        <v>71.12</v>
       </c>
       <c r="AZ73" t="n" s="10">
         <v>71.5</v>
@@ -26154,7 +26154,7 @@
         <v>80.49</v>
       </c>
       <c r="BS73" t="n" s="10">
-        <v>82.6</v>
+        <v>82.59</v>
       </c>
       <c r="BT73" t="n" s="10">
         <v>83.8</v>
@@ -26166,7 +26166,7 @@
         <v>84.85</v>
       </c>
       <c r="BW73" t="n" s="10">
-        <v>84.07</v>
+        <v>84.06</v>
       </c>
       <c r="BX73" t="n" s="10">
         <v>84.87</v>
@@ -26175,7 +26175,7 @@
         <v>85.95</v>
       </c>
       <c r="BZ73" t="n" s="10">
-        <v>85.76</v>
+        <v>85.77</v>
       </c>
       <c r="CA73" t="n" s="10">
         <v>84.41</v>
@@ -26187,7 +26187,7 @@
         <v>85.0</v>
       </c>
       <c r="CD73" t="n" s="10">
-        <v>85.67</v>
+        <v>85.68</v>
       </c>
       <c r="CE73" t="n" s="10">
         <v>89.08</v>
@@ -26208,10 +26208,10 @@
         <v>89.88</v>
       </c>
       <c r="CK73" t="n" s="10">
-        <v>90.57</v>
+        <v>90.58</v>
       </c>
       <c r="CL73" t="n" s="10">
-        <v>91.41</v>
+        <v>91.42</v>
       </c>
       <c r="CM73" t="n" s="10">
         <v>90.31</v>
@@ -26226,7 +26226,7 @@
         <v>91.91</v>
       </c>
       <c r="CQ73" t="n" s="10">
-        <v>93.61</v>
+        <v>93.6</v>
       </c>
       <c r="CR73" t="n" s="10">
         <v>93.68</v>
@@ -26235,88 +26235,88 @@
         <v>94.68</v>
       </c>
       <c r="CT73" t="n" s="10">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="CU73" t="n" s="10">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="CV73" t="n" s="10">
-        <v>99.84</v>
+        <v>99.81</v>
       </c>
       <c r="CW73" t="n" s="10">
-        <v>100.45</v>
+        <v>100.47</v>
       </c>
       <c r="CX73" t="n" s="10">
-        <v>101.28</v>
+        <v>101.29</v>
       </c>
       <c r="CY73" t="n" s="10">
         <v>104.13</v>
       </c>
       <c r="CZ73" t="n" s="10">
-        <v>105.41</v>
+        <v>105.36</v>
       </c>
       <c r="DA73" t="n" s="10">
-        <v>105.81</v>
+        <v>105.84</v>
       </c>
       <c r="DB73" t="n" s="10">
-        <v>105.48</v>
+        <v>105.5</v>
       </c>
       <c r="DC73" t="n" s="10">
         <v>107.75</v>
       </c>
       <c r="DD73" t="n" s="10">
-        <v>108.98</v>
+        <v>108.88</v>
       </c>
       <c r="DE73" t="n" s="10">
-        <v>109.6</v>
+        <v>109.65</v>
       </c>
       <c r="DF73" t="n" s="10">
-        <v>111.74</v>
+        <v>111.78</v>
       </c>
       <c r="DG73" t="n" s="10">
-        <v>111.28</v>
+        <v>111.29</v>
       </c>
       <c r="DH73" t="n" s="10">
-        <v>113.45</v>
+        <v>113.27</v>
       </c>
       <c r="DI73" t="n" s="10">
-        <v>114.15</v>
+        <v>114.24</v>
       </c>
       <c r="DJ73" t="n" s="10">
-        <v>115.77</v>
+        <v>115.84</v>
       </c>
       <c r="DK73" t="n" s="10">
-        <v>117.78</v>
+        <v>117.79</v>
       </c>
       <c r="DL73" t="n" s="10">
-        <v>119.49</v>
+        <v>119.22</v>
       </c>
       <c r="DM73" t="n" s="10">
-        <v>120.52</v>
+        <v>120.69</v>
       </c>
       <c r="DN73" t="n" s="10">
-        <v>121.67</v>
+        <v>121.77</v>
       </c>
       <c r="DO73" t="n" s="10">
-        <v>122.35</v>
+        <v>122.33</v>
       </c>
       <c r="DP73" t="n" s="10">
-        <v>118.11</v>
+        <v>117.77</v>
       </c>
       <c r="DQ73" t="n" s="10">
-        <v>120.82</v>
+        <v>121.07</v>
       </c>
       <c r="DR73" t="n" s="10">
-        <v>123.02</v>
+        <v>123.14</v>
       </c>
       <c r="DS73" t="n" s="10">
-        <v>119.78</v>
+        <v>119.77</v>
       </c>
       <c r="DT73" t="n" s="10">
-        <v>121.32</v>
-      </c>
-      <c r="DU73" t="s" s="10">
-        <v>44</v>
+        <v>120.94</v>
+      </c>
+      <c r="DU73" t="n" s="10">
+        <v>122.06</v>
       </c>
       <c r="DV73" t="s" s="10">
         <v>44</v>
@@ -26335,40 +26335,40 @@
         <v>43</v>
       </c>
       <c r="C75" t="n" s="10">
-        <v>121.129</v>
+        <v>121.122</v>
       </c>
       <c r="D75" t="n" s="10">
-        <v>122.296</v>
+        <v>122.303</v>
       </c>
       <c r="E75" t="n" s="10">
-        <v>122.992</v>
+        <v>122.985</v>
       </c>
       <c r="F75" t="n" s="10">
-        <v>126.37</v>
+        <v>126.377</v>
       </c>
       <c r="G75" t="n" s="10">
-        <v>130.205</v>
+        <v>130.209</v>
       </c>
       <c r="H75" t="n" s="10">
-        <v>128.964</v>
+        <v>128.967</v>
       </c>
       <c r="I75" t="n" s="10">
-        <v>125.632</v>
+        <v>125.62</v>
       </c>
       <c r="J75" t="n" s="10">
-        <v>125.404</v>
+        <v>125.408</v>
       </c>
       <c r="K75" t="n" s="10">
-        <v>122.591</v>
+        <v>122.595</v>
       </c>
       <c r="L75" t="n" s="10">
-        <v>121.47</v>
+        <v>121.474</v>
       </c>
       <c r="M75" t="n" s="10">
-        <v>122.197</v>
+        <v>122.186</v>
       </c>
       <c r="N75" t="n" s="10">
-        <v>120.319</v>
+        <v>120.323</v>
       </c>
       <c r="O75" t="n" s="10">
         <v>124.261</v>
@@ -26431,16 +26431,16 @@
         <v>130.482</v>
       </c>
       <c r="AI75" t="n" s="10">
-        <v>134.658</v>
+        <v>134.662</v>
       </c>
       <c r="AJ75" t="n" s="10">
-        <v>135.491</v>
+        <v>135.495</v>
       </c>
       <c r="AK75" t="n" s="10">
-        <v>137.718</v>
+        <v>137.707</v>
       </c>
       <c r="AL75" t="n" s="10">
-        <v>136.93</v>
+        <v>136.934</v>
       </c>
       <c r="AM75" t="n" s="10">
         <v>139.857</v>
@@ -26623,85 +26623,85 @@
         <v>149.687</v>
       </c>
       <c r="CU75" t="n" s="10">
-        <v>149.46</v>
+        <v>149.456</v>
       </c>
       <c r="CV75" t="n" s="10">
-        <v>149.823</v>
+        <v>149.819</v>
       </c>
       <c r="CW75" t="n" s="10">
-        <v>150.793</v>
+        <v>150.804</v>
       </c>
       <c r="CX75" t="n" s="10">
-        <v>154.14</v>
+        <v>154.136</v>
       </c>
       <c r="CY75" t="n" s="10">
         <v>156.87</v>
       </c>
       <c r="CZ75" t="n" s="10">
-        <v>155.476</v>
+        <v>155.461</v>
       </c>
       <c r="DA75" t="n" s="10">
         <v>156.87</v>
       </c>
       <c r="DB75" t="n" s="10">
-        <v>156.885</v>
+        <v>156.9</v>
       </c>
       <c r="DC75" t="n" s="10">
-        <v>158.472</v>
+        <v>158.475</v>
       </c>
       <c r="DD75" t="n" s="10">
-        <v>161.985</v>
+        <v>161.959</v>
       </c>
       <c r="DE75" t="n" s="10">
-        <v>162.97</v>
+        <v>162.989</v>
       </c>
       <c r="DF75" t="n" s="10">
-        <v>163.545</v>
+        <v>163.549</v>
       </c>
       <c r="DG75" t="n" s="10">
-        <v>164.606</v>
+        <v>164.602</v>
       </c>
       <c r="DH75" t="n" s="10">
-        <v>167.059</v>
+        <v>167.01</v>
       </c>
       <c r="DI75" t="n" s="10">
-        <v>168.347</v>
+        <v>168.373</v>
       </c>
       <c r="DJ75" t="n" s="10">
-        <v>169.573</v>
+        <v>169.6</v>
       </c>
       <c r="DK75" t="n" s="10">
-        <v>170.698</v>
+        <v>170.694</v>
       </c>
       <c r="DL75" t="n" s="10">
-        <v>170.91</v>
+        <v>170.846</v>
       </c>
       <c r="DM75" t="n" s="10">
-        <v>170.94</v>
+        <v>170.982</v>
       </c>
       <c r="DN75" t="n" s="10">
-        <v>169.683</v>
+        <v>169.71</v>
       </c>
       <c r="DO75" t="n" s="10">
-        <v>169.585</v>
+        <v>169.57</v>
       </c>
       <c r="DP75" t="n" s="10">
-        <v>157.968</v>
+        <v>157.877</v>
       </c>
       <c r="DQ75" t="n" s="10">
-        <v>165.071</v>
+        <v>165.147</v>
       </c>
       <c r="DR75" t="n" s="10">
-        <v>169.04</v>
+        <v>169.07</v>
       </c>
       <c r="DS75" t="n" s="10">
-        <v>167.782</v>
+        <v>168.116</v>
       </c>
       <c r="DT75" t="n" s="10">
-        <v>168.585</v>
-      </c>
-      <c r="DU75" t="s" s="10">
-        <v>44</v>
+        <v>170.16</v>
+      </c>
+      <c r="DU75" t="n" s="10">
+        <v>166.495</v>
       </c>
       <c r="DV75" t="s" s="10">
         <v>44</v>
@@ -27075,13 +27075,13 @@
         <v>54.24</v>
       </c>
       <c r="DS76" t="n" s="10">
-        <v>54.022</v>
+        <v>54.09</v>
       </c>
       <c r="DT76" t="n" s="10">
-        <v>54.204</v>
-      </c>
-      <c r="DU76" t="s" s="10">
-        <v>44</v>
+        <v>54.333</v>
+      </c>
+      <c r="DU76" t="n" s="10">
+        <v>52.315</v>
       </c>
       <c r="DV76" t="s" s="10">
         <v>44</v>
@@ -28215,13 +28215,13 @@
         <v>81.408</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>81.219</v>
+        <v>81.473</v>
       </c>
       <c r="DT79" t="n" s="10">
-        <v>81.444</v>
-      </c>
-      <c r="DU79" t="s" s="10">
-        <v>44</v>
+        <v>82.9</v>
+      </c>
+      <c r="DU79" t="n" s="10">
+        <v>80.964</v>
       </c>
       <c r="DV79" t="s" s="10">
         <v>44</v>
@@ -28595,13 +28595,13 @@
         <v>50.548</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>50.622</v>
+        <v>50.815</v>
       </c>
       <c r="DT80" t="n" s="10">
-        <v>50.693</v>
-      </c>
-      <c r="DU80" t="s" s="10">
-        <v>44</v>
+        <v>51.512</v>
+      </c>
+      <c r="DU80" t="n" s="10">
+        <v>50.666</v>
       </c>
       <c r="DV80" t="s" s="10">
         <v>44</v>
@@ -28975,13 +28975,13 @@
         <v>30.866</v>
       </c>
       <c r="DS81" t="n" s="10">
-        <v>30.602</v>
+        <v>30.666</v>
       </c>
       <c r="DT81" t="n" s="10">
-        <v>30.758</v>
-      </c>
-      <c r="DU81" t="s" s="10">
-        <v>44</v>
+        <v>31.393</v>
+      </c>
+      <c r="DU81" t="n" s="10">
+        <v>30.306</v>
       </c>
       <c r="DV81" t="s" s="10">
         <v>44</v>
@@ -29361,7 +29361,7 @@
         <v>57</v>
       </c>
       <c r="DU82" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV82" t="s" s="10">
         <v>44</v>
@@ -29741,7 +29741,7 @@
         <v>57</v>
       </c>
       <c r="DU83" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV83" t="s" s="10">
         <v>44</v>
@@ -29755,76 +29755,76 @@
         <v>43</v>
       </c>
       <c r="C84" t="n" s="10">
-        <v>14.256</v>
+        <v>14.26</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>14.169</v>
+        <v>14.174</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>14.506</v>
+        <v>14.494</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>15.082</v>
+        <v>15.084</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>15.267</v>
+        <v>15.272</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>15.452</v>
+        <v>15.455</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>15.566</v>
+        <v>15.555</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>15.334</v>
+        <v>15.337</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>15.093</v>
+        <v>15.095</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>14.996</v>
+        <v>14.998</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>14.961</v>
+        <v>14.953</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>15.141</v>
+        <v>15.144</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>15.031</v>
+        <v>15.034</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>15.053</v>
+        <v>15.056</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>15.085</v>
+        <v>15.08</v>
       </c>
       <c r="R84" t="n" s="10">
         <v>15.204</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>15.362</v>
+        <v>15.364</v>
       </c>
       <c r="T84" t="n" s="10">
         <v>15.372</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>15.577</v>
+        <v>15.574</v>
       </c>
       <c r="V84" t="n" s="10">
-        <v>15.636</v>
+        <v>15.638</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>15.811</v>
+        <v>15.81</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>15.9</v>
+        <v>15.899</v>
       </c>
       <c r="Y84" t="n" s="10">
         <v>15.967</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>15.997</v>
+        <v>15.999</v>
       </c>
       <c r="AA84" t="n" s="10">
         <v>16.061</v>
@@ -29839,25 +29839,25 @@
         <v>16.115</v>
       </c>
       <c r="AE84" t="n" s="10">
-        <v>16.968</v>
+        <v>16.97</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>17.13</v>
+        <v>17.129</v>
       </c>
       <c r="AG84" t="n" s="10">
-        <v>17.27</v>
+        <v>17.269</v>
       </c>
       <c r="AH84" t="n" s="10">
-        <v>17.372</v>
+        <v>17.371</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>18.354</v>
+        <v>18.355</v>
       </c>
       <c r="AJ84" t="n" s="10">
-        <v>18.486</v>
+        <v>18.487</v>
       </c>
       <c r="AK84" t="n" s="10">
-        <v>18.559</v>
+        <v>18.557</v>
       </c>
       <c r="AL84" t="n" s="10">
         <v>18.726</v>
@@ -29899,13 +29899,13 @@
         <v>19.711</v>
       </c>
       <c r="AY84" t="n" s="10">
-        <v>19.138</v>
+        <v>19.14</v>
       </c>
       <c r="AZ84" t="n" s="10">
-        <v>19.243</v>
+        <v>19.242</v>
       </c>
       <c r="BA84" t="n" s="10">
-        <v>19.375</v>
+        <v>19.374</v>
       </c>
       <c r="BB84" t="n" s="10">
         <v>19.318</v>
@@ -29959,19 +29959,19 @@
         <v>21.662</v>
       </c>
       <c r="BS84" t="n" s="10">
-        <v>22.229</v>
+        <v>22.227</v>
       </c>
       <c r="BT84" t="n" s="10">
-        <v>22.552</v>
+        <v>22.553</v>
       </c>
       <c r="BU84" t="n" s="10">
-        <v>22.665</v>
+        <v>22.666</v>
       </c>
       <c r="BV84" t="n" s="10">
         <v>22.835</v>
       </c>
       <c r="BW84" t="n" s="10">
-        <v>22.625</v>
+        <v>22.623</v>
       </c>
       <c r="BX84" t="n" s="10">
         <v>22.841</v>
@@ -29980,19 +29980,19 @@
         <v>23.131</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>23.08</v>
+        <v>23.083</v>
       </c>
       <c r="CA84" t="n" s="10">
-        <v>22.718</v>
+        <v>22.717</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>22.677</v>
+        <v>22.676</v>
       </c>
       <c r="CC84" t="n" s="10">
         <v>22.876</v>
       </c>
       <c r="CD84" t="n" s="10">
-        <v>23.057</v>
+        <v>23.059</v>
       </c>
       <c r="CE84" t="n" s="10">
         <v>23.974</v>
@@ -30007,16 +30007,16 @@
         <v>24.173</v>
       </c>
       <c r="CI84" t="n" s="10">
-        <v>24.055</v>
+        <v>24.054</v>
       </c>
       <c r="CJ84" t="n" s="10">
-        <v>24.19</v>
+        <v>24.188</v>
       </c>
       <c r="CK84" t="n" s="10">
-        <v>24.375</v>
+        <v>24.377</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>24.601</v>
+        <v>24.603</v>
       </c>
       <c r="CM84" t="n" s="10">
         <v>24.305</v>
@@ -30031,7 +30031,7 @@
         <v>24.735</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>25.192</v>
+        <v>25.189</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>25.211</v>
@@ -30040,88 +30040,88 @@
         <v>25.48</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>25.795</v>
+        <v>25.798</v>
       </c>
       <c r="CU84" t="n" s="10">
-        <v>26.49</v>
+        <v>26.492</v>
       </c>
       <c r="CV84" t="n" s="10">
-        <v>26.869</v>
+        <v>26.861</v>
       </c>
       <c r="CW84" t="n" s="10">
-        <v>27.034</v>
+        <v>27.038</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>27.257</v>
+        <v>27.259</v>
       </c>
       <c r="CY84" t="n" s="10">
         <v>28.023</v>
       </c>
       <c r="CZ84" t="n" s="10">
-        <v>28.368</v>
+        <v>28.354</v>
       </c>
       <c r="DA84" t="n" s="10">
-        <v>28.475</v>
+        <v>28.484</v>
       </c>
       <c r="DB84" t="n" s="10">
-        <v>28.387</v>
+        <v>28.392</v>
       </c>
       <c r="DC84" t="n" s="10">
         <v>28.998</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>29.329</v>
+        <v>29.302</v>
       </c>
       <c r="DE84" t="n" s="10">
-        <v>29.495</v>
+        <v>29.51</v>
       </c>
       <c r="DF84" t="n" s="10">
-        <v>30.071</v>
+        <v>30.083</v>
       </c>
       <c r="DG84" t="n" s="10">
-        <v>29.948</v>
+        <v>29.952</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>30.532</v>
+        <v>30.484</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>30.721</v>
+        <v>30.746</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>31.157</v>
+        <v>31.176</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>31.698</v>
+        <v>31.7</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>32.158</v>
+        <v>32.084</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>32.435</v>
+        <v>32.48</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>32.744</v>
+        <v>32.771</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>32.927</v>
+        <v>32.921</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>31.786</v>
+        <v>31.694</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>32.516</v>
+        <v>32.582</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>33.108</v>
+        <v>33.139</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>32.236</v>
+        <v>32.232</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>32.65</v>
-      </c>
-      <c r="DU84" t="s" s="10">
-        <v>44</v>
+        <v>32.547</v>
+      </c>
+      <c r="DU84" t="n" s="10">
+        <v>32.849</v>
       </c>
       <c r="DV84" t="s" s="10">
         <v>44</v>
@@ -30506,7 +30506,7 @@
         <v>57</v>
       </c>
       <c r="DU86" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV86" t="s" s="10">
         <v>44</v>
@@ -30886,7 +30886,7 @@
         <v>57</v>
       </c>
       <c r="DU87" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV87" t="s" s="10">
         <v>44</v>
@@ -31266,7 +31266,7 @@
         <v>57</v>
       </c>
       <c r="DU88" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV88" t="s" s="10">
         <v>44</v>
@@ -31646,7 +31646,7 @@
         <v>57</v>
       </c>
       <c r="DU89" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV89" t="s" s="10">
         <v>44</v>
@@ -32026,7 +32026,7 @@
         <v>57</v>
       </c>
       <c r="DU90" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV90" t="s" s="10">
         <v>44</v>
@@ -32406,7 +32406,7 @@
         <v>57</v>
       </c>
       <c r="DU91" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV91" t="s" s="10">
         <v>44</v>
@@ -32786,7 +32786,7 @@
         <v>57</v>
       </c>
       <c r="DU92" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV92" t="s" s="10">
         <v>44</v>
@@ -33166,7 +33166,7 @@
         <v>57</v>
       </c>
       <c r="DU93" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV93" t="s" s="10">
         <v>44</v>
@@ -33546,7 +33546,7 @@
         <v>57</v>
       </c>
       <c r="DU94" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV94" t="s" s="10">
         <v>44</v>
@@ -33926,7 +33926,7 @@
         <v>57</v>
       </c>
       <c r="DU95" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV95" t="s" s="10">
         <v>44</v>
@@ -33950,373 +33950,373 @@
         <v>43</v>
       </c>
       <c r="C98" t="n" s="10">
-        <v>95.568</v>
+        <v>95.488</v>
       </c>
       <c r="D98" t="n" s="10">
-        <v>97.808</v>
+        <v>97.818</v>
       </c>
       <c r="E98" t="n" s="10">
-        <v>100.36</v>
+        <v>100.352</v>
       </c>
       <c r="F98" t="n" s="10">
-        <v>103.423</v>
+        <v>103.363</v>
       </c>
       <c r="G98" t="n" s="10">
-        <v>106.582</v>
+        <v>106.602</v>
       </c>
       <c r="H98" t="n" s="10">
-        <v>107.567</v>
+        <v>107.533</v>
       </c>
       <c r="I98" t="n" s="10">
-        <v>106.856</v>
+        <v>106.858</v>
       </c>
       <c r="J98" t="n" s="10">
-        <v>107.473</v>
+        <v>107.493</v>
       </c>
       <c r="K98" t="n" s="10">
-        <v>104.888</v>
+        <v>104.866</v>
       </c>
       <c r="L98" t="n" s="10">
-        <v>104.694</v>
+        <v>104.715</v>
       </c>
       <c r="M98" t="n" s="10">
-        <v>105.871</v>
+        <v>105.886</v>
       </c>
       <c r="N98" t="n" s="10">
-        <v>104.075</v>
+        <v>104.134</v>
       </c>
       <c r="O98" t="n" s="10">
-        <v>108.304</v>
+        <v>108.319</v>
       </c>
       <c r="P98" t="n" s="10">
-        <v>109.401</v>
+        <v>109.425</v>
       </c>
       <c r="Q98" t="n" s="10">
-        <v>110.034</v>
+        <v>110.055</v>
       </c>
       <c r="R98" t="n" s="10">
-        <v>112.589</v>
+        <v>112.571</v>
       </c>
       <c r="S98" t="n" s="10">
-        <v>112.382</v>
+        <v>112.416</v>
       </c>
       <c r="T98" t="n" s="10">
-        <v>111.526</v>
+        <v>111.51</v>
       </c>
       <c r="U98" t="n" s="10">
-        <v>111.389</v>
+        <v>111.35</v>
       </c>
       <c r="V98" t="n" s="10">
-        <v>110.377</v>
+        <v>110.361</v>
       </c>
       <c r="W98" t="n" s="10">
-        <v>108.411</v>
+        <v>108.426</v>
       </c>
       <c r="X98" t="n" s="10">
-        <v>111.581</v>
+        <v>111.544</v>
       </c>
       <c r="Y98" t="n" s="10">
-        <v>111.831</v>
+        <v>111.825</v>
       </c>
       <c r="Z98" t="n" s="10">
-        <v>111.675</v>
+        <v>111.65</v>
       </c>
       <c r="AA98" t="n" s="10">
-        <v>111.224</v>
+        <v>111.136</v>
       </c>
       <c r="AB98" t="n" s="10">
-        <v>111.081</v>
+        <v>111.121</v>
       </c>
       <c r="AC98" t="n" s="10">
-        <v>111.447</v>
+        <v>111.44</v>
       </c>
       <c r="AD98" t="n" s="10">
-        <v>113.051</v>
+        <v>113.014</v>
       </c>
       <c r="AE98" t="n" s="10">
-        <v>115.09</v>
+        <v>115.103</v>
       </c>
       <c r="AF98" t="n" s="10">
-        <v>114.067</v>
+        <v>114.025</v>
       </c>
       <c r="AG98" t="n" s="10">
-        <v>114.88</v>
+        <v>114.892</v>
       </c>
       <c r="AH98" t="n" s="10">
-        <v>115.049</v>
+        <v>115.081</v>
       </c>
       <c r="AI98" t="n" s="10">
-        <v>116.118</v>
+        <v>116.107</v>
       </c>
       <c r="AJ98" t="n" s="10">
-        <v>117.503</v>
+        <v>117.541</v>
       </c>
       <c r="AK98" t="n" s="10">
-        <v>118.861</v>
+        <v>118.893</v>
       </c>
       <c r="AL98" t="n" s="10">
-        <v>119.111</v>
+        <v>119.189</v>
       </c>
       <c r="AM98" t="n" s="10">
-        <v>120.466</v>
+        <v>120.526</v>
       </c>
       <c r="AN98" t="n" s="10">
-        <v>121.801</v>
+        <v>121.795</v>
       </c>
       <c r="AO98" t="n" s="10">
-        <v>122.365</v>
+        <v>122.346</v>
       </c>
       <c r="AP98" t="n" s="10">
-        <v>123.003</v>
+        <v>122.955</v>
       </c>
       <c r="AQ98" t="n" s="10">
-        <v>121.591</v>
+        <v>121.599</v>
       </c>
       <c r="AR98" t="n" s="10">
-        <v>119.73</v>
+        <v>119.704</v>
       </c>
       <c r="AS98" t="n" s="10">
-        <v>117.587</v>
+        <v>117.548</v>
       </c>
       <c r="AT98" t="n" s="10">
-        <v>115.668</v>
+        <v>115.638</v>
       </c>
       <c r="AU98" t="n" s="10">
-        <v>113.299</v>
+        <v>113.234</v>
       </c>
       <c r="AV98" t="n" s="10">
-        <v>111.603</v>
+        <v>111.609</v>
       </c>
       <c r="AW98" t="n" s="10">
-        <v>110.097</v>
+        <v>110.094</v>
       </c>
       <c r="AX98" t="n" s="10">
-        <v>108.798</v>
+        <v>108.778</v>
       </c>
       <c r="AY98" t="n" s="10">
-        <v>108.868</v>
+        <v>108.852</v>
       </c>
       <c r="AZ98" t="n" s="10">
-        <v>108.107</v>
+        <v>108.069</v>
       </c>
       <c r="BA98" t="n" s="10">
-        <v>108.049</v>
+        <v>108.046</v>
       </c>
       <c r="BB98" t="n" s="10">
-        <v>108.131</v>
+        <v>108.095</v>
       </c>
       <c r="BC98" t="n" s="10">
-        <v>107.344</v>
+        <v>107.394</v>
       </c>
       <c r="BD98" t="n" s="10">
-        <v>107.604</v>
+        <v>107.606</v>
       </c>
       <c r="BE98" t="n" s="10">
-        <v>107.362</v>
+        <v>107.379</v>
       </c>
       <c r="BF98" t="n" s="10">
-        <v>106.037</v>
+        <v>106.12</v>
       </c>
       <c r="BG98" t="n" s="10">
-        <v>106.556</v>
+        <v>106.541</v>
       </c>
       <c r="BH98" t="n" s="10">
-        <v>107.194</v>
+        <v>107.274</v>
       </c>
       <c r="BI98" t="n" s="10">
-        <v>109.302</v>
+        <v>109.326</v>
       </c>
       <c r="BJ98" t="n" s="10">
-        <v>111.96</v>
+        <v>111.952</v>
       </c>
       <c r="BK98" t="n" s="10">
-        <v>110.905</v>
+        <v>111.02</v>
       </c>
       <c r="BL98" t="n" s="10">
-        <v>118.387</v>
+        <v>118.329</v>
       </c>
       <c r="BM98" t="n" s="10">
-        <v>120.398</v>
+        <v>120.363</v>
       </c>
       <c r="BN98" t="n" s="10">
-        <v>123.267</v>
+        <v>123.236</v>
       </c>
       <c r="BO98" t="n" s="10">
-        <v>124.785</v>
+        <v>124.821</v>
       </c>
       <c r="BP98" t="n" s="10">
-        <v>124.708</v>
+        <v>124.653</v>
       </c>
       <c r="BQ98" t="n" s="10">
-        <v>125.516</v>
+        <v>125.485</v>
       </c>
       <c r="BR98" t="n" s="10">
-        <v>127.658</v>
+        <v>127.637</v>
       </c>
       <c r="BS98" t="n" s="10">
-        <v>129.69</v>
+        <v>129.575</v>
       </c>
       <c r="BT98" t="n" s="10">
-        <v>129.823</v>
+        <v>129.9</v>
       </c>
       <c r="BU98" t="n" s="10">
-        <v>128.695</v>
+        <v>128.853</v>
       </c>
       <c r="BV98" t="n" s="10">
-        <v>128.123</v>
+        <v>128.372</v>
       </c>
       <c r="BW98" t="n" s="10">
-        <v>118.94</v>
+        <v>118.084</v>
       </c>
       <c r="BX98" t="n" s="10">
-        <v>117.229</v>
+        <v>117.463</v>
       </c>
       <c r="BY98" t="n" s="10">
-        <v>117.025</v>
+        <v>117.461</v>
       </c>
       <c r="BZ98" t="n" s="10">
-        <v>118.331</v>
+        <v>118.932</v>
       </c>
       <c r="CA98" t="n" s="10">
-        <v>119.678</v>
+        <v>118.11</v>
       </c>
       <c r="CB98" t="n" s="10">
-        <v>124.934</v>
+        <v>125.534</v>
       </c>
       <c r="CC98" t="n" s="10">
-        <v>126.797</v>
+        <v>127.246</v>
       </c>
       <c r="CD98" t="n" s="10">
-        <v>128.059</v>
+        <v>128.418</v>
       </c>
       <c r="CE98" t="n" s="10">
-        <v>134.175</v>
+        <v>133.337</v>
       </c>
       <c r="CF98" t="n" s="10">
-        <v>135.182</v>
+        <v>135.502</v>
       </c>
       <c r="CG98" t="n" s="10">
-        <v>137.545</v>
+        <v>137.719</v>
       </c>
       <c r="CH98" t="n" s="10">
-        <v>139.565</v>
+        <v>139.566</v>
       </c>
       <c r="CI98" t="n" s="10">
-        <v>139.865</v>
+        <v>139.859</v>
       </c>
       <c r="CJ98" t="n" s="10">
-        <v>139.383</v>
+        <v>139.361</v>
       </c>
       <c r="CK98" t="n" s="10">
-        <v>139.441</v>
+        <v>139.409</v>
       </c>
       <c r="CL98" t="n" s="10">
-        <v>139.024</v>
+        <v>138.994</v>
       </c>
       <c r="CM98" t="n" s="10">
-        <v>136.178</v>
+        <v>136.109</v>
       </c>
       <c r="CN98" t="n" s="10">
-        <v>139.96</v>
+        <v>139.97</v>
       </c>
       <c r="CO98" t="n" s="10">
-        <v>141.616</v>
+        <v>141.61</v>
       </c>
       <c r="CP98" t="n" s="10">
-        <v>143.758</v>
+        <v>143.734</v>
       </c>
       <c r="CQ98" t="n" s="10">
-        <v>147.406</v>
+        <v>147.396</v>
       </c>
       <c r="CR98" t="n" s="10">
-        <v>146.243</v>
+        <v>146.21</v>
       </c>
       <c r="CS98" t="n" s="10">
-        <v>147.244</v>
+        <v>147.23</v>
       </c>
       <c r="CT98" t="n" s="10">
-        <v>147.69</v>
+        <v>147.652</v>
       </c>
       <c r="CU98" t="n" s="10">
-        <v>148.109</v>
+        <v>148.114</v>
       </c>
       <c r="CV98" t="n" s="10">
-        <v>150.005</v>
+        <v>149.963</v>
       </c>
       <c r="CW98" t="n" s="10">
-        <v>152.044</v>
+        <v>152.048</v>
       </c>
       <c r="CX98" t="n" s="10">
-        <v>155.288</v>
+        <v>155.348</v>
       </c>
       <c r="CY98" t="n" s="10">
-        <v>157.193</v>
+        <v>157.153</v>
       </c>
       <c r="CZ98" t="n" s="10">
-        <v>158.072</v>
+        <v>158.147</v>
       </c>
       <c r="DA98" t="n" s="10">
-        <v>159.446</v>
+        <v>159.44</v>
       </c>
       <c r="DB98" t="n" s="10">
-        <v>160.14</v>
+        <v>160.253</v>
       </c>
       <c r="DC98" t="n" s="10">
-        <v>162.904</v>
+        <v>162.948</v>
       </c>
       <c r="DD98" t="n" s="10">
-        <v>165.978</v>
+        <v>165.876</v>
       </c>
       <c r="DE98" t="n" s="10">
-        <v>168.24</v>
+        <v>168.155</v>
       </c>
       <c r="DF98" t="n" s="10">
-        <v>171.03</v>
+        <v>171.144</v>
       </c>
       <c r="DG98" t="n" s="10">
-        <v>173.078</v>
+        <v>172.989</v>
       </c>
       <c r="DH98" t="n" s="10">
-        <v>176.509</v>
+        <v>176.395</v>
       </c>
       <c r="DI98" t="n" s="10">
-        <v>179.074</v>
+        <v>178.994</v>
       </c>
       <c r="DJ98" t="n" s="10">
-        <v>181.988</v>
+        <v>182.225</v>
       </c>
       <c r="DK98" t="n" s="10">
-        <v>183.831</v>
+        <v>183.811</v>
       </c>
       <c r="DL98" t="n" s="10">
-        <v>186.339</v>
+        <v>185.879</v>
       </c>
       <c r="DM98" t="n" s="10">
-        <v>187.806</v>
+        <v>187.854</v>
       </c>
       <c r="DN98" t="n" s="10">
-        <v>185.783</v>
+        <v>186.396</v>
       </c>
       <c r="DO98" t="n" s="10">
-        <v>186.295</v>
+        <v>186.105</v>
       </c>
       <c r="DP98" t="n" s="10">
-        <v>176.661</v>
+        <v>175.727</v>
       </c>
       <c r="DQ98" t="n" s="10">
-        <v>183.66</v>
+        <v>184.33</v>
       </c>
       <c r="DR98" t="n" s="10">
-        <v>187.533</v>
+        <v>188.525</v>
       </c>
       <c r="DS98" t="n" s="10">
-        <v>187.493</v>
+        <v>187.384</v>
       </c>
       <c r="DT98" t="n" s="10">
-        <v>195.324</v>
-      </c>
-      <c r="DU98" t="s" s="10">
-        <v>44</v>
+        <v>196.038</v>
+      </c>
+      <c r="DU98" t="n" s="10">
+        <v>199.895</v>
       </c>
       <c r="DV98" t="s" s="10">
         <v>44</v>
@@ -34330,373 +34330,373 @@
         <v>43</v>
       </c>
       <c r="C99" t="n" s="10">
-        <v>38.559</v>
+        <v>38.543</v>
       </c>
       <c r="D99" t="n" s="10">
-        <v>39.701</v>
+        <v>39.703</v>
       </c>
       <c r="E99" t="n" s="10">
-        <v>39.894</v>
+        <v>39.892</v>
       </c>
       <c r="F99" t="n" s="10">
-        <v>40.371</v>
+        <v>40.359</v>
       </c>
       <c r="G99" t="n" s="10">
-        <v>40.236</v>
+        <v>40.24</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>39.649</v>
+        <v>39.642</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>38.073</v>
+        <v>38.074</v>
       </c>
       <c r="J99" t="n" s="10">
-        <v>36.816</v>
+        <v>36.82</v>
       </c>
       <c r="K99" t="n" s="10">
-        <v>34.794</v>
+        <v>34.79</v>
       </c>
       <c r="L99" t="n" s="10">
-        <v>33.49</v>
+        <v>33.494</v>
       </c>
       <c r="M99" t="n" s="10">
-        <v>33.195</v>
+        <v>33.198</v>
       </c>
       <c r="N99" t="n" s="10">
-        <v>31.978</v>
+        <v>31.99</v>
       </c>
       <c r="O99" t="n" s="10">
-        <v>32.611</v>
+        <v>32.614</v>
       </c>
       <c r="P99" t="n" s="10">
-        <v>32.667</v>
+        <v>32.672</v>
       </c>
       <c r="Q99" t="n" s="10">
-        <v>32.795</v>
+        <v>32.799</v>
       </c>
       <c r="R99" t="n" s="10">
-        <v>33.509</v>
+        <v>33.505</v>
       </c>
       <c r="S99" t="n" s="10">
-        <v>33.305</v>
+        <v>33.312</v>
       </c>
       <c r="T99" t="n" s="10">
-        <v>33.13</v>
+        <v>33.127</v>
       </c>
       <c r="U99" t="n" s="10">
-        <v>33.515</v>
+        <v>33.507</v>
       </c>
       <c r="V99" t="n" s="10">
-        <v>33.616</v>
+        <v>33.613</v>
       </c>
       <c r="W99" t="n" s="10">
-        <v>33.651</v>
+        <v>33.654</v>
       </c>
       <c r="X99" t="n" s="10">
-        <v>34.279</v>
+        <v>34.271</v>
       </c>
       <c r="Y99" t="n" s="10">
-        <v>34.332</v>
+        <v>34.331</v>
       </c>
       <c r="Z99" t="n" s="10">
-        <v>34.416</v>
+        <v>34.411</v>
       </c>
       <c r="AA99" t="n" s="10">
-        <v>34.739</v>
+        <v>34.721</v>
       </c>
       <c r="AB99" t="n" s="10">
-        <v>34.957</v>
+        <v>34.965</v>
       </c>
       <c r="AC99" t="n" s="10">
-        <v>35.466</v>
+        <v>35.465</v>
       </c>
       <c r="AD99" t="n" s="10">
-        <v>36.38</v>
+        <v>36.373</v>
       </c>
       <c r="AE99" t="n" s="10">
-        <v>37.522</v>
+        <v>37.525</v>
       </c>
       <c r="AF99" t="n" s="10">
-        <v>38.293</v>
+        <v>38.284</v>
       </c>
       <c r="AG99" t="n" s="10">
-        <v>39.015</v>
+        <v>39.017</v>
       </c>
       <c r="AH99" t="n" s="10">
-        <v>39.688</v>
+        <v>39.694</v>
       </c>
       <c r="AI99" t="n" s="10">
-        <v>40.036</v>
+        <v>40.034</v>
       </c>
       <c r="AJ99" t="n" s="10">
-        <v>40.316</v>
+        <v>40.324</v>
       </c>
       <c r="AK99" t="n" s="10">
-        <v>40.914</v>
+        <v>40.92</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>41.33</v>
+        <v>41.346</v>
       </c>
       <c r="AM99" t="n" s="10">
-        <v>42.984</v>
+        <v>42.996</v>
       </c>
       <c r="AN99" t="n" s="10">
-        <v>44.925</v>
+        <v>44.924</v>
       </c>
       <c r="AO99" t="n" s="10">
-        <v>46.202</v>
+        <v>46.198</v>
       </c>
       <c r="AP99" t="n" s="10">
-        <v>47.035</v>
+        <v>47.025</v>
       </c>
       <c r="AQ99" t="n" s="10">
-        <v>46.024</v>
+        <v>46.026</v>
       </c>
       <c r="AR99" t="n" s="10">
-        <v>44.112</v>
+        <v>44.107</v>
       </c>
       <c r="AS99" t="n" s="10">
-        <v>42.64</v>
+        <v>42.632</v>
       </c>
       <c r="AT99" t="n" s="10">
-        <v>41.24</v>
+        <v>41.234</v>
       </c>
       <c r="AU99" t="n" s="10">
-        <v>39.977</v>
+        <v>39.964</v>
       </c>
       <c r="AV99" t="n" s="10">
-        <v>39.991</v>
+        <v>39.992</v>
       </c>
       <c r="AW99" t="n" s="10">
         <v>39.023</v>
       </c>
       <c r="AX99" t="n" s="10">
-        <v>38.632</v>
+        <v>38.628</v>
       </c>
       <c r="AY99" t="n" s="10">
-        <v>39.056</v>
+        <v>39.053</v>
       </c>
       <c r="AZ99" t="n" s="10">
-        <v>37.836</v>
+        <v>37.828</v>
       </c>
       <c r="BA99" t="n" s="10">
-        <v>37.983</v>
+        <v>37.982</v>
       </c>
       <c r="BB99" t="n" s="10">
-        <v>38.007</v>
+        <v>38.0</v>
       </c>
       <c r="BC99" t="n" s="10">
-        <v>37.762</v>
+        <v>37.772</v>
       </c>
       <c r="BD99" t="n" s="10">
         <v>39.033</v>
       </c>
       <c r="BE99" t="n" s="10">
-        <v>39.514</v>
+        <v>39.518</v>
       </c>
       <c r="BF99" t="n" s="10">
-        <v>38.964</v>
+        <v>38.982</v>
       </c>
       <c r="BG99" t="n" s="10">
-        <v>40.039</v>
+        <v>40.03</v>
       </c>
       <c r="BH99" t="n" s="10">
-        <v>40.091</v>
+        <v>40.109</v>
       </c>
       <c r="BI99" t="n" s="10">
-        <v>41.659</v>
+        <v>41.667</v>
       </c>
       <c r="BJ99" t="n" s="10">
-        <v>43.615</v>
+        <v>43.617</v>
       </c>
       <c r="BK99" t="n" s="10">
-        <v>44.223</v>
+        <v>44.236</v>
       </c>
       <c r="BL99" t="n" s="10">
-        <v>46.266</v>
+        <v>46.258</v>
       </c>
       <c r="BM99" t="n" s="10">
-        <v>46.39</v>
+        <v>46.385</v>
       </c>
       <c r="BN99" t="n" s="10">
-        <v>47.455</v>
+        <v>47.451</v>
       </c>
       <c r="BO99" t="n" s="10">
-        <v>48.838</v>
+        <v>48.84</v>
       </c>
       <c r="BP99" t="n" s="10">
-        <v>48.883</v>
+        <v>48.874</v>
       </c>
       <c r="BQ99" t="n" s="10">
-        <v>49.395</v>
+        <v>49.389</v>
       </c>
       <c r="BR99" t="n" s="10">
-        <v>51.045</v>
+        <v>51.038</v>
       </c>
       <c r="BS99" t="n" s="10">
-        <v>50.678</v>
+        <v>50.673</v>
       </c>
       <c r="BT99" t="n" s="10">
-        <v>51.306</v>
+        <v>51.32</v>
       </c>
       <c r="BU99" t="n" s="10">
-        <v>50.261</v>
+        <v>50.262</v>
       </c>
       <c r="BV99" t="n" s="10">
-        <v>49.852</v>
+        <v>49.841</v>
       </c>
       <c r="BW99" t="n" s="10">
-        <v>41.86</v>
+        <v>41.87</v>
       </c>
       <c r="BX99" t="n" s="10">
-        <v>40.228</v>
+        <v>40.215</v>
       </c>
       <c r="BY99" t="n" s="10">
-        <v>39.46</v>
+        <v>39.461</v>
       </c>
       <c r="BZ99" t="n" s="10">
-        <v>39.279</v>
+        <v>39.282</v>
       </c>
       <c r="CA99" t="n" s="10">
-        <v>42.153</v>
+        <v>42.159</v>
       </c>
       <c r="CB99" t="n" s="10">
-        <v>44.322</v>
+        <v>44.326</v>
       </c>
       <c r="CC99" t="n" s="10">
-        <v>45.209</v>
+        <v>45.214</v>
       </c>
       <c r="CD99" t="n" s="10">
-        <v>46.697</v>
+        <v>46.711</v>
       </c>
       <c r="CE99" t="n" s="10">
-        <v>47.02</v>
+        <v>47.027</v>
       </c>
       <c r="CF99" t="n" s="10">
-        <v>47.414</v>
+        <v>47.421</v>
       </c>
       <c r="CG99" t="n" s="10">
-        <v>48.83</v>
+        <v>48.835</v>
       </c>
       <c r="CH99" t="n" s="10">
         <v>48.48</v>
       </c>
       <c r="CI99" t="n" s="10">
-        <v>48.778</v>
+        <v>48.791</v>
       </c>
       <c r="CJ99" t="n" s="10">
-        <v>47.851</v>
+        <v>47.846</v>
       </c>
       <c r="CK99" t="n" s="10">
-        <v>47.147</v>
+        <v>47.14</v>
       </c>
       <c r="CL99" t="n" s="10">
-        <v>46.67</v>
+        <v>46.663</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>45.544</v>
+        <v>45.53</v>
       </c>
       <c r="CN99" t="n" s="10">
-        <v>46.564</v>
+        <v>46.566</v>
       </c>
       <c r="CO99" t="n" s="10">
-        <v>46.567</v>
+        <v>46.566</v>
       </c>
       <c r="CP99" t="n" s="10">
-        <v>48.072</v>
+        <v>48.067</v>
       </c>
       <c r="CQ99" t="n" s="10">
-        <v>48.959</v>
+        <v>48.957</v>
       </c>
       <c r="CR99" t="n" s="10">
-        <v>49.079</v>
+        <v>49.072</v>
       </c>
       <c r="CS99" t="n" s="10">
-        <v>49.574</v>
+        <v>49.571</v>
       </c>
       <c r="CT99" t="n" s="10">
-        <v>49.16</v>
+        <v>49.152</v>
       </c>
       <c r="CU99" t="n" s="10">
-        <v>50.151</v>
+        <v>50.152</v>
       </c>
       <c r="CV99" t="n" s="10">
-        <v>50.914</v>
+        <v>50.906</v>
       </c>
       <c r="CW99" t="n" s="10">
-        <v>51.986</v>
+        <v>51.987</v>
       </c>
       <c r="CX99" t="n" s="10">
-        <v>53.571</v>
+        <v>53.582</v>
       </c>
       <c r="CY99" t="n" s="10">
-        <v>53.237</v>
+        <v>53.229</v>
       </c>
       <c r="CZ99" t="n" s="10">
-        <v>53.329</v>
+        <v>53.347</v>
       </c>
       <c r="DA99" t="n" s="10">
-        <v>53.638</v>
+        <v>53.642</v>
       </c>
       <c r="DB99" t="n" s="10">
-        <v>53.438</v>
+        <v>53.443</v>
       </c>
       <c r="DC99" t="n" s="10">
-        <v>54.739</v>
+        <v>54.754</v>
       </c>
       <c r="DD99" t="n" s="10">
-        <v>55.827</v>
+        <v>55.813</v>
       </c>
       <c r="DE99" t="n" s="10">
-        <v>56.736</v>
+        <v>56.731</v>
       </c>
       <c r="DF99" t="n" s="10">
-        <v>57.68</v>
+        <v>57.676</v>
       </c>
       <c r="DG99" t="n" s="10">
-        <v>58.204</v>
+        <v>58.209</v>
       </c>
       <c r="DH99" t="n" s="10">
-        <v>58.806</v>
+        <v>58.747</v>
       </c>
       <c r="DI99" t="n" s="10">
-        <v>58.947</v>
+        <v>58.954</v>
       </c>
       <c r="DJ99" t="n" s="10">
-        <v>59.749</v>
+        <v>59.801</v>
       </c>
       <c r="DK99" t="n" s="10">
-        <v>60.839</v>
+        <v>60.917</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>61.271</v>
+        <v>60.94</v>
       </c>
       <c r="DM99" t="n" s="10">
-        <v>60.488</v>
+        <v>60.646</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>58.64</v>
+        <v>58.831</v>
       </c>
       <c r="DO99" t="n" s="10">
-        <v>56.343</v>
+        <v>56.416</v>
       </c>
       <c r="DP99" t="n" s="10">
-        <v>48.007</v>
+        <v>47.303</v>
       </c>
       <c r="DQ99" t="n" s="10">
-        <v>55.451</v>
+        <v>55.975</v>
       </c>
       <c r="DR99" t="n" s="10">
-        <v>56.397</v>
+        <v>56.695</v>
       </c>
       <c r="DS99" t="n" s="10">
-        <v>57.679</v>
+        <v>57.755</v>
       </c>
       <c r="DT99" t="n" s="10">
-        <v>58.31</v>
-      </c>
-      <c r="DU99" t="s" s="10">
-        <v>44</v>
+        <v>57.489</v>
+      </c>
+      <c r="DU99" t="n" s="10">
+        <v>56.281</v>
       </c>
       <c r="DV99" t="s" s="10">
         <v>44</v>
@@ -34710,364 +34710,364 @@
         <v>43</v>
       </c>
       <c r="C100" t="n" s="10">
-        <v>29.977</v>
+        <v>29.964</v>
       </c>
       <c r="D100" t="n" s="10">
-        <v>30.174</v>
+        <v>30.175</v>
       </c>
       <c r="E100" t="n" s="10">
-        <v>30.545</v>
+        <v>30.543</v>
       </c>
       <c r="F100" t="n" s="10">
-        <v>31.344</v>
+        <v>31.335</v>
       </c>
       <c r="G100" t="n" s="10">
-        <v>30.93</v>
+        <v>30.933</v>
       </c>
       <c r="H100" t="n" s="10">
-        <v>30.792</v>
+        <v>30.786</v>
       </c>
       <c r="I100" t="n" s="10">
-        <v>29.998</v>
+        <v>29.999</v>
       </c>
       <c r="J100" t="n" s="10">
-        <v>29.253</v>
+        <v>29.256</v>
       </c>
       <c r="K100" t="n" s="10">
-        <v>28.022</v>
+        <v>28.019</v>
       </c>
       <c r="L100" t="n" s="10">
-        <v>27.392</v>
+        <v>27.395</v>
       </c>
       <c r="M100" t="n" s="10">
-        <v>26.779</v>
+        <v>26.782</v>
       </c>
       <c r="N100" t="n" s="10">
-        <v>25.612</v>
+        <v>25.622</v>
       </c>
       <c r="O100" t="n" s="10">
-        <v>26.156</v>
+        <v>26.158</v>
       </c>
       <c r="P100" t="n" s="10">
-        <v>25.904</v>
+        <v>25.908</v>
       </c>
       <c r="Q100" t="n" s="10">
-        <v>25.912</v>
+        <v>25.916</v>
       </c>
       <c r="R100" t="n" s="10">
-        <v>26.442</v>
+        <v>26.438</v>
       </c>
       <c r="S100" t="n" s="10">
-        <v>26.223</v>
+        <v>26.229</v>
       </c>
       <c r="T100" t="n" s="10">
-        <v>25.858</v>
+        <v>25.856</v>
       </c>
       <c r="U100" t="n" s="10">
-        <v>26.248</v>
+        <v>26.241</v>
       </c>
       <c r="V100" t="n" s="10">
-        <v>26.25</v>
+        <v>26.247</v>
       </c>
       <c r="W100" t="n" s="10">
-        <v>25.951</v>
+        <v>25.954</v>
       </c>
       <c r="X100" t="n" s="10">
-        <v>26.819</v>
+        <v>26.812</v>
       </c>
       <c r="Y100" t="n" s="10">
-        <v>26.747</v>
+        <v>26.746</v>
       </c>
       <c r="Z100" t="n" s="10">
-        <v>26.812</v>
+        <v>26.808</v>
       </c>
       <c r="AA100" t="n" s="10">
-        <v>26.857</v>
+        <v>26.842</v>
       </c>
       <c r="AB100" t="n" s="10">
-        <v>26.36</v>
+        <v>26.366</v>
       </c>
       <c r="AC100" t="n" s="10">
-        <v>26.9</v>
+        <v>26.899</v>
       </c>
       <c r="AD100" t="n" s="10">
-        <v>27.593</v>
+        <v>27.588</v>
       </c>
       <c r="AE100" t="n" s="10">
-        <v>28.75</v>
+        <v>28.753</v>
       </c>
       <c r="AF100" t="n" s="10">
-        <v>29.453</v>
+        <v>29.446</v>
       </c>
       <c r="AG100" t="n" s="10">
-        <v>29.519</v>
+        <v>29.521</v>
       </c>
       <c r="AH100" t="n" s="10">
-        <v>29.55</v>
+        <v>29.555</v>
       </c>
       <c r="AI100" t="n" s="10">
-        <v>30.064</v>
+        <v>30.062</v>
       </c>
       <c r="AJ100" t="n" s="10">
-        <v>30.452</v>
+        <v>30.458</v>
       </c>
       <c r="AK100" t="n" s="10">
-        <v>31.159</v>
+        <v>31.163</v>
       </c>
       <c r="AL100" t="n" s="10">
-        <v>31.711</v>
+        <v>31.724</v>
       </c>
       <c r="AM100" t="n" s="10">
-        <v>32.423</v>
+        <v>32.432</v>
       </c>
       <c r="AN100" t="n" s="10">
-        <v>33.601</v>
+        <v>33.6</v>
       </c>
       <c r="AO100" t="n" s="10">
-        <v>34.67</v>
+        <v>34.667</v>
       </c>
       <c r="AP100" t="n" s="10">
-        <v>35.562</v>
+        <v>35.554</v>
       </c>
       <c r="AQ100" t="n" s="10">
-        <v>34.88</v>
+        <v>34.882</v>
       </c>
       <c r="AR100" t="n" s="10">
-        <v>34.482</v>
+        <v>34.478</v>
       </c>
       <c r="AS100" t="n" s="10">
-        <v>33.212</v>
+        <v>33.205</v>
       </c>
       <c r="AT100" t="n" s="10">
-        <v>32.077</v>
+        <v>32.072</v>
       </c>
       <c r="AU100" t="n" s="10">
-        <v>31.449</v>
+        <v>31.438</v>
       </c>
       <c r="AV100" t="n" s="10">
-        <v>30.337</v>
+        <v>30.338</v>
       </c>
       <c r="AW100" t="n" s="10">
         <v>29.953</v>
       </c>
       <c r="AX100" t="n" s="10">
-        <v>29.329</v>
+        <v>29.326</v>
       </c>
       <c r="AY100" t="n" s="10">
-        <v>28.898</v>
+        <v>28.895</v>
       </c>
       <c r="AZ100" t="n" s="10">
-        <v>28.682</v>
+        <v>28.676</v>
       </c>
       <c r="BA100" t="n" s="10">
-        <v>27.957</v>
+        <v>27.956</v>
       </c>
       <c r="BB100" t="n" s="10">
-        <v>28.399</v>
+        <v>28.393</v>
       </c>
       <c r="BC100" t="n" s="10">
-        <v>28.347</v>
+        <v>28.355</v>
       </c>
       <c r="BD100" t="n" s="10">
         <v>27.683</v>
       </c>
       <c r="BE100" t="n" s="10">
-        <v>28.381</v>
+        <v>28.384</v>
       </c>
       <c r="BF100" t="n" s="10">
-        <v>27.477</v>
+        <v>27.491</v>
       </c>
       <c r="BG100" t="n" s="10">
-        <v>28.08</v>
+        <v>28.072</v>
       </c>
       <c r="BH100" t="n" s="10">
-        <v>29.286</v>
+        <v>29.3</v>
       </c>
       <c r="BI100" t="n" s="10">
-        <v>30.25</v>
+        <v>30.257</v>
       </c>
       <c r="BJ100" t="n" s="10">
-        <v>30.906</v>
+        <v>30.907</v>
       </c>
       <c r="BK100" t="n" s="10">
-        <v>31.891</v>
+        <v>31.902</v>
       </c>
       <c r="BL100" t="n" s="10">
-        <v>32.443</v>
+        <v>32.437</v>
       </c>
       <c r="BM100" t="n" s="10">
-        <v>32.436</v>
+        <v>32.432</v>
       </c>
       <c r="BN100" t="n" s="10">
-        <v>33.843</v>
+        <v>33.84</v>
       </c>
       <c r="BO100" t="n" s="10">
-        <v>34.223</v>
+        <v>34.225</v>
       </c>
       <c r="BP100" t="n" s="10">
-        <v>35.035</v>
+        <v>35.028</v>
       </c>
       <c r="BQ100" t="n" s="10">
-        <v>36.191</v>
+        <v>36.187</v>
       </c>
       <c r="BR100" t="n" s="10">
-        <v>37.482</v>
+        <v>37.476</v>
       </c>
       <c r="BS100" t="n" s="10">
-        <v>36.926</v>
+        <v>36.923</v>
       </c>
       <c r="BT100" t="n" s="10">
-        <v>37.647</v>
+        <v>37.658</v>
       </c>
       <c r="BU100" t="n" s="10">
-        <v>36.668</v>
+        <v>36.669</v>
       </c>
       <c r="BV100" t="n" s="10">
-        <v>37.558</v>
+        <v>37.548</v>
       </c>
       <c r="BW100" t="n" s="10">
-        <v>32.029</v>
+        <v>32.039</v>
       </c>
       <c r="BX100" t="n" s="10">
-        <v>30.423</v>
+        <v>30.412</v>
       </c>
       <c r="BY100" t="n" s="10">
-        <v>28.869</v>
+        <v>28.87</v>
       </c>
       <c r="BZ100" t="n" s="10">
-        <v>28.698</v>
+        <v>28.7</v>
       </c>
       <c r="CA100" t="n" s="10">
-        <v>29.441</v>
+        <v>29.447</v>
       </c>
       <c r="CB100" t="n" s="10">
-        <v>31.008</v>
+        <v>31.011</v>
       </c>
       <c r="CC100" t="n" s="10">
-        <v>32.461</v>
+        <v>32.465</v>
       </c>
       <c r="CD100" t="n" s="10">
-        <v>32.749</v>
+        <v>32.76</v>
       </c>
       <c r="CE100" t="n" s="10">
-        <v>33.327</v>
+        <v>33.333</v>
       </c>
       <c r="CF100" t="n" s="10">
-        <v>34.232</v>
+        <v>34.238</v>
       </c>
       <c r="CG100" t="n" s="10">
-        <v>34.858</v>
+        <v>34.862</v>
       </c>
       <c r="CH100" t="n" s="10">
         <v>34.902</v>
       </c>
       <c r="CI100" t="n" s="10">
-        <v>35.358</v>
+        <v>35.369</v>
       </c>
       <c r="CJ100" t="n" s="10">
-        <v>34.357</v>
+        <v>34.353</v>
       </c>
       <c r="CK100" t="n" s="10">
-        <v>34.109</v>
+        <v>34.103</v>
       </c>
       <c r="CL100" t="n" s="10">
-        <v>34.158</v>
+        <v>34.153</v>
       </c>
       <c r="CM100" t="n" s="10">
-        <v>32.921</v>
+        <v>32.91</v>
       </c>
       <c r="CN100" t="n" s="10">
-        <v>33.797</v>
+        <v>33.799</v>
       </c>
       <c r="CO100" t="n" s="10">
         <v>33.37</v>
       </c>
       <c r="CP100" t="n" s="10">
-        <v>33.868</v>
+        <v>33.864</v>
       </c>
       <c r="CQ100" t="n" s="10">
-        <v>34.884</v>
+        <v>34.882</v>
       </c>
       <c r="CR100" t="n" s="10">
-        <v>34.752</v>
+        <v>34.746</v>
       </c>
       <c r="CS100" t="n" s="10">
-        <v>35.932</v>
+        <v>35.929</v>
       </c>
       <c r="CT100" t="n" s="10">
-        <v>35.969</v>
+        <v>35.963</v>
       </c>
       <c r="CU100" t="n" s="10">
-        <v>36.206</v>
+        <v>36.207</v>
       </c>
       <c r="CV100" t="n" s="10">
-        <v>37.124</v>
+        <v>37.118</v>
       </c>
       <c r="CW100" t="n" s="10">
-        <v>37.167</v>
+        <v>37.168</v>
       </c>
       <c r="CX100" t="n" s="10">
-        <v>38.058</v>
+        <v>38.067</v>
       </c>
       <c r="CY100" t="n" s="10">
-        <v>38.358</v>
+        <v>38.352</v>
       </c>
       <c r="CZ100" t="n" s="10">
-        <v>38.151</v>
+        <v>38.166</v>
       </c>
       <c r="DA100" t="n" s="10">
-        <v>38.347</v>
+        <v>38.35</v>
       </c>
       <c r="DB100" t="n" s="10">
-        <v>37.914</v>
+        <v>37.918</v>
       </c>
       <c r="DC100" t="n" s="10">
-        <v>38.556</v>
+        <v>38.569</v>
       </c>
       <c r="DD100" t="n" s="10">
-        <v>39.404</v>
+        <v>39.392</v>
       </c>
       <c r="DE100" t="n" s="10">
-        <v>39.835</v>
+        <v>39.829</v>
       </c>
       <c r="DF100" t="n" s="10">
-        <v>40.581</v>
+        <v>40.576</v>
       </c>
       <c r="DG100" t="n" s="10">
-        <v>41.162</v>
+        <v>41.167</v>
       </c>
       <c r="DH100" t="n" s="10">
-        <v>40.881</v>
+        <v>40.863</v>
       </c>
       <c r="DI100" t="n" s="10">
-        <v>42.167</v>
+        <v>42.173</v>
       </c>
       <c r="DJ100" t="n" s="10">
-        <v>42.902</v>
+        <v>42.868</v>
       </c>
       <c r="DK100" t="n" s="10">
-        <v>41.611</v>
+        <v>41.528</v>
       </c>
       <c r="DL100" t="n" s="10">
-        <v>41.84</v>
+        <v>42.075</v>
       </c>
       <c r="DM100" t="n" s="10">
-        <v>40.874</v>
+        <v>40.824</v>
       </c>
       <c r="DN100" t="n" s="10">
-        <v>40.195</v>
+        <v>40.02</v>
       </c>
       <c r="DO100" t="n" s="10">
-        <v>40.376</v>
+        <v>39.904</v>
       </c>
       <c r="DP100" t="n" s="10">
-        <v>35.881</v>
+        <v>36.603</v>
       </c>
       <c r="DQ100" t="n" s="10">
-        <v>38.673</v>
+        <v>38.52</v>
       </c>
       <c r="DR100" t="n" s="10">
-        <v>38.731</v>
+        <v>38.498</v>
       </c>
       <c r="DS100" t="s" s="10">
         <v>44</v>
@@ -35090,46 +35090,46 @@
         <v>43</v>
       </c>
       <c r="C101" t="n" s="10">
-        <v>8.582</v>
+        <v>8.579</v>
       </c>
       <c r="D101" t="n" s="10">
-        <v>9.527</v>
+        <v>9.528</v>
       </c>
       <c r="E101" t="n" s="10">
         <v>9.349</v>
       </c>
       <c r="F101" t="n" s="10">
-        <v>9.027</v>
+        <v>9.024</v>
       </c>
       <c r="G101" t="n" s="10">
-        <v>9.306</v>
+        <v>9.307</v>
       </c>
       <c r="H101" t="n" s="10">
-        <v>8.857</v>
+        <v>8.856</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>8.075</v>
       </c>
       <c r="J101" t="n" s="10">
-        <v>7.563</v>
+        <v>7.564</v>
       </c>
       <c r="K101" t="n" s="10">
-        <v>6.772</v>
+        <v>6.771</v>
       </c>
       <c r="L101" t="n" s="10">
-        <v>6.098</v>
+        <v>6.099</v>
       </c>
       <c r="M101" t="n" s="10">
         <v>6.416</v>
       </c>
       <c r="N101" t="n" s="10">
-        <v>6.366</v>
+        <v>6.368</v>
       </c>
       <c r="O101" t="n" s="10">
-        <v>6.455</v>
+        <v>6.456</v>
       </c>
       <c r="P101" t="n" s="10">
-        <v>6.763</v>
+        <v>6.764</v>
       </c>
       <c r="Q101" t="n" s="10">
         <v>6.883</v>
@@ -35138,13 +35138,13 @@
         <v>7.067</v>
       </c>
       <c r="S101" t="n" s="10">
-        <v>7.082</v>
+        <v>7.083</v>
       </c>
       <c r="T101" t="n" s="10">
-        <v>7.272</v>
+        <v>7.271</v>
       </c>
       <c r="U101" t="n" s="10">
-        <v>7.267</v>
+        <v>7.266</v>
       </c>
       <c r="V101" t="n" s="10">
         <v>7.366</v>
@@ -35153,76 +35153,76 @@
         <v>7.7</v>
       </c>
       <c r="X101" t="n" s="10">
-        <v>7.46</v>
+        <v>7.459</v>
       </c>
       <c r="Y101" t="n" s="10">
         <v>7.585</v>
       </c>
       <c r="Z101" t="n" s="10">
-        <v>7.604</v>
+        <v>7.603</v>
       </c>
       <c r="AA101" t="n" s="10">
-        <v>7.882</v>
+        <v>7.879</v>
       </c>
       <c r="AB101" t="n" s="10">
-        <v>8.597</v>
+        <v>8.599</v>
       </c>
       <c r="AC101" t="n" s="10">
         <v>8.566</v>
       </c>
       <c r="AD101" t="n" s="10">
-        <v>8.787</v>
+        <v>8.785</v>
       </c>
       <c r="AE101" t="n" s="10">
         <v>8.772</v>
       </c>
       <c r="AF101" t="n" s="10">
-        <v>8.84</v>
+        <v>8.838</v>
       </c>
       <c r="AG101" t="n" s="10">
         <v>9.496</v>
       </c>
       <c r="AH101" t="n" s="10">
-        <v>10.138</v>
+        <v>10.139</v>
       </c>
       <c r="AI101" t="n" s="10">
         <v>9.972</v>
       </c>
       <c r="AJ101" t="n" s="10">
-        <v>9.864</v>
+        <v>9.866</v>
       </c>
       <c r="AK101" t="n" s="10">
-        <v>9.755</v>
+        <v>9.757</v>
       </c>
       <c r="AL101" t="n" s="10">
-        <v>9.619</v>
+        <v>9.622</v>
       </c>
       <c r="AM101" t="n" s="10">
-        <v>10.561</v>
+        <v>10.564</v>
       </c>
       <c r="AN101" t="n" s="10">
         <v>11.324</v>
       </c>
       <c r="AO101" t="n" s="10">
-        <v>11.532</v>
+        <v>11.531</v>
       </c>
       <c r="AP101" t="n" s="10">
-        <v>11.473</v>
+        <v>11.471</v>
       </c>
       <c r="AQ101" t="n" s="10">
         <v>11.144</v>
       </c>
       <c r="AR101" t="n" s="10">
-        <v>9.63</v>
+        <v>9.629</v>
       </c>
       <c r="AS101" t="n" s="10">
-        <v>9.428</v>
+        <v>9.427</v>
       </c>
       <c r="AT101" t="n" s="10">
-        <v>9.163</v>
+        <v>9.162</v>
       </c>
       <c r="AU101" t="n" s="10">
-        <v>8.528</v>
+        <v>8.526</v>
       </c>
       <c r="AV101" t="n" s="10">
         <v>9.654</v>
@@ -35231,223 +35231,223 @@
         <v>9.07</v>
       </c>
       <c r="AX101" t="n" s="10">
-        <v>9.303</v>
+        <v>9.302</v>
       </c>
       <c r="AY101" t="n" s="10">
         <v>10.158</v>
       </c>
       <c r="AZ101" t="n" s="10">
-        <v>9.154</v>
+        <v>9.152</v>
       </c>
       <c r="BA101" t="n" s="10">
         <v>10.026</v>
       </c>
       <c r="BB101" t="n" s="10">
-        <v>9.608</v>
+        <v>9.607</v>
       </c>
       <c r="BC101" t="n" s="10">
-        <v>9.415</v>
+        <v>9.417</v>
       </c>
       <c r="BD101" t="n" s="10">
         <v>11.35</v>
       </c>
       <c r="BE101" t="n" s="10">
-        <v>11.133</v>
+        <v>11.134</v>
       </c>
       <c r="BF101" t="n" s="10">
-        <v>11.487</v>
+        <v>11.491</v>
       </c>
       <c r="BG101" t="n" s="10">
-        <v>11.959</v>
+        <v>11.958</v>
       </c>
       <c r="BH101" t="n" s="10">
-        <v>10.805</v>
+        <v>10.809</v>
       </c>
       <c r="BI101" t="n" s="10">
-        <v>11.409</v>
+        <v>11.41</v>
       </c>
       <c r="BJ101" t="n" s="10">
-        <v>12.709</v>
+        <v>12.71</v>
       </c>
       <c r="BK101" t="n" s="10">
-        <v>12.332</v>
+        <v>12.334</v>
       </c>
       <c r="BL101" t="n" s="10">
-        <v>13.823</v>
+        <v>13.821</v>
       </c>
       <c r="BM101" t="n" s="10">
-        <v>13.954</v>
+        <v>13.953</v>
       </c>
       <c r="BN101" t="n" s="10">
-        <v>13.612</v>
+        <v>13.611</v>
       </c>
       <c r="BO101" t="n" s="10">
         <v>14.615</v>
       </c>
       <c r="BP101" t="n" s="10">
-        <v>13.848</v>
+        <v>13.846</v>
       </c>
       <c r="BQ101" t="n" s="10">
-        <v>13.204</v>
+        <v>13.202</v>
       </c>
       <c r="BR101" t="n" s="10">
-        <v>13.563</v>
+        <v>13.562</v>
       </c>
       <c r="BS101" t="n" s="10">
-        <v>13.752</v>
+        <v>13.75</v>
       </c>
       <c r="BT101" t="n" s="10">
-        <v>13.659</v>
+        <v>13.662</v>
       </c>
       <c r="BU101" t="n" s="10">
         <v>13.593</v>
       </c>
       <c r="BV101" t="n" s="10">
-        <v>12.294</v>
+        <v>12.293</v>
       </c>
       <c r="BW101" t="n" s="10">
         <v>9.831</v>
       </c>
       <c r="BX101" t="n" s="10">
-        <v>9.805</v>
+        <v>9.803</v>
       </c>
       <c r="BY101" t="n" s="10">
         <v>10.591</v>
       </c>
       <c r="BZ101" t="n" s="10">
-        <v>10.581</v>
+        <v>10.582</v>
       </c>
       <c r="CA101" t="n" s="10">
         <v>12.712</v>
       </c>
       <c r="CB101" t="n" s="10">
-        <v>13.314</v>
+        <v>13.315</v>
       </c>
       <c r="CC101" t="n" s="10">
-        <v>12.748</v>
+        <v>12.749</v>
       </c>
       <c r="CD101" t="n" s="10">
-        <v>13.948</v>
+        <v>13.951</v>
       </c>
       <c r="CE101" t="n" s="10">
-        <v>13.693</v>
+        <v>13.694</v>
       </c>
       <c r="CF101" t="n" s="10">
-        <v>13.182</v>
+        <v>13.183</v>
       </c>
       <c r="CG101" t="n" s="10">
-        <v>13.972</v>
+        <v>13.973</v>
       </c>
       <c r="CH101" t="n" s="10">
         <v>13.578</v>
       </c>
       <c r="CI101" t="n" s="10">
-        <v>13.42</v>
+        <v>13.422</v>
       </c>
       <c r="CJ101" t="n" s="10">
-        <v>13.494</v>
+        <v>13.493</v>
       </c>
       <c r="CK101" t="n" s="10">
-        <v>13.038</v>
+        <v>13.037</v>
       </c>
       <c r="CL101" t="n" s="10">
-        <v>12.512</v>
+        <v>12.51</v>
       </c>
       <c r="CM101" t="n" s="10">
-        <v>12.623</v>
+        <v>12.62</v>
       </c>
       <c r="CN101" t="n" s="10">
         <v>12.767</v>
       </c>
       <c r="CO101" t="n" s="10">
-        <v>13.197</v>
+        <v>13.196</v>
       </c>
       <c r="CP101" t="n" s="10">
-        <v>14.204</v>
+        <v>14.203</v>
       </c>
       <c r="CQ101" t="n" s="10">
         <v>14.075</v>
       </c>
       <c r="CR101" t="n" s="10">
-        <v>14.327</v>
+        <v>14.326</v>
       </c>
       <c r="CS101" t="n" s="10">
         <v>13.642</v>
       </c>
       <c r="CT101" t="n" s="10">
-        <v>13.191</v>
+        <v>13.189</v>
       </c>
       <c r="CU101" t="n" s="10">
         <v>13.945</v>
       </c>
       <c r="CV101" t="n" s="10">
-        <v>13.79</v>
+        <v>13.788</v>
       </c>
       <c r="CW101" t="n" s="10">
         <v>14.819</v>
       </c>
       <c r="CX101" t="n" s="10">
-        <v>15.513</v>
+        <v>15.515</v>
       </c>
       <c r="CY101" t="n" s="10">
-        <v>14.879</v>
+        <v>14.877</v>
       </c>
       <c r="CZ101" t="n" s="10">
-        <v>15.178</v>
+        <v>15.181</v>
       </c>
       <c r="DA101" t="n" s="10">
-        <v>15.291</v>
+        <v>15.292</v>
       </c>
       <c r="DB101" t="n" s="10">
-        <v>15.524</v>
+        <v>15.525</v>
       </c>
       <c r="DC101" t="n" s="10">
-        <v>16.183</v>
+        <v>16.185</v>
       </c>
       <c r="DD101" t="n" s="10">
-        <v>16.423</v>
+        <v>16.421</v>
       </c>
       <c r="DE101" t="n" s="10">
-        <v>16.901</v>
+        <v>16.902</v>
       </c>
       <c r="DF101" t="n" s="10">
-        <v>17.099</v>
+        <v>17.1</v>
       </c>
       <c r="DG101" t="n" s="10">
         <v>17.042</v>
       </c>
       <c r="DH101" t="n" s="10">
-        <v>17.925</v>
+        <v>17.884</v>
       </c>
       <c r="DI101" t="n" s="10">
-        <v>16.78</v>
+        <v>16.781</v>
       </c>
       <c r="DJ101" t="n" s="10">
-        <v>16.847</v>
+        <v>16.933</v>
       </c>
       <c r="DK101" t="n" s="10">
-        <v>19.228</v>
+        <v>19.389</v>
       </c>
       <c r="DL101" t="n" s="10">
-        <v>19.431</v>
+        <v>18.865</v>
       </c>
       <c r="DM101" t="n" s="10">
-        <v>19.614</v>
+        <v>19.822</v>
       </c>
       <c r="DN101" t="n" s="10">
-        <v>18.445</v>
+        <v>18.811</v>
       </c>
       <c r="DO101" t="n" s="10">
-        <v>15.967</v>
+        <v>16.512</v>
       </c>
       <c r="DP101" t="n" s="10">
-        <v>12.126</v>
+        <v>10.7</v>
       </c>
       <c r="DQ101" t="n" s="10">
-        <v>16.778</v>
+        <v>17.455</v>
       </c>
       <c r="DR101" t="n" s="10">
-        <v>17.666</v>
+        <v>18.197</v>
       </c>
       <c r="DS101" t="s" s="10">
         <v>44</v>
@@ -35470,373 +35470,373 @@
         <v>43</v>
       </c>
       <c r="C102" t="n" s="10">
-        <v>46.141</v>
+        <v>46.077</v>
       </c>
       <c r="D102" t="n" s="10">
-        <v>47.23</v>
+        <v>47.238</v>
       </c>
       <c r="E102" t="n" s="10">
-        <v>49.364</v>
+        <v>49.358</v>
       </c>
       <c r="F102" t="n" s="10">
-        <v>51.619</v>
+        <v>51.571</v>
       </c>
       <c r="G102" t="n" s="10">
-        <v>54.53</v>
+        <v>54.546</v>
       </c>
       <c r="H102" t="n" s="10">
-        <v>55.812</v>
+        <v>55.785</v>
       </c>
       <c r="I102" t="n" s="10">
-        <v>56.555</v>
+        <v>56.556</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>58.542</v>
+        <v>58.558</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>58.091</v>
+        <v>58.073</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>59.227</v>
+        <v>59.244</v>
       </c>
       <c r="M102" t="n" s="10">
-        <v>60.696</v>
+        <v>60.708</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>59.971</v>
+        <v>60.018</v>
       </c>
       <c r="O102" t="n" s="10">
-        <v>63.554</v>
+        <v>63.566</v>
       </c>
       <c r="P102" t="n" s="10">
-        <v>64.526</v>
+        <v>64.545</v>
       </c>
       <c r="Q102" t="n" s="10">
-        <v>64.963</v>
+        <v>64.98</v>
       </c>
       <c r="R102" t="n" s="10">
-        <v>66.711</v>
+        <v>66.697</v>
       </c>
       <c r="S102" t="n" s="10">
-        <v>66.548</v>
+        <v>66.575</v>
       </c>
       <c r="T102" t="n" s="10">
-        <v>65.756</v>
+        <v>65.743</v>
       </c>
       <c r="U102" t="n" s="10">
-        <v>65.062</v>
+        <v>65.031</v>
       </c>
       <c r="V102" t="n" s="10">
-        <v>63.839</v>
+        <v>63.826</v>
       </c>
       <c r="W102" t="n" s="10">
-        <v>61.689</v>
+        <v>61.701</v>
       </c>
       <c r="X102" t="n" s="10">
-        <v>64.098</v>
+        <v>64.069</v>
       </c>
       <c r="Y102" t="n" s="10">
-        <v>64.182</v>
+        <v>64.177</v>
       </c>
       <c r="Z102" t="n" s="10">
-        <v>63.824</v>
+        <v>63.804</v>
       </c>
       <c r="AA102" t="n" s="10">
-        <v>63.135</v>
+        <v>63.065</v>
       </c>
       <c r="AB102" t="n" s="10">
-        <v>62.708</v>
+        <v>62.74</v>
       </c>
       <c r="AC102" t="n" s="10">
-        <v>62.447</v>
+        <v>62.441</v>
       </c>
       <c r="AD102" t="n" s="10">
-        <v>62.997</v>
+        <v>62.967</v>
       </c>
       <c r="AE102" t="n" s="10">
-        <v>63.518</v>
+        <v>63.528</v>
       </c>
       <c r="AF102" t="n" s="10">
-        <v>61.469</v>
+        <v>61.436</v>
       </c>
       <c r="AG102" t="n" s="10">
-        <v>61.29</v>
+        <v>61.3</v>
       </c>
       <c r="AH102" t="n" s="10">
-        <v>60.568</v>
+        <v>60.594</v>
       </c>
       <c r="AI102" t="n" s="10">
-        <v>60.846</v>
+        <v>60.837</v>
       </c>
       <c r="AJ102" t="n" s="10">
-        <v>61.652</v>
+        <v>61.682</v>
       </c>
       <c r="AK102" t="n" s="10">
-        <v>62.212</v>
+        <v>62.238</v>
       </c>
       <c r="AL102" t="n" s="10">
-        <v>61.807</v>
+        <v>61.869</v>
       </c>
       <c r="AM102" t="n" s="10">
-        <v>61.595</v>
+        <v>61.643</v>
       </c>
       <c r="AN102" t="n" s="10">
-        <v>60.872</v>
+        <v>60.867</v>
       </c>
       <c r="AO102" t="n" s="10">
-        <v>59.951</v>
+        <v>59.936</v>
       </c>
       <c r="AP102" t="n" s="10">
-        <v>59.601</v>
+        <v>59.563</v>
       </c>
       <c r="AQ102" t="n" s="10">
-        <v>58.768</v>
+        <v>58.774</v>
       </c>
       <c r="AR102" t="n" s="10">
-        <v>58.599</v>
+        <v>58.578</v>
       </c>
       <c r="AS102" t="n" s="10">
-        <v>57.84</v>
+        <v>57.809</v>
       </c>
       <c r="AT102" t="n" s="10">
-        <v>57.239</v>
+        <v>57.215</v>
       </c>
       <c r="AU102" t="n" s="10">
-        <v>56.264</v>
+        <v>56.212</v>
       </c>
       <c r="AV102" t="n" s="10">
-        <v>54.545</v>
+        <v>54.55</v>
       </c>
       <c r="AW102" t="n" s="10">
-        <v>54.013</v>
+        <v>54.01</v>
       </c>
       <c r="AX102" t="n" s="10">
-        <v>53.071</v>
+        <v>53.055</v>
       </c>
       <c r="AY102" t="n" s="10">
-        <v>52.922</v>
+        <v>52.909</v>
       </c>
       <c r="AZ102" t="n" s="10">
-        <v>53.372</v>
+        <v>53.342</v>
       </c>
       <c r="BA102" t="n" s="10">
-        <v>53.12</v>
+        <v>53.118</v>
       </c>
       <c r="BB102" t="n" s="10">
-        <v>53.192</v>
+        <v>53.163</v>
       </c>
       <c r="BC102" t="n" s="10">
-        <v>52.42</v>
+        <v>52.46</v>
       </c>
       <c r="BD102" t="n" s="10">
-        <v>51.381</v>
+        <v>51.383</v>
       </c>
       <c r="BE102" t="n" s="10">
-        <v>50.571</v>
+        <v>50.584</v>
       </c>
       <c r="BF102" t="n" s="10">
-        <v>49.68</v>
+        <v>49.745</v>
       </c>
       <c r="BG102" t="n" s="10">
-        <v>49.217</v>
+        <v>49.211</v>
       </c>
       <c r="BH102" t="n" s="10">
-        <v>49.669</v>
+        <v>49.731</v>
       </c>
       <c r="BI102" t="n" s="10">
-        <v>50.08</v>
+        <v>50.096</v>
       </c>
       <c r="BJ102" t="n" s="10">
-        <v>50.727</v>
+        <v>50.717</v>
       </c>
       <c r="BK102" t="n" s="10">
-        <v>48.623</v>
+        <v>48.725</v>
       </c>
       <c r="BL102" t="n" s="10">
-        <v>53.899</v>
+        <v>53.849</v>
       </c>
       <c r="BM102" t="n" s="10">
-        <v>55.62</v>
+        <v>55.59</v>
       </c>
       <c r="BN102" t="n" s="10">
-        <v>57.162</v>
+        <v>57.135</v>
       </c>
       <c r="BO102" t="n" s="10">
-        <v>57.112</v>
+        <v>57.146</v>
       </c>
       <c r="BP102" t="n" s="10">
-        <v>56.767</v>
+        <v>56.721</v>
       </c>
       <c r="BQ102" t="n" s="10">
-        <v>56.765</v>
+        <v>56.74</v>
       </c>
       <c r="BR102" t="n" s="10">
-        <v>57.047</v>
+        <v>57.033</v>
       </c>
       <c r="BS102" t="n" s="10">
-        <v>58.888</v>
+        <v>58.778</v>
       </c>
       <c r="BT102" t="n" s="10">
-        <v>58.052</v>
+        <v>58.115</v>
       </c>
       <c r="BU102" t="n" s="10">
-        <v>57.829</v>
+        <v>57.986</v>
       </c>
       <c r="BV102" t="n" s="10">
-        <v>57.45</v>
+        <v>57.71</v>
       </c>
       <c r="BW102" t="n" s="10">
-        <v>56.516</v>
+        <v>55.65</v>
       </c>
       <c r="BX102" t="n" s="10">
-        <v>56.252</v>
+        <v>56.499</v>
       </c>
       <c r="BY102" t="n" s="10">
-        <v>56.608</v>
+        <v>57.043</v>
       </c>
       <c r="BZ102" t="n" s="10">
-        <v>58.054</v>
+        <v>58.652</v>
       </c>
       <c r="CA102" t="n" s="10">
-        <v>56.724</v>
+        <v>55.15</v>
       </c>
       <c r="CB102" t="n" s="10">
-        <v>59.773</v>
+        <v>60.369</v>
       </c>
       <c r="CC102" t="n" s="10">
-        <v>60.523</v>
+        <v>60.967</v>
       </c>
       <c r="CD102" t="n" s="10">
-        <v>59.973</v>
+        <v>60.318</v>
       </c>
       <c r="CE102" t="n" s="10">
-        <v>64.84</v>
+        <v>63.995</v>
       </c>
       <c r="CF102" t="n" s="10">
-        <v>65.116</v>
+        <v>65.429</v>
       </c>
       <c r="CG102" t="n" s="10">
-        <v>65.897</v>
+        <v>66.066</v>
       </c>
       <c r="CH102" t="n" s="10">
-        <v>68.118</v>
+        <v>68.119</v>
       </c>
       <c r="CI102" t="n" s="10">
-        <v>68.15</v>
+        <v>68.131</v>
       </c>
       <c r="CJ102" t="n" s="10">
-        <v>68.367</v>
+        <v>68.35</v>
       </c>
       <c r="CK102" t="n" s="10">
-        <v>68.865</v>
+        <v>68.84</v>
       </c>
       <c r="CL102" t="n" s="10">
-        <v>68.688</v>
+        <v>68.665</v>
       </c>
       <c r="CM102" t="n" s="10">
-        <v>67.135</v>
+        <v>67.08</v>
       </c>
       <c r="CN102" t="n" s="10">
-        <v>69.677</v>
+        <v>69.685</v>
       </c>
       <c r="CO102" t="n" s="10">
-        <v>71.15</v>
+        <v>71.145</v>
       </c>
       <c r="CP102" t="n" s="10">
-        <v>71.555</v>
+        <v>71.536</v>
       </c>
       <c r="CQ102" t="n" s="10">
-        <v>73.847</v>
+        <v>73.839</v>
       </c>
       <c r="CR102" t="n" s="10">
-        <v>72.392</v>
+        <v>72.366</v>
       </c>
       <c r="CS102" t="n" s="10">
-        <v>72.466</v>
+        <v>72.455</v>
       </c>
       <c r="CT102" t="n" s="10">
-        <v>72.892</v>
+        <v>72.862</v>
       </c>
       <c r="CU102" t="n" s="10">
-        <v>71.764</v>
+        <v>71.768</v>
       </c>
       <c r="CV102" t="n" s="10">
-        <v>72.367</v>
+        <v>72.333</v>
       </c>
       <c r="CW102" t="n" s="10">
-        <v>72.934</v>
+        <v>72.938</v>
       </c>
       <c r="CX102" t="n" s="10">
-        <v>74.144</v>
+        <v>74.185</v>
       </c>
       <c r="CY102" t="n" s="10">
-        <v>75.974</v>
+        <v>75.942</v>
       </c>
       <c r="CZ102" t="n" s="10">
-        <v>76.318</v>
+        <v>76.389</v>
       </c>
       <c r="DA102" t="n" s="10">
-        <v>76.995</v>
+        <v>77.013</v>
       </c>
       <c r="DB102" t="n" s="10">
-        <v>77.802</v>
+        <v>77.823</v>
       </c>
       <c r="DC102" t="n" s="10">
-        <v>78.698</v>
+        <v>78.756</v>
       </c>
       <c r="DD102" t="n" s="10">
-        <v>80.327</v>
+        <v>80.282</v>
       </c>
       <c r="DE102" t="n" s="10">
-        <v>81.208</v>
+        <v>81.186</v>
       </c>
       <c r="DF102" t="n" s="10">
-        <v>82.415</v>
+        <v>82.368</v>
       </c>
       <c r="DG102" t="n" s="10">
-        <v>83.696</v>
+        <v>83.66</v>
       </c>
       <c r="DH102" t="n" s="10">
-        <v>85.879</v>
+        <v>85.883</v>
       </c>
       <c r="DI102" t="n" s="10">
-        <v>87.823</v>
+        <v>87.795</v>
       </c>
       <c r="DJ102" t="n" s="10">
-        <v>89.545</v>
+        <v>89.534</v>
       </c>
       <c r="DK102" t="n" s="10">
-        <v>89.618</v>
+        <v>89.583</v>
       </c>
       <c r="DL102" t="n" s="10">
-        <v>90.842</v>
+        <v>90.817</v>
       </c>
       <c r="DM102" t="n" s="10">
-        <v>92.827</v>
+        <v>92.838</v>
       </c>
       <c r="DN102" t="n" s="10">
-        <v>92.469</v>
+        <v>92.458</v>
       </c>
       <c r="DO102" t="n" s="10">
-        <v>95.129</v>
+        <v>95.0</v>
       </c>
       <c r="DP102" t="n" s="10">
-        <v>94.474</v>
+        <v>94.406</v>
       </c>
       <c r="DQ102" t="n" s="10">
-        <v>93.541</v>
+        <v>93.861</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>96.085</v>
+        <v>96.156</v>
       </c>
       <c r="DS102" t="n" s="10">
-        <v>95.254</v>
+        <v>95.234</v>
       </c>
       <c r="DT102" t="n" s="10">
-        <v>101.546</v>
-      </c>
-      <c r="DU102" t="s" s="10">
-        <v>44</v>
+        <v>103.297</v>
+      </c>
+      <c r="DU102" t="n" s="10">
+        <v>108.442</v>
       </c>
       <c r="DV102" t="s" s="10">
         <v>44</v>
@@ -35850,373 +35850,373 @@
         <v>43</v>
       </c>
       <c r="C103" t="n" s="10">
-        <v>23.34</v>
+        <v>23.28</v>
       </c>
       <c r="D103" t="n" s="10">
-        <v>23.61</v>
+        <v>23.617</v>
       </c>
       <c r="E103" t="n" s="10">
-        <v>24.525</v>
+        <v>24.52</v>
       </c>
       <c r="F103" t="n" s="10">
-        <v>25.559</v>
+        <v>25.515</v>
       </c>
       <c r="G103" t="n" s="10">
-        <v>26.959</v>
+        <v>26.974</v>
       </c>
       <c r="H103" t="n" s="10">
-        <v>27.799</v>
+        <v>27.773</v>
       </c>
       <c r="I103" t="n" s="10">
-        <v>28.187</v>
+        <v>28.188</v>
       </c>
       <c r="J103" t="n" s="10">
-        <v>29.411</v>
+        <v>29.426</v>
       </c>
       <c r="K103" t="n" s="10">
-        <v>29.531</v>
+        <v>29.514</v>
       </c>
       <c r="L103" t="n" s="10">
-        <v>30.091</v>
+        <v>30.106</v>
       </c>
       <c r="M103" t="n" s="10">
-        <v>31.362</v>
+        <v>31.373</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>31.487</v>
+        <v>31.532</v>
       </c>
       <c r="O103" t="n" s="10">
-        <v>33.659</v>
+        <v>33.671</v>
       </c>
       <c r="P103" t="n" s="10">
-        <v>34.656</v>
+        <v>34.673</v>
       </c>
       <c r="Q103" t="n" s="10">
-        <v>35.224</v>
+        <v>35.239</v>
       </c>
       <c r="R103" t="n" s="10">
-        <v>36.33</v>
+        <v>36.317</v>
       </c>
       <c r="S103" t="n" s="10">
-        <v>36.391</v>
+        <v>36.417</v>
       </c>
       <c r="T103" t="n" s="10">
-        <v>36.307</v>
+        <v>36.295</v>
       </c>
       <c r="U103" t="n" s="10">
-        <v>35.787</v>
+        <v>35.758</v>
       </c>
       <c r="V103" t="n" s="10">
-        <v>35.374</v>
+        <v>35.361</v>
       </c>
       <c r="W103" t="n" s="10">
-        <v>34.747</v>
+        <v>34.758</v>
       </c>
       <c r="X103" t="n" s="10">
-        <v>36.113</v>
+        <v>36.086</v>
       </c>
       <c r="Y103" t="n" s="10">
-        <v>36.506</v>
+        <v>36.501</v>
       </c>
       <c r="Z103" t="n" s="10">
-        <v>36.526</v>
+        <v>36.508</v>
       </c>
       <c r="AA103" t="n" s="10">
-        <v>36.24</v>
+        <v>36.174</v>
       </c>
       <c r="AB103" t="n" s="10">
-        <v>36.18</v>
+        <v>36.209</v>
       </c>
       <c r="AC103" t="n" s="10">
-        <v>36.101</v>
+        <v>36.095</v>
       </c>
       <c r="AD103" t="n" s="10">
-        <v>36.36</v>
+        <v>36.332</v>
       </c>
       <c r="AE103" t="n" s="10">
-        <v>36.838</v>
+        <v>36.847</v>
       </c>
       <c r="AF103" t="n" s="10">
-        <v>35.912</v>
+        <v>35.881</v>
       </c>
       <c r="AG103" t="n" s="10">
-        <v>35.896</v>
+        <v>35.905</v>
       </c>
       <c r="AH103" t="n" s="10">
-        <v>35.639</v>
+        <v>35.663</v>
       </c>
       <c r="AI103" t="n" s="10">
-        <v>35.74</v>
+        <v>35.731</v>
       </c>
       <c r="AJ103" t="n" s="10">
-        <v>36.155</v>
+        <v>36.183</v>
       </c>
       <c r="AK103" t="n" s="10">
-        <v>36.498</v>
+        <v>36.522</v>
       </c>
       <c r="AL103" t="n" s="10">
-        <v>36.213</v>
+        <v>36.271</v>
       </c>
       <c r="AM103" t="n" s="10">
-        <v>36.052</v>
+        <v>36.096</v>
       </c>
       <c r="AN103" t="n" s="10">
-        <v>35.666</v>
+        <v>35.661</v>
       </c>
       <c r="AO103" t="n" s="10">
-        <v>34.968</v>
+        <v>34.953</v>
       </c>
       <c r="AP103" t="n" s="10">
-        <v>34.464</v>
+        <v>34.429</v>
       </c>
       <c r="AQ103" t="n" s="10">
-        <v>33.731</v>
+        <v>33.736</v>
       </c>
       <c r="AR103" t="n" s="10">
-        <v>33.504</v>
+        <v>33.484</v>
       </c>
       <c r="AS103" t="n" s="10">
-        <v>33.078</v>
+        <v>33.05</v>
       </c>
       <c r="AT103" t="n" s="10">
-        <v>32.727</v>
+        <v>32.704</v>
       </c>
       <c r="AU103" t="n" s="10">
-        <v>32.251</v>
+        <v>32.202</v>
       </c>
       <c r="AV103" t="n" s="10">
-        <v>31.25</v>
+        <v>31.255</v>
       </c>
       <c r="AW103" t="n" s="10">
-        <v>30.931</v>
+        <v>30.928</v>
       </c>
       <c r="AX103" t="n" s="10">
-        <v>30.574</v>
+        <v>30.559</v>
       </c>
       <c r="AY103" t="n" s="10">
-        <v>30.441</v>
+        <v>30.429</v>
       </c>
       <c r="AZ103" t="n" s="10">
-        <v>30.69</v>
+        <v>30.661</v>
       </c>
       <c r="BA103" t="n" s="10">
-        <v>30.7</v>
+        <v>30.697</v>
       </c>
       <c r="BB103" t="n" s="10">
-        <v>30.752</v>
+        <v>30.725</v>
       </c>
       <c r="BC103" t="n" s="10">
-        <v>30.361</v>
+        <v>30.42</v>
       </c>
       <c r="BD103" t="n" s="10">
-        <v>29.863</v>
+        <v>29.864</v>
       </c>
       <c r="BE103" t="n" s="10">
-        <v>29.22</v>
+        <v>29.187</v>
       </c>
       <c r="BF103" t="n" s="10">
-        <v>28.639</v>
+        <v>28.611</v>
       </c>
       <c r="BG103" t="n" s="10">
-        <v>28.384</v>
+        <v>28.646</v>
       </c>
       <c r="BH103" t="n" s="10">
-        <v>28.431</v>
+        <v>28.401</v>
       </c>
       <c r="BI103" t="n" s="10">
-        <v>28.773</v>
+        <v>28.657</v>
       </c>
       <c r="BJ103" t="n" s="10">
-        <v>29.08</v>
+        <v>28.894</v>
       </c>
       <c r="BK103" t="n" s="10">
-        <v>28.506</v>
+        <v>29.085</v>
       </c>
       <c r="BL103" t="n" s="10">
-        <v>31.269</v>
+        <v>31.046</v>
       </c>
       <c r="BM103" t="n" s="10">
-        <v>32.168</v>
+        <v>32.01</v>
       </c>
       <c r="BN103" t="n" s="10">
-        <v>33.16</v>
+        <v>33.046</v>
       </c>
       <c r="BO103" t="n" s="10">
-        <v>32.866</v>
+        <v>33.165</v>
       </c>
       <c r="BP103" t="n" s="10">
-        <v>32.635</v>
+        <v>32.502</v>
       </c>
       <c r="BQ103" t="n" s="10">
-        <v>32.616</v>
+        <v>32.543</v>
       </c>
       <c r="BR103" t="n" s="10">
-        <v>32.402</v>
+        <v>32.386</v>
       </c>
       <c r="BS103" t="n" s="10">
-        <v>33.039</v>
+        <v>33.024</v>
       </c>
       <c r="BT103" t="n" s="10">
-        <v>32.322</v>
+        <v>32.378</v>
       </c>
       <c r="BU103" t="n" s="10">
-        <v>32.095</v>
+        <v>32.103</v>
       </c>
       <c r="BV103" t="n" s="10">
-        <v>32.031</v>
+        <v>32.006</v>
       </c>
       <c r="BW103" t="n" s="10">
-        <v>31.555</v>
+        <v>31.559</v>
       </c>
       <c r="BX103" t="n" s="10">
-        <v>31.409</v>
+        <v>31.373</v>
       </c>
       <c r="BY103" t="n" s="10">
-        <v>31.665</v>
+        <v>31.676</v>
       </c>
       <c r="BZ103" t="n" s="10">
-        <v>32.517</v>
+        <v>32.54</v>
       </c>
       <c r="CA103" t="n" s="10">
-        <v>32.077</v>
+        <v>32.078</v>
       </c>
       <c r="CB103" t="n" s="10">
-        <v>33.638</v>
+        <v>33.66</v>
       </c>
       <c r="CC103" t="n" s="10">
-        <v>34.065</v>
+        <v>34.085</v>
       </c>
       <c r="CD103" t="n" s="10">
-        <v>33.991</v>
+        <v>34.046</v>
       </c>
       <c r="CE103" t="n" s="10">
-        <v>36.691</v>
+        <v>36.714</v>
       </c>
       <c r="CF103" t="n" s="10">
-        <v>37.221</v>
+        <v>37.247</v>
       </c>
       <c r="CG103" t="n" s="10">
-        <v>37.898</v>
+        <v>37.918</v>
       </c>
       <c r="CH103" t="n" s="10">
         <v>39.359</v>
       </c>
       <c r="CI103" t="n" s="10">
-        <v>39.861</v>
+        <v>39.909</v>
       </c>
       <c r="CJ103" t="n" s="10">
-        <v>40.246</v>
+        <v>40.228</v>
       </c>
       <c r="CK103" t="n" s="10">
-        <v>40.636</v>
+        <v>40.608</v>
       </c>
       <c r="CL103" t="n" s="10">
-        <v>40.626</v>
+        <v>40.602</v>
       </c>
       <c r="CM103" t="n" s="10">
-        <v>39.7</v>
+        <v>39.648</v>
       </c>
       <c r="CN103" t="n" s="10">
-        <v>41.077</v>
+        <v>41.085</v>
       </c>
       <c r="CO103" t="n" s="10">
-        <v>42.171</v>
+        <v>42.167</v>
       </c>
       <c r="CP103" t="n" s="10">
-        <v>42.534</v>
+        <v>42.516</v>
       </c>
       <c r="CQ103" t="n" s="10">
-        <v>44.099</v>
+        <v>44.091</v>
       </c>
       <c r="CR103" t="n" s="10">
-        <v>43.276</v>
+        <v>43.252</v>
       </c>
       <c r="CS103" t="n" s="10">
-        <v>43.29</v>
+        <v>43.28</v>
       </c>
       <c r="CT103" t="n" s="10">
-        <v>43.62</v>
+        <v>43.592</v>
       </c>
       <c r="CU103" t="n" s="10">
-        <v>43.042</v>
+        <v>43.045</v>
       </c>
       <c r="CV103" t="n" s="10">
-        <v>43.525</v>
+        <v>43.493</v>
       </c>
       <c r="CW103" t="n" s="10">
-        <v>43.983</v>
+        <v>43.986</v>
       </c>
       <c r="CX103" t="n" s="10">
-        <v>44.678</v>
+        <v>44.717</v>
       </c>
       <c r="CY103" t="n" s="10">
-        <v>46.114</v>
+        <v>46.084</v>
       </c>
       <c r="CZ103" t="n" s="10">
-        <v>46.704</v>
+        <v>46.77</v>
       </c>
       <c r="DA103" t="n" s="10">
-        <v>47.136</v>
+        <v>47.153</v>
       </c>
       <c r="DB103" t="n" s="10">
-        <v>47.78</v>
+        <v>47.799</v>
       </c>
       <c r="DC103" t="n" s="10">
-        <v>47.9</v>
+        <v>47.954</v>
       </c>
       <c r="DD103" t="n" s="10">
-        <v>48.861</v>
+        <v>48.82</v>
       </c>
       <c r="DE103" t="n" s="10">
-        <v>49.461</v>
+        <v>49.441</v>
       </c>
       <c r="DF103" t="n" s="10">
-        <v>50.154</v>
+        <v>50.111</v>
       </c>
       <c r="DG103" t="n" s="10">
-        <v>51.055</v>
+        <v>51.021</v>
       </c>
       <c r="DH103" t="n" s="10">
-        <v>52.305</v>
+        <v>52.309</v>
       </c>
       <c r="DI103" t="n" s="10">
-        <v>53.43</v>
+        <v>53.403</v>
       </c>
       <c r="DJ103" t="n" s="10">
-        <v>54.472</v>
+        <v>54.462</v>
       </c>
       <c r="DK103" t="n" s="10">
-        <v>54.678</v>
+        <v>54.646</v>
       </c>
       <c r="DL103" t="n" s="10">
-        <v>55.443</v>
+        <v>55.42</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>56.841</v>
+        <v>56.849</v>
       </c>
       <c r="DN103" t="n" s="10">
-        <v>56.631</v>
+        <v>56.617</v>
       </c>
       <c r="DO103" t="n" s="10">
-        <v>58.426</v>
+        <v>58.363</v>
       </c>
       <c r="DP103" t="n" s="10">
-        <v>58.217</v>
+        <v>58.166</v>
       </c>
       <c r="DQ103" t="n" s="10">
-        <v>57.695</v>
+        <v>57.907</v>
       </c>
       <c r="DR103" t="n" s="10">
-        <v>59.563</v>
+        <v>59.62</v>
       </c>
       <c r="DS103" t="n" s="10">
-        <v>58.808</v>
+        <v>58.865</v>
       </c>
       <c r="DT103" t="n" s="10">
-        <v>63.282</v>
-      </c>
-      <c r="DU103" t="s" s="10">
-        <v>44</v>
+        <v>64.24</v>
+      </c>
+      <c r="DU103" t="n" s="10">
+        <v>68.157</v>
       </c>
       <c r="DV103" t="s" s="10">
         <v>44</v>
@@ -36230,115 +36230,115 @@
         <v>43</v>
       </c>
       <c r="C104" t="n" s="10">
-        <v>22.801</v>
+        <v>22.797</v>
       </c>
       <c r="D104" t="n" s="10">
-        <v>23.62</v>
+        <v>23.621</v>
       </c>
       <c r="E104" t="n" s="10">
-        <v>24.839</v>
+        <v>24.838</v>
       </c>
       <c r="F104" t="n" s="10">
-        <v>26.06</v>
+        <v>26.056</v>
       </c>
       <c r="G104" t="n" s="10">
-        <v>27.571</v>
+        <v>27.572</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>28.013</v>
+        <v>28.012</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>28.368</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>29.131</v>
+        <v>29.132</v>
       </c>
       <c r="K104" t="n" s="10">
-        <v>28.56</v>
+        <v>28.559</v>
       </c>
       <c r="L104" t="n" s="10">
-        <v>29.136</v>
+        <v>29.138</v>
       </c>
       <c r="M104" t="n" s="10">
-        <v>29.334</v>
+        <v>29.335</v>
       </c>
       <c r="N104" t="n" s="10">
-        <v>28.484</v>
+        <v>28.486</v>
       </c>
       <c r="O104" t="n" s="10">
         <v>29.895</v>
       </c>
       <c r="P104" t="n" s="10">
-        <v>29.87</v>
+        <v>29.872</v>
       </c>
       <c r="Q104" t="n" s="10">
-        <v>29.739</v>
+        <v>29.741</v>
       </c>
       <c r="R104" t="n" s="10">
-        <v>30.381</v>
+        <v>30.38</v>
       </c>
       <c r="S104" t="n" s="10">
-        <v>30.157</v>
+        <v>30.158</v>
       </c>
       <c r="T104" t="n" s="10">
-        <v>29.449</v>
+        <v>29.448</v>
       </c>
       <c r="U104" t="n" s="10">
-        <v>29.275</v>
+        <v>29.273</v>
       </c>
       <c r="V104" t="n" s="10">
         <v>28.465</v>
       </c>
       <c r="W104" t="n" s="10">
-        <v>26.942</v>
+        <v>26.943</v>
       </c>
       <c r="X104" t="n" s="10">
-        <v>27.985</v>
+        <v>27.983</v>
       </c>
       <c r="Y104" t="n" s="10">
         <v>27.676</v>
       </c>
       <c r="Z104" t="n" s="10">
-        <v>27.298</v>
+        <v>27.296</v>
       </c>
       <c r="AA104" t="n" s="10">
-        <v>26.895</v>
+        <v>26.891</v>
       </c>
       <c r="AB104" t="n" s="10">
-        <v>26.528</v>
+        <v>26.531</v>
       </c>
       <c r="AC104" t="n" s="10">
         <v>26.346</v>
       </c>
       <c r="AD104" t="n" s="10">
-        <v>26.637</v>
+        <v>26.635</v>
       </c>
       <c r="AE104" t="n" s="10">
-        <v>26.68</v>
+        <v>26.681</v>
       </c>
       <c r="AF104" t="n" s="10">
-        <v>25.557</v>
+        <v>25.555</v>
       </c>
       <c r="AG104" t="n" s="10">
-        <v>25.394</v>
+        <v>25.395</v>
       </c>
       <c r="AH104" t="n" s="10">
-        <v>24.929</v>
+        <v>24.931</v>
       </c>
       <c r="AI104" t="n" s="10">
         <v>25.106</v>
       </c>
       <c r="AJ104" t="n" s="10">
-        <v>25.497</v>
+        <v>25.499</v>
       </c>
       <c r="AK104" t="n" s="10">
-        <v>25.714</v>
+        <v>25.716</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>25.594</v>
+        <v>25.598</v>
       </c>
       <c r="AM104" t="n" s="10">
-        <v>25.543</v>
+        <v>25.547</v>
       </c>
       <c r="AN104" t="n" s="10">
         <v>25.206</v>
@@ -36347,22 +36347,22 @@
         <v>24.983</v>
       </c>
       <c r="AP104" t="n" s="10">
-        <v>25.137</v>
+        <v>25.134</v>
       </c>
       <c r="AQ104" t="n" s="10">
-        <v>25.037</v>
+        <v>25.038</v>
       </c>
       <c r="AR104" t="n" s="10">
-        <v>25.095</v>
+        <v>25.094</v>
       </c>
       <c r="AS104" t="n" s="10">
-        <v>24.762</v>
+        <v>24.759</v>
       </c>
       <c r="AT104" t="n" s="10">
-        <v>24.512</v>
+        <v>24.511</v>
       </c>
       <c r="AU104" t="n" s="10">
-        <v>24.013</v>
+        <v>24.01</v>
       </c>
       <c r="AV104" t="n" s="10">
         <v>23.295</v>
@@ -36371,232 +36371,232 @@
         <v>23.082</v>
       </c>
       <c r="AX104" t="n" s="10">
-        <v>22.497</v>
+        <v>22.496</v>
       </c>
       <c r="AY104" t="n" s="10">
-        <v>22.481</v>
+        <v>22.48</v>
       </c>
       <c r="AZ104" t="n" s="10">
-        <v>22.682</v>
+        <v>22.681</v>
       </c>
       <c r="BA104" t="n" s="10">
-        <v>22.42</v>
+        <v>22.421</v>
       </c>
       <c r="BB104" t="n" s="10">
-        <v>22.44</v>
+        <v>22.438</v>
       </c>
       <c r="BC104" t="n" s="10">
-        <v>22.059</v>
+        <v>22.04</v>
       </c>
       <c r="BD104" t="n" s="10">
-        <v>21.518</v>
+        <v>21.519</v>
       </c>
       <c r="BE104" t="n" s="10">
-        <v>21.351</v>
+        <v>21.397</v>
       </c>
       <c r="BF104" t="n" s="10">
-        <v>21.041</v>
+        <v>21.134</v>
       </c>
       <c r="BG104" t="n" s="10">
-        <v>20.833</v>
+        <v>20.565</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>21.238</v>
+        <v>21.33</v>
       </c>
       <c r="BI104" t="n" s="10">
-        <v>21.307</v>
+        <v>21.439</v>
       </c>
       <c r="BJ104" t="n" s="10">
-        <v>21.647</v>
+        <v>21.823</v>
       </c>
       <c r="BK104" t="n" s="10">
-        <v>20.117</v>
+        <v>19.64</v>
       </c>
       <c r="BL104" t="n" s="10">
-        <v>22.63</v>
+        <v>22.803</v>
       </c>
       <c r="BM104" t="n" s="10">
-        <v>23.452</v>
+        <v>23.58</v>
       </c>
       <c r="BN104" t="n" s="10">
-        <v>24.002</v>
+        <v>24.089</v>
       </c>
       <c r="BO104" t="n" s="10">
-        <v>24.246</v>
+        <v>23.981</v>
       </c>
       <c r="BP104" t="n" s="10">
-        <v>24.132</v>
+        <v>24.219</v>
       </c>
       <c r="BQ104" t="n" s="10">
-        <v>24.149</v>
+        <v>24.197</v>
       </c>
       <c r="BR104" t="n" s="10">
-        <v>24.645</v>
+        <v>24.647</v>
       </c>
       <c r="BS104" t="n" s="10">
-        <v>25.849</v>
+        <v>25.754</v>
       </c>
       <c r="BT104" t="n" s="10">
-        <v>25.73</v>
+        <v>25.737</v>
       </c>
       <c r="BU104" t="n" s="10">
-        <v>25.734</v>
+        <v>25.883</v>
       </c>
       <c r="BV104" t="n" s="10">
-        <v>25.419</v>
+        <v>25.704</v>
       </c>
       <c r="BW104" t="n" s="10">
-        <v>24.961</v>
+        <v>24.091</v>
       </c>
       <c r="BX104" t="n" s="10">
-        <v>24.843</v>
+        <v>25.126</v>
       </c>
       <c r="BY104" t="n" s="10">
-        <v>24.943</v>
+        <v>25.367</v>
       </c>
       <c r="BZ104" t="n" s="10">
-        <v>25.537</v>
+        <v>26.112</v>
       </c>
       <c r="CA104" t="n" s="10">
-        <v>24.647</v>
+        <v>23.072</v>
       </c>
       <c r="CB104" t="n" s="10">
-        <v>26.135</v>
+        <v>26.709</v>
       </c>
       <c r="CC104" t="n" s="10">
-        <v>26.458</v>
+        <v>26.882</v>
       </c>
       <c r="CD104" t="n" s="10">
-        <v>25.982</v>
+        <v>26.272</v>
       </c>
       <c r="CE104" t="n" s="10">
-        <v>28.149</v>
+        <v>27.281</v>
       </c>
       <c r="CF104" t="n" s="10">
-        <v>27.895</v>
+        <v>28.182</v>
       </c>
       <c r="CG104" t="n" s="10">
-        <v>27.999</v>
+        <v>28.148</v>
       </c>
       <c r="CH104" t="n" s="10">
-        <v>28.759</v>
+        <v>28.76</v>
       </c>
       <c r="CI104" t="n" s="10">
-        <v>28.289</v>
+        <v>28.222</v>
       </c>
       <c r="CJ104" t="n" s="10">
-        <v>28.121</v>
+        <v>28.122</v>
       </c>
       <c r="CK104" t="n" s="10">
-        <v>28.229</v>
+        <v>28.232</v>
       </c>
       <c r="CL104" t="n" s="10">
-        <v>28.062</v>
+        <v>28.063</v>
       </c>
       <c r="CM104" t="n" s="10">
-        <v>27.435</v>
+        <v>27.432</v>
       </c>
       <c r="CN104" t="n" s="10">
         <v>28.6</v>
       </c>
       <c r="CO104" t="n" s="10">
-        <v>28.979</v>
+        <v>28.978</v>
       </c>
       <c r="CP104" t="n" s="10">
-        <v>29.021</v>
+        <v>29.02</v>
       </c>
       <c r="CQ104" t="n" s="10">
         <v>29.748</v>
       </c>
       <c r="CR104" t="n" s="10">
-        <v>29.116</v>
+        <v>29.114</v>
       </c>
       <c r="CS104" t="n" s="10">
-        <v>29.176</v>
+        <v>29.175</v>
       </c>
       <c r="CT104" t="n" s="10">
-        <v>29.272</v>
+        <v>29.27</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>28.722</v>
+        <v>28.723</v>
       </c>
       <c r="CV104" t="n" s="10">
-        <v>28.842</v>
+        <v>28.84</v>
       </c>
       <c r="CW104" t="n" s="10">
-        <v>28.951</v>
+        <v>28.952</v>
       </c>
       <c r="CX104" t="n" s="10">
-        <v>29.466</v>
+        <v>29.468</v>
       </c>
       <c r="CY104" t="n" s="10">
+        <v>29.858</v>
+      </c>
+      <c r="CZ104" t="n" s="10">
+        <v>29.619</v>
+      </c>
+      <c r="DA104" t="n" s="10">
         <v>29.86</v>
       </c>
-      <c r="CZ104" t="n" s="10">
-        <v>29.614</v>
-      </c>
-      <c r="DA104" t="n" s="10">
-        <v>29.859</v>
-      </c>
       <c r="DB104" t="n" s="10">
-        <v>30.022</v>
+        <v>30.024</v>
       </c>
       <c r="DC104" t="n" s="10">
-        <v>30.798</v>
+        <v>30.802</v>
       </c>
       <c r="DD104" t="n" s="10">
-        <v>31.466</v>
+        <v>31.462</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>31.747</v>
+        <v>31.745</v>
       </c>
       <c r="DF104" t="n" s="10">
-        <v>32.261</v>
+        <v>32.257</v>
       </c>
       <c r="DG104" t="n" s="10">
-        <v>32.641</v>
+        <v>32.639</v>
       </c>
       <c r="DH104" t="n" s="10">
         <v>33.574</v>
       </c>
       <c r="DI104" t="n" s="10">
-        <v>34.393</v>
+        <v>34.392</v>
       </c>
       <c r="DJ104" t="n" s="10">
-        <v>35.073</v>
+        <v>35.072</v>
       </c>
       <c r="DK104" t="n" s="10">
-        <v>34.94</v>
+        <v>34.937</v>
       </c>
       <c r="DL104" t="n" s="10">
-        <v>35.399</v>
+        <v>35.397</v>
       </c>
       <c r="DM104" t="n" s="10">
-        <v>35.986</v>
+        <v>35.989</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>35.838</v>
+        <v>35.841</v>
       </c>
       <c r="DO104" t="n" s="10">
-        <v>36.703</v>
+        <v>36.637</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>36.257</v>
+        <v>36.24</v>
       </c>
       <c r="DQ104" t="n" s="10">
-        <v>35.846</v>
+        <v>35.954</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>36.522</v>
+        <v>36.536</v>
       </c>
       <c r="DS104" t="n" s="10">
-        <v>36.446</v>
+        <v>36.369</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>38.264</v>
-      </c>
-      <c r="DU104" t="s" s="10">
-        <v>44</v>
+        <v>39.057</v>
+      </c>
+      <c r="DU104" t="n" s="10">
+        <v>40.285</v>
       </c>
       <c r="DV104" t="s" s="10">
         <v>44</v>
@@ -36976,7 +36976,7 @@
         <v>57</v>
       </c>
       <c r="DU105" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV105" t="s" s="10">
         <v>44</v>
@@ -37356,7 +37356,7 @@
         <v>57</v>
       </c>
       <c r="DU106" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV106" t="s" s="10">
         <v>44</v>
@@ -37664,79 +37664,79 @@
         <v>26.724</v>
       </c>
       <c r="CW107" t="n" s="10">
-        <v>27.124</v>
+        <v>27.123</v>
       </c>
       <c r="CX107" t="n" s="10">
-        <v>27.573</v>
+        <v>27.581</v>
       </c>
       <c r="CY107" t="n" s="10">
         <v>27.982</v>
       </c>
       <c r="CZ107" t="n" s="10">
-        <v>28.425</v>
+        <v>28.411</v>
       </c>
       <c r="DA107" t="n" s="10">
-        <v>28.813</v>
+        <v>28.785</v>
       </c>
       <c r="DB107" t="n" s="10">
-        <v>28.9</v>
+        <v>28.987</v>
       </c>
       <c r="DC107" t="n" s="10">
-        <v>29.467</v>
+        <v>29.438</v>
       </c>
       <c r="DD107" t="n" s="10">
-        <v>29.824</v>
+        <v>29.781</v>
       </c>
       <c r="DE107" t="n" s="10">
-        <v>30.296</v>
+        <v>30.238</v>
       </c>
       <c r="DF107" t="n" s="10">
-        <v>30.935</v>
+        <v>31.1</v>
       </c>
       <c r="DG107" t="n" s="10">
-        <v>31.178</v>
+        <v>31.12</v>
       </c>
       <c r="DH107" t="n" s="10">
-        <v>31.824</v>
+        <v>31.765</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>32.304</v>
+        <v>32.245</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>32.694</v>
+        <v>32.89</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>33.374</v>
+        <v>33.311</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>34.226</v>
+        <v>34.122</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>34.491</v>
+        <v>34.37</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>34.674</v>
+        <v>35.107</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>34.823</v>
+        <v>34.689</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>34.18</v>
+        <v>34.018</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>34.668</v>
+        <v>34.494</v>
       </c>
       <c r="DR107" t="n" s="10">
-        <v>35.051</v>
+        <v>35.674</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>34.56</v>
+        <v>34.395</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>35.468</v>
-      </c>
-      <c r="DU107" t="s" s="10">
-        <v>44</v>
+        <v>35.252</v>
+      </c>
+      <c r="DU107" t="n" s="10">
+        <v>35.172</v>
       </c>
       <c r="DV107" t="s" s="10">
         <v>44</v>
@@ -37755,64 +37755,64 @@
         <v>43</v>
       </c>
       <c r="C109" t="n" s="10">
-        <v>79.04</v>
+        <v>79.02</v>
       </c>
       <c r="D109" t="n" s="10">
-        <v>80.51</v>
+        <v>80.52</v>
       </c>
       <c r="E109" t="n" s="10">
         <v>81.86</v>
       </c>
       <c r="F109" t="n" s="10">
-        <v>83.43</v>
+        <v>83.41</v>
       </c>
       <c r="G109" t="n" s="10">
-        <v>85.02</v>
+        <v>85.03</v>
       </c>
       <c r="H109" t="n" s="10">
-        <v>84.99</v>
+        <v>84.98</v>
       </c>
       <c r="I109" t="n" s="10">
-        <v>83.68</v>
+        <v>83.69</v>
       </c>
       <c r="J109" t="n" s="10">
-        <v>83.5</v>
+        <v>83.51</v>
       </c>
       <c r="K109" t="n" s="10">
-        <v>80.88</v>
+        <v>80.87</v>
       </c>
       <c r="L109" t="n" s="10">
-        <v>80.24</v>
+        <v>80.25</v>
       </c>
       <c r="M109" t="n" s="10">
-        <v>80.77</v>
+        <v>80.78</v>
       </c>
       <c r="N109" t="n" s="10">
-        <v>79.08</v>
+        <v>79.1</v>
       </c>
       <c r="O109" t="n" s="10">
-        <v>82.34</v>
+        <v>82.35</v>
       </c>
       <c r="P109" t="n" s="10">
-        <v>82.78</v>
+        <v>82.79</v>
       </c>
       <c r="Q109" t="n" s="10">
-        <v>82.99</v>
+        <v>83.01</v>
       </c>
       <c r="R109" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="S109" t="n" s="10">
-        <v>84.51</v>
+        <v>84.52</v>
       </c>
       <c r="T109" t="n" s="10">
-        <v>83.14</v>
+        <v>83.13</v>
       </c>
       <c r="U109" t="n" s="10">
-        <v>82.93</v>
+        <v>82.92</v>
       </c>
       <c r="V109" t="n" s="10">
-        <v>82.32</v>
+        <v>82.31</v>
       </c>
       <c r="W109" t="n" s="10">
         <v>81.22</v>
@@ -37827,43 +37827,43 @@
         <v>83.79</v>
       </c>
       <c r="AA109" t="n" s="10">
-        <v>83.3</v>
+        <v>83.27</v>
       </c>
       <c r="AB109" t="n" s="10">
-        <v>83.38</v>
+        <v>83.4</v>
       </c>
       <c r="AC109" t="n" s="10">
         <v>83.68</v>
       </c>
       <c r="AD109" t="n" s="10">
-        <v>84.92</v>
+        <v>84.91</v>
       </c>
       <c r="AE109" t="n" s="10">
         <v>86.69</v>
       </c>
       <c r="AF109" t="n" s="10">
-        <v>85.92</v>
+        <v>85.91</v>
       </c>
       <c r="AG109" t="n" s="10">
-        <v>86.81</v>
+        <v>86.82</v>
       </c>
       <c r="AH109" t="n" s="10">
-        <v>87.21</v>
+        <v>87.23</v>
       </c>
       <c r="AI109" t="n" s="10">
         <v>88.26</v>
       </c>
       <c r="AJ109" t="n" s="10">
-        <v>89.66</v>
+        <v>89.68</v>
       </c>
       <c r="AK109" t="n" s="10">
-        <v>90.71</v>
+        <v>90.73</v>
       </c>
       <c r="AL109" t="n" s="10">
-        <v>90.89</v>
+        <v>90.93</v>
       </c>
       <c r="AM109" t="n" s="10">
-        <v>91.58</v>
+        <v>91.6</v>
       </c>
       <c r="AN109" t="n" s="10">
         <v>92.22</v>
@@ -37872,256 +37872,256 @@
         <v>92.62</v>
       </c>
       <c r="AP109" t="n" s="10">
-        <v>92.88</v>
+        <v>92.87</v>
       </c>
       <c r="AQ109" t="n" s="10">
-        <v>92.23</v>
+        <v>92.24</v>
       </c>
       <c r="AR109" t="n" s="10">
-        <v>90.92</v>
+        <v>90.91</v>
       </c>
       <c r="AS109" t="n" s="10">
-        <v>89.28</v>
+        <v>89.26</v>
       </c>
       <c r="AT109" t="n" s="10">
-        <v>88.12</v>
+        <v>88.11</v>
       </c>
       <c r="AU109" t="n" s="10">
-        <v>86.17</v>
+        <v>86.15</v>
       </c>
       <c r="AV109" t="n" s="10">
-        <v>85.07</v>
+        <v>85.08</v>
       </c>
       <c r="AW109" t="n" s="10">
         <v>84.22</v>
       </c>
       <c r="AX109" t="n" s="10">
-        <v>83.29</v>
+        <v>83.28</v>
       </c>
       <c r="AY109" t="n" s="10">
         <v>83.6</v>
       </c>
       <c r="AZ109" t="n" s="10">
-        <v>83.22</v>
+        <v>83.21</v>
       </c>
       <c r="BA109" t="n" s="10">
         <v>83.18</v>
       </c>
       <c r="BB109" t="n" s="10">
-        <v>83.19</v>
+        <v>83.18</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>82.52</v>
+        <v>82.54</v>
       </c>
       <c r="BD109" t="n" s="10">
-        <v>82.4</v>
+        <v>82.41</v>
       </c>
       <c r="BE109" t="n" s="10">
-        <v>82.09</v>
+        <v>82.1</v>
       </c>
       <c r="BF109" t="n" s="10">
-        <v>81.0</v>
+        <v>81.03</v>
       </c>
       <c r="BG109" t="n" s="10">
-        <v>81.39</v>
+        <v>81.37</v>
       </c>
       <c r="BH109" t="n" s="10">
-        <v>81.98</v>
+        <v>82.02</v>
       </c>
       <c r="BI109" t="n" s="10">
-        <v>83.62</v>
+        <v>83.63</v>
       </c>
       <c r="BJ109" t="n" s="10">
-        <v>85.46</v>
+        <v>85.47</v>
       </c>
       <c r="BK109" t="n" s="10">
-        <v>84.92</v>
+        <v>84.94</v>
       </c>
       <c r="BL109" t="n" s="10">
         <v>90.15</v>
       </c>
       <c r="BM109" t="n" s="10">
-        <v>91.24</v>
+        <v>91.21</v>
       </c>
       <c r="BN109" t="n" s="10">
-        <v>93.0</v>
+        <v>92.97</v>
       </c>
       <c r="BO109" t="n" s="10">
-        <v>93.09</v>
+        <v>93.14</v>
       </c>
       <c r="BP109" t="n" s="10">
-        <v>92.38</v>
+        <v>92.55</v>
       </c>
       <c r="BQ109" t="n" s="10">
-        <v>93.25</v>
+        <v>92.99</v>
       </c>
       <c r="BR109" t="n" s="10">
-        <v>94.4</v>
+        <v>94.26</v>
       </c>
       <c r="BS109" t="n" s="10">
-        <v>95.35</v>
+        <v>95.44</v>
       </c>
       <c r="BT109" t="n" s="10">
-        <v>94.51</v>
+        <v>95.01</v>
       </c>
       <c r="BU109" t="n" s="10">
-        <v>94.09</v>
+        <v>93.71</v>
       </c>
       <c r="BV109" t="n" s="10">
-        <v>93.44</v>
+        <v>93.22</v>
       </c>
       <c r="BW109" t="n" s="10">
-        <v>86.4</v>
+        <v>86.46</v>
       </c>
       <c r="BX109" t="n" s="10">
-        <v>84.93</v>
+        <v>85.32</v>
       </c>
       <c r="BY109" t="n" s="10">
-        <v>85.2</v>
+        <v>85.03</v>
       </c>
       <c r="BZ109" t="n" s="10">
-        <v>85.54</v>
+        <v>85.42</v>
       </c>
       <c r="CA109" t="n" s="10">
-        <v>86.35</v>
+        <v>86.33</v>
       </c>
       <c r="CB109" t="n" s="10">
-        <v>89.69</v>
+        <v>89.81</v>
       </c>
       <c r="CC109" t="n" s="10">
-        <v>90.92</v>
+        <v>90.93</v>
       </c>
       <c r="CD109" t="n" s="10">
-        <v>91.69</v>
+        <v>91.68</v>
       </c>
       <c r="CE109" t="n" s="10">
         <v>95.29</v>
       </c>
       <c r="CF109" t="n" s="10">
-        <v>95.45</v>
+        <v>95.47</v>
       </c>
       <c r="CG109" t="n" s="10">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
       <c r="CH109" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="CI109" t="n" s="10">
-        <v>97.28</v>
+        <v>97.3</v>
       </c>
       <c r="CJ109" t="n" s="10">
-        <v>96.58</v>
+        <v>96.57</v>
       </c>
       <c r="CK109" t="n" s="10">
-        <v>96.32</v>
+        <v>96.31</v>
       </c>
       <c r="CL109" t="n" s="10">
-        <v>95.73</v>
+        <v>95.72</v>
       </c>
       <c r="CM109" t="n" s="10">
-        <v>93.55</v>
+        <v>93.53</v>
       </c>
       <c r="CN109" t="n" s="10">
-        <v>95.61</v>
+        <v>95.62</v>
       </c>
       <c r="CO109" t="n" s="10">
         <v>96.11</v>
       </c>
       <c r="CP109" t="n" s="10">
-        <v>97.14</v>
+        <v>97.13</v>
       </c>
       <c r="CQ109" t="n" s="10">
         <v>99.31</v>
       </c>
       <c r="CR109" t="n" s="10">
-        <v>98.17</v>
+        <v>98.16</v>
       </c>
       <c r="CS109" t="n" s="10">
         <v>98.56</v>
       </c>
       <c r="CT109" t="n" s="10">
-        <v>98.58</v>
+        <v>98.57</v>
       </c>
       <c r="CU109" t="n" s="10">
         <v>98.25</v>
       </c>
       <c r="CV109" t="n" s="10">
-        <v>99.28</v>
+        <v>99.27</v>
       </c>
       <c r="CW109" t="n" s="10">
         <v>100.25</v>
       </c>
       <c r="CX109" t="n" s="10">
-        <v>101.97</v>
+        <v>101.99</v>
       </c>
       <c r="CY109" t="n" s="10">
-        <v>103.25</v>
+        <v>103.24</v>
       </c>
       <c r="CZ109" t="n" s="10">
-        <v>103.19</v>
+        <v>103.2</v>
       </c>
       <c r="DA109" t="n" s="10">
-        <v>103.82</v>
+        <v>103.8</v>
       </c>
       <c r="DB109" t="n" s="10">
-        <v>103.87</v>
+        <v>103.96</v>
       </c>
       <c r="DC109" t="n" s="10">
-        <v>104.83</v>
+        <v>104.82</v>
       </c>
       <c r="DD109" t="n" s="10">
-        <v>106.52</v>
+        <v>106.47</v>
       </c>
       <c r="DE109" t="n" s="10">
-        <v>107.39</v>
+        <v>107.34</v>
       </c>
       <c r="DF109" t="n" s="10">
-        <v>108.47</v>
+        <v>108.61</v>
       </c>
       <c r="DG109" t="n" s="10">
-        <v>108.94</v>
+        <v>108.89</v>
       </c>
       <c r="DH109" t="n" s="10">
-        <v>110.15</v>
+        <v>110.06</v>
       </c>
       <c r="DI109" t="n" s="10">
-        <v>110.9</v>
+        <v>110.87</v>
       </c>
       <c r="DJ109" t="n" s="10">
-        <v>111.87</v>
+        <v>111.99</v>
       </c>
       <c r="DK109" t="n" s="10">
-        <v>112.38</v>
+        <v>112.41</v>
       </c>
       <c r="DL109" t="n" s="10">
-        <v>113.12</v>
+        <v>112.83</v>
       </c>
       <c r="DM109" t="n" s="10">
-        <v>112.93</v>
+        <v>113.04</v>
       </c>
       <c r="DN109" t="n" s="10">
-        <v>111.36</v>
+        <v>111.65</v>
       </c>
       <c r="DO109" t="n" s="10">
-        <v>111.39</v>
+        <v>111.42</v>
       </c>
       <c r="DP109" t="n" s="10">
-        <v>105.17</v>
+        <v>104.5</v>
       </c>
       <c r="DQ109" t="n" s="10">
-        <v>109.46</v>
+        <v>109.92</v>
       </c>
       <c r="DR109" t="n" s="10">
-        <v>111.27</v>
+        <v>111.74</v>
       </c>
       <c r="DS109" t="n" s="10">
-        <v>110.77</v>
+        <v>110.96</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>112.39</v>
-      </c>
-      <c r="DU109" t="s" s="10">
-        <v>44</v>
+        <v>112.58</v>
+      </c>
+      <c r="DU109" t="n" s="10">
+        <v>111.14</v>
       </c>
       <c r="DV109" t="s" s="10">
         <v>44</v>
@@ -38135,373 +38135,373 @@
         <v>43</v>
       </c>
       <c r="C110" t="n" s="10">
-        <v>69.58</v>
+        <v>69.5</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>71.2</v>
+        <v>71.21</v>
       </c>
       <c r="E110" t="n" s="10">
-        <v>71.28</v>
+        <v>71.27</v>
       </c>
       <c r="F110" t="n" s="10">
-        <v>72.1</v>
+        <v>72.04</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>71.34</v>
+        <v>71.36</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>70.08</v>
+        <v>70.04</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>67.04</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>64.46</v>
+        <v>64.48</v>
       </c>
       <c r="K110" t="n" s="10">
-        <v>60.76</v>
+        <v>60.74</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>58.31</v>
+        <v>58.33</v>
       </c>
       <c r="M110" t="n" s="10">
-        <v>57.66</v>
+        <v>57.67</v>
       </c>
       <c r="N110" t="n" s="10">
-        <v>55.37</v>
+        <v>55.43</v>
       </c>
       <c r="O110" t="n" s="10">
-        <v>56.67</v>
+        <v>56.68</v>
       </c>
       <c r="P110" t="n" s="10">
-        <v>56.82</v>
+        <v>56.84</v>
       </c>
       <c r="Q110" t="n" s="10">
-        <v>57.2</v>
+        <v>57.23</v>
       </c>
       <c r="R110" t="n" s="10">
-        <v>58.62</v>
+        <v>58.61</v>
       </c>
       <c r="S110" t="n" s="10">
-        <v>58.29</v>
+        <v>58.32</v>
       </c>
       <c r="T110" t="n" s="10">
-        <v>58.11</v>
+        <v>58.09</v>
       </c>
       <c r="U110" t="n" s="10">
-        <v>58.8</v>
+        <v>58.76</v>
       </c>
       <c r="V110" t="n" s="10">
-        <v>59.21</v>
+        <v>59.2</v>
       </c>
       <c r="W110" t="n" s="10">
-        <v>59.27</v>
+        <v>59.29</v>
       </c>
       <c r="X110" t="n" s="10">
-        <v>60.58</v>
+        <v>60.54</v>
       </c>
       <c r="Y110" t="n" s="10">
         <v>60.76</v>
       </c>
       <c r="Z110" t="n" s="10">
-        <v>60.98</v>
+        <v>60.95</v>
       </c>
       <c r="AA110" t="n" s="10">
-        <v>61.69</v>
+        <v>61.6</v>
       </c>
       <c r="AB110" t="n" s="10">
-        <v>62.09</v>
+        <v>62.13</v>
       </c>
       <c r="AC110" t="n" s="10">
-        <v>63.13</v>
+        <v>63.12</v>
       </c>
       <c r="AD110" t="n" s="10">
-        <v>64.83</v>
+        <v>64.79</v>
       </c>
       <c r="AE110" t="n" s="10">
-        <v>67.16</v>
+        <v>67.17</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>68.92</v>
+        <v>68.87</v>
       </c>
       <c r="AG110" t="n" s="10">
-        <v>70.64</v>
+        <v>70.65</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>72.24</v>
+        <v>72.28</v>
       </c>
       <c r="AI110" t="n" s="10">
-        <v>73.32</v>
+        <v>73.31</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>74.18</v>
+        <v>74.22</v>
       </c>
       <c r="AK110" t="n" s="10">
-        <v>75.47</v>
+        <v>75.5</v>
       </c>
       <c r="AL110" t="n" s="10">
-        <v>76.38</v>
+        <v>76.46</v>
       </c>
       <c r="AM110" t="n" s="10">
+        <v>79.09</v>
+      </c>
+      <c r="AN110" t="n" s="10">
+        <v>82.23</v>
+      </c>
+      <c r="AO110" t="n" s="10">
+        <v>84.73</v>
+      </c>
+      <c r="AP110" t="n" s="10">
+        <v>85.91</v>
+      </c>
+      <c r="AQ110" t="n" s="10">
+        <v>85.0</v>
+      </c>
+      <c r="AR110" t="n" s="10">
+        <v>81.78</v>
+      </c>
+      <c r="AS110" t="n" s="10">
         <v>79.03</v>
       </c>
-      <c r="AN110" t="n" s="10">
-        <v>82.24</v>
-      </c>
-      <c r="AO110" t="n" s="10">
-        <v>84.75</v>
-      </c>
-      <c r="AP110" t="n" s="10">
-        <v>85.96</v>
-      </c>
-      <c r="AQ110" t="n" s="10">
-        <v>84.99</v>
-      </c>
-      <c r="AR110" t="n" s="10">
-        <v>81.81</v>
-      </c>
-      <c r="AS110" t="n" s="10">
-        <v>79.07</v>
-      </c>
       <c r="AT110" t="n" s="10">
-        <v>77.11</v>
+        <v>77.08</v>
       </c>
       <c r="AU110" t="n" s="10">
-        <v>74.43</v>
+        <v>74.36</v>
       </c>
       <c r="AV110" t="n" s="10">
-        <v>74.77</v>
+        <v>74.78</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>73.77</v>
+        <v>73.76</v>
       </c>
       <c r="AX110" t="n" s="10">
-        <v>73.27</v>
+        <v>73.25</v>
       </c>
       <c r="AY110" t="n" s="10">
-        <v>74.89</v>
+        <v>74.87</v>
       </c>
       <c r="AZ110" t="n" s="10">
-        <v>72.95</v>
+        <v>72.92</v>
       </c>
       <c r="BA110" t="n" s="10">
         <v>73.17</v>
       </c>
       <c r="BB110" t="n" s="10">
-        <v>73.49</v>
+        <v>73.46</v>
       </c>
       <c r="BC110" t="n" s="10">
-        <v>73.05</v>
+        <v>73.1</v>
       </c>
       <c r="BD110" t="n" s="10">
         <v>75.67</v>
       </c>
       <c r="BE110" t="n" s="10">
-        <v>76.77</v>
+        <v>76.79</v>
       </c>
       <c r="BF110" t="n" s="10">
-        <v>75.69</v>
+        <v>75.78</v>
       </c>
       <c r="BG110" t="n" s="10">
-        <v>78.06</v>
+        <v>78.01</v>
       </c>
       <c r="BH110" t="n" s="10">
-        <v>78.37</v>
+        <v>78.46</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>81.68</v>
+        <v>81.72</v>
       </c>
       <c r="BJ110" t="n" s="10">
-        <v>85.6</v>
+        <v>85.62</v>
       </c>
       <c r="BK110" t="n" s="10">
-        <v>87.1</v>
+        <v>87.17</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>91.47</v>
+        <v>91.44</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>91.99</v>
+        <v>91.89</v>
       </c>
       <c r="BN110" t="n" s="10">
-        <v>94.48</v>
+        <v>94.39</v>
       </c>
       <c r="BO110" t="n" s="10">
-        <v>96.77</v>
+        <v>96.92</v>
       </c>
       <c r="BP110" t="n" s="10">
-        <v>96.73</v>
+        <v>97.16</v>
       </c>
       <c r="BQ110" t="n" s="10">
-        <v>99.06</v>
+        <v>98.38</v>
       </c>
       <c r="BR110" t="n" s="10">
-        <v>102.08</v>
+        <v>101.7</v>
       </c>
       <c r="BS110" t="n" s="10">
-        <v>100.96</v>
+        <v>101.17</v>
       </c>
       <c r="BT110" t="n" s="10">
-        <v>101.18</v>
+        <v>102.53</v>
       </c>
       <c r="BU110" t="n" s="10">
-        <v>101.58</v>
+        <v>100.56</v>
       </c>
       <c r="BV110" t="n" s="10">
-        <v>100.21</v>
+        <v>99.62</v>
       </c>
       <c r="BW110" t="n" s="10">
-        <v>83.45</v>
+        <v>83.59</v>
       </c>
       <c r="BX110" t="n" s="10">
-        <v>79.44</v>
+        <v>80.49</v>
       </c>
       <c r="BY110" t="n" s="10">
-        <v>79.16</v>
+        <v>78.69</v>
       </c>
       <c r="BZ110" t="n" s="10">
-        <v>78.25</v>
+        <v>77.93</v>
       </c>
       <c r="CA110" t="n" s="10">
-        <v>83.61</v>
+        <v>83.55</v>
       </c>
       <c r="CB110" t="n" s="10">
-        <v>87.53</v>
+        <v>87.88</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>89.81</v>
+        <v>89.84</v>
       </c>
       <c r="CD110" t="n" s="10">
-        <v>93.21</v>
+        <v>93.22</v>
       </c>
       <c r="CE110" t="n" s="10">
         <v>93.56</v>
       </c>
       <c r="CF110" t="n" s="10">
-        <v>94.13</v>
+        <v>94.18</v>
       </c>
       <c r="CG110" t="n" s="10">
-        <v>96.81</v>
+        <v>96.85</v>
       </c>
       <c r="CH110" t="n" s="10">
         <v>96.05</v>
       </c>
       <c r="CI110" t="n" s="10">
-        <v>96.37</v>
+        <v>96.44</v>
       </c>
       <c r="CJ110" t="n" s="10">
-        <v>94.45</v>
+        <v>94.43</v>
       </c>
       <c r="CK110" t="n" s="10">
-        <v>92.75</v>
+        <v>92.71</v>
       </c>
       <c r="CL110" t="n" s="10">
-        <v>91.71</v>
+        <v>91.68</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>89.66</v>
+        <v>89.59</v>
       </c>
       <c r="CN110" t="n" s="10">
-        <v>91.54</v>
+        <v>91.55</v>
       </c>
       <c r="CO110" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="CP110" t="n" s="10">
-        <v>94.26</v>
+        <v>94.24</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>95.86</v>
+        <v>95.85</v>
       </c>
       <c r="CR110" t="n" s="10">
-        <v>95.99</v>
+        <v>95.95</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>96.74</v>
+        <v>96.72</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>95.77</v>
+        <v>95.73</v>
       </c>
       <c r="CU110" t="n" s="10">
         <v>97.29</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>98.56</v>
+        <v>98.52</v>
       </c>
       <c r="CW110" t="n" s="10">
-        <v>100.37</v>
+        <v>100.38</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>103.23</v>
+        <v>103.28</v>
       </c>
       <c r="CY110" t="n" s="10">
-        <v>102.68</v>
+        <v>102.64</v>
       </c>
       <c r="CZ110" t="n" s="10">
-        <v>102.62</v>
+        <v>102.71</v>
       </c>
       <c r="DA110" t="n" s="10">
-        <v>103.14</v>
+        <v>103.16</v>
       </c>
       <c r="DB110" t="n" s="10">
-        <v>102.84</v>
+        <v>102.87</v>
       </c>
       <c r="DC110" t="n" s="10">
-        <v>104.9</v>
+        <v>104.97</v>
       </c>
       <c r="DD110" t="n" s="10">
-        <v>107.0</v>
+        <v>106.93</v>
       </c>
       <c r="DE110" t="n" s="10">
-        <v>108.61</v>
+        <v>108.58</v>
       </c>
       <c r="DF110" t="n" s="10">
-        <v>110.17</v>
+        <v>110.13</v>
       </c>
       <c r="DG110" t="n" s="10">
-        <v>111.21</v>
+        <v>111.2</v>
       </c>
       <c r="DH110" t="n" s="10">
-        <v>112.14</v>
+        <v>111.98</v>
       </c>
       <c r="DI110" t="n" s="10">
         <v>112.14</v>
       </c>
       <c r="DJ110" t="n" s="10">
-        <v>113.3</v>
+        <v>113.41</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>114.93</v>
+        <v>115.1</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>115.42</v>
+        <v>114.65</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>113.21</v>
+        <v>113.56</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>109.38</v>
+        <v>109.77</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>104.77</v>
+        <v>104.96</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>89.35</v>
+        <v>87.86</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>102.49</v>
+        <v>103.54</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>103.83</v>
+        <v>104.48</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>105.99</v>
+        <v>106.15</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>106.73</v>
-      </c>
-      <c r="DU110" t="s" s="10">
-        <v>44</v>
+        <v>105.09</v>
+      </c>
+      <c r="DU110" t="n" s="10">
+        <v>102.34</v>
       </c>
       <c r="DV110" t="s" s="10">
         <v>44</v>
@@ -38515,241 +38515,241 @@
         <v>43</v>
       </c>
       <c r="C111" t="n" s="10">
-        <v>68.1</v>
+        <v>68.01</v>
       </c>
       <c r="D111" t="n" s="10">
-        <v>67.93</v>
+        <v>67.95</v>
       </c>
       <c r="E111" t="n" s="10">
-        <v>68.68</v>
+        <v>68.67</v>
       </c>
       <c r="F111" t="n" s="10">
-        <v>70.6</v>
+        <v>70.54</v>
       </c>
       <c r="G111" t="n" s="10">
-        <v>69.15</v>
+        <v>69.18</v>
       </c>
       <c r="H111" t="n" s="10">
-        <v>68.89</v>
+        <v>68.85</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>66.89</v>
       </c>
       <c r="J111" t="n" s="10">
-        <v>64.9</v>
+        <v>64.93</v>
       </c>
       <c r="K111" t="n" s="10">
-        <v>62.17</v>
+        <v>62.16</v>
       </c>
       <c r="L111" t="n" s="10">
-        <v>60.63</v>
+        <v>60.66</v>
       </c>
       <c r="M111" t="n" s="10">
-        <v>59.13</v>
+        <v>59.15</v>
       </c>
       <c r="N111" t="n" s="10">
-        <v>56.34</v>
+        <v>56.42</v>
       </c>
       <c r="O111" t="n" s="10">
-        <v>57.81</v>
+        <v>57.82</v>
       </c>
       <c r="P111" t="n" s="10">
-        <v>57.25</v>
+        <v>57.27</v>
       </c>
       <c r="Q111" t="n" s="10">
-        <v>57.48</v>
+        <v>57.52</v>
       </c>
       <c r="R111" t="n" s="10">
-        <v>58.9</v>
+        <v>58.89</v>
       </c>
       <c r="S111" t="n" s="10">
+        <v>58.52</v>
+      </c>
+      <c r="T111" t="n" s="10">
+        <v>57.87</v>
+      </c>
+      <c r="U111" t="n" s="10">
+        <v>58.74</v>
+      </c>
+      <c r="V111" t="n" s="10">
+        <v>59.14</v>
+      </c>
+      <c r="W111" t="n" s="10">
         <v>58.48</v>
       </c>
-      <c r="T111" t="n" s="10">
-        <v>57.89</v>
-      </c>
-      <c r="U111" t="n" s="10">
-        <v>58.78</v>
-      </c>
-      <c r="V111" t="n" s="10">
-        <v>59.15</v>
-      </c>
-      <c r="W111" t="n" s="10">
-        <v>58.45</v>
-      </c>
       <c r="X111" t="n" s="10">
+        <v>60.61</v>
+      </c>
+      <c r="Y111" t="n" s="10">
         <v>60.65</v>
       </c>
-      <c r="Y111" t="n" s="10">
-        <v>60.64</v>
-      </c>
       <c r="Z111" t="n" s="10">
-        <v>60.81</v>
+        <v>60.78</v>
       </c>
       <c r="AA111" t="n" s="10">
-        <v>61.07</v>
+        <v>60.96</v>
       </c>
       <c r="AB111" t="n" s="10">
-        <v>59.91</v>
+        <v>59.97</v>
       </c>
       <c r="AC111" t="n" s="10">
-        <v>61.36</v>
+        <v>61.35</v>
       </c>
       <c r="AD111" t="n" s="10">
-        <v>62.99</v>
+        <v>62.94</v>
       </c>
       <c r="AE111" t="n" s="10">
-        <v>66.13</v>
+        <v>66.15</v>
       </c>
       <c r="AF111" t="n" s="10">
-        <v>68.29</v>
+        <v>68.24</v>
       </c>
       <c r="AG111" t="n" s="10">
-        <v>68.94</v>
+        <v>68.96</v>
       </c>
       <c r="AH111" t="n" s="10">
-        <v>69.65</v>
+        <v>69.71</v>
       </c>
       <c r="AI111" t="n" s="10">
         <v>71.34</v>
       </c>
       <c r="AJ111" t="n" s="10">
-        <v>72.72</v>
+        <v>72.78</v>
       </c>
       <c r="AK111" t="n" s="10">
-        <v>74.67</v>
+        <v>74.71</v>
       </c>
       <c r="AL111" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="AM111" t="n" s="10">
-        <v>77.38</v>
+        <v>77.46</v>
       </c>
       <c r="AN111" t="n" s="10">
         <v>79.78</v>
       </c>
       <c r="AO111" t="n" s="10">
-        <v>82.58</v>
+        <v>82.57</v>
       </c>
       <c r="AP111" t="n" s="10">
-        <v>84.3</v>
+        <v>84.24</v>
       </c>
       <c r="AQ111" t="n" s="10">
-        <v>83.95</v>
+        <v>83.97</v>
       </c>
       <c r="AR111" t="n" s="10">
-        <v>83.48</v>
+        <v>83.45</v>
       </c>
       <c r="AS111" t="n" s="10">
-        <v>80.53</v>
+        <v>80.49</v>
       </c>
       <c r="AT111" t="n" s="10">
-        <v>78.65</v>
+        <v>78.62</v>
       </c>
       <c r="AU111" t="n" s="10">
-        <v>76.8</v>
+        <v>76.71</v>
       </c>
       <c r="AV111" t="n" s="10">
-        <v>74.49</v>
+        <v>74.51</v>
       </c>
       <c r="AW111" t="n" s="10">
-        <v>74.59</v>
+        <v>74.58</v>
       </c>
       <c r="AX111" t="n" s="10">
+        <v>73.42</v>
+      </c>
+      <c r="AY111" t="n" s="10">
+        <v>73.45</v>
+      </c>
+      <c r="AZ111" t="n" s="10">
         <v>73.43</v>
       </c>
-      <c r="AY111" t="n" s="10">
-        <v>73.46</v>
-      </c>
-      <c r="AZ111" t="n" s="10">
-        <v>73.46</v>
-      </c>
       <c r="BA111" t="n" s="10">
-        <v>71.66</v>
+        <v>71.67</v>
       </c>
       <c r="BB111" t="n" s="10">
-        <v>73.2</v>
+        <v>73.17</v>
       </c>
       <c r="BC111" t="n" s="10">
-        <v>73.2</v>
+        <v>73.27</v>
       </c>
       <c r="BD111" t="n" s="10">
         <v>71.73</v>
       </c>
       <c r="BE111" t="n" s="10">
-        <v>73.86</v>
+        <v>73.89</v>
       </c>
       <c r="BF111" t="n" s="10">
-        <v>71.55</v>
+        <v>71.67</v>
       </c>
       <c r="BG111" t="n" s="10">
-        <v>73.52</v>
+        <v>73.46</v>
       </c>
       <c r="BH111" t="n" s="10">
-        <v>77.08</v>
+        <v>77.2</v>
       </c>
       <c r="BI111" t="n" s="10">
-        <v>80.04</v>
+        <v>80.1</v>
       </c>
       <c r="BJ111" t="n" s="10">
-        <v>81.99</v>
+        <v>82.03</v>
       </c>
       <c r="BK111" t="n" s="10">
-        <v>85.05</v>
+        <v>85.14</v>
       </c>
       <c r="BL111" t="n" s="10">
-        <v>87.14</v>
+        <v>87.11</v>
       </c>
       <c r="BM111" t="n" s="10">
-        <v>87.69</v>
+        <v>87.56</v>
       </c>
       <c r="BN111" t="n" s="10">
-        <v>92.24</v>
+        <v>92.12</v>
       </c>
       <c r="BO111" t="n" s="10">
-        <v>93.2</v>
+        <v>93.41</v>
       </c>
       <c r="BP111" t="n" s="10">
-        <v>95.36</v>
+        <v>95.96</v>
       </c>
       <c r="BQ111" t="n" s="10">
-        <v>100.37</v>
+        <v>99.46</v>
       </c>
       <c r="BR111" t="n" s="10">
-        <v>103.72</v>
+        <v>103.21</v>
       </c>
       <c r="BS111" t="n" s="10">
-        <v>101.81</v>
+        <v>102.12</v>
       </c>
       <c r="BT111" t="n" s="10">
-        <v>102.62</v>
+        <v>104.48</v>
       </c>
       <c r="BU111" t="n" s="10">
-        <v>103.44</v>
+        <v>102.04</v>
       </c>
       <c r="BV111" t="n" s="10">
-        <v>105.11</v>
+        <v>104.31</v>
       </c>
       <c r="BW111" t="n" s="10">
-        <v>88.76</v>
+        <v>88.96</v>
       </c>
       <c r="BX111" t="n" s="10">
-        <v>83.25</v>
+        <v>84.72</v>
       </c>
       <c r="BY111" t="n" s="10">
-        <v>80.77</v>
+        <v>80.13</v>
       </c>
       <c r="BZ111" t="n" s="10">
-        <v>79.81</v>
+        <v>79.37</v>
       </c>
       <c r="CA111" t="n" s="10">
-        <v>81.48</v>
+        <v>81.39</v>
       </c>
       <c r="CB111" t="n" s="10">
-        <v>85.34</v>
+        <v>85.82</v>
       </c>
       <c r="CC111" t="n" s="10">
-        <v>89.98</v>
+        <v>90.02</v>
       </c>
       <c r="CD111" t="n" s="10">
         <v>91.26</v>
@@ -38758,121 +38758,121 @@
         <v>92.46</v>
       </c>
       <c r="CF111" t="n" s="10">
-        <v>94.76</v>
+        <v>94.82</v>
       </c>
       <c r="CG111" t="n" s="10">
-        <v>96.38</v>
+        <v>96.43</v>
       </c>
       <c r="CH111" t="n" s="10">
         <v>96.39</v>
       </c>
       <c r="CI111" t="n" s="10">
-        <v>97.41</v>
+        <v>97.51</v>
       </c>
       <c r="CJ111" t="n" s="10">
-        <v>94.5</v>
+        <v>94.48</v>
       </c>
       <c r="CK111" t="n" s="10">
-        <v>93.44</v>
+        <v>93.39</v>
       </c>
       <c r="CL111" t="n" s="10">
-        <v>93.58</v>
+        <v>93.54</v>
       </c>
       <c r="CM111" t="n" s="10">
-        <v>90.31</v>
+        <v>90.22</v>
       </c>
       <c r="CN111" t="n" s="10">
-        <v>92.6</v>
+        <v>92.61</v>
       </c>
       <c r="CO111" t="n" s="10">
         <v>91.41</v>
       </c>
       <c r="CP111" t="n" s="10">
-        <v>92.48</v>
+        <v>92.45</v>
       </c>
       <c r="CQ111" t="n" s="10">
-        <v>95.2</v>
+        <v>95.19</v>
       </c>
       <c r="CR111" t="n" s="10">
-        <v>94.71</v>
+        <v>94.66</v>
       </c>
       <c r="CS111" t="n" s="10">
-        <v>97.73</v>
+        <v>97.7</v>
       </c>
       <c r="CT111" t="n" s="10">
-        <v>97.69</v>
+        <v>97.63</v>
       </c>
       <c r="CU111" t="n" s="10">
         <v>97.79</v>
       </c>
       <c r="CV111" t="n" s="10">
-        <v>100.01</v>
+        <v>99.95</v>
       </c>
       <c r="CW111" t="n" s="10">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="CX111" t="n" s="10">
-        <v>101.95</v>
+        <v>102.02</v>
       </c>
       <c r="CY111" t="n" s="10">
-        <v>102.94</v>
+        <v>102.89</v>
       </c>
       <c r="CZ111" t="n" s="10">
-        <v>102.24</v>
+        <v>102.35</v>
       </c>
       <c r="DA111" t="n" s="10">
-        <v>102.71</v>
+        <v>102.73</v>
       </c>
       <c r="DB111" t="n" s="10">
-        <v>101.73</v>
+        <v>101.77</v>
       </c>
       <c r="DC111" t="n" s="10">
-        <v>102.98</v>
+        <v>103.07</v>
       </c>
       <c r="DD111" t="n" s="10">
-        <v>105.25</v>
+        <v>105.15</v>
       </c>
       <c r="DE111" t="n" s="10">
-        <v>106.4</v>
+        <v>106.35</v>
       </c>
       <c r="DF111" t="n" s="10">
-        <v>108.18</v>
+        <v>108.12</v>
       </c>
       <c r="DG111" t="n" s="10">
-        <v>109.79</v>
+        <v>109.78</v>
       </c>
       <c r="DH111" t="n" s="10">
-        <v>108.98</v>
+        <v>108.85</v>
       </c>
       <c r="DI111" t="n" s="10">
         <v>112.07</v>
       </c>
       <c r="DJ111" t="n" s="10">
-        <v>113.7</v>
+        <v>113.64</v>
       </c>
       <c r="DK111" t="n" s="10">
-        <v>110.01</v>
+        <v>109.87</v>
       </c>
       <c r="DL111" t="n" s="10">
-        <v>110.44</v>
+        <v>110.72</v>
       </c>
       <c r="DM111" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="DN111" t="n" s="10">
-        <v>104.84</v>
+        <v>104.51</v>
       </c>
       <c r="DO111" t="n" s="10">
-        <v>105.01</v>
+        <v>103.93</v>
       </c>
       <c r="DP111" t="n" s="10">
-        <v>93.61</v>
+        <v>94.97</v>
       </c>
       <c r="DQ111" t="n" s="10">
-        <v>99.86</v>
+        <v>99.66</v>
       </c>
       <c r="DR111" t="n" s="10">
-        <v>99.57</v>
+        <v>99.19</v>
       </c>
       <c r="DS111" t="s" s="10">
         <v>44</v>
@@ -38895,7 +38895,7 @@
         <v>43</v>
       </c>
       <c r="C112" t="n" s="10">
-        <v>74.6</v>
+        <v>74.58</v>
       </c>
       <c r="D112" t="n" s="10">
         <v>83.05</v>
@@ -38904,13 +38904,13 @@
         <v>80.56</v>
       </c>
       <c r="F112" t="n" s="10">
-        <v>77.16</v>
+        <v>77.14</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>79.05</v>
+        <v>79.06</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>73.96</v>
+        <v>73.95</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>66.98</v>
@@ -38919,22 +38919,22 @@
         <v>62.15</v>
       </c>
       <c r="K112" t="n" s="10">
-        <v>54.99</v>
+        <v>54.98</v>
       </c>
       <c r="L112" t="n" s="10">
         <v>49.18</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>51.69</v>
+        <v>51.7</v>
       </c>
       <c r="N112" t="n" s="10">
-        <v>51.28</v>
+        <v>51.3</v>
       </c>
       <c r="O112" t="n" s="10">
         <v>51.93</v>
       </c>
       <c r="P112" t="n" s="10">
-        <v>54.65</v>
+        <v>54.66</v>
       </c>
       <c r="Q112" t="n" s="10">
         <v>55.55</v>
@@ -38943,91 +38943,91 @@
         <v>56.96</v>
       </c>
       <c r="S112" t="n" s="10">
-        <v>56.95</v>
+        <v>56.96</v>
       </c>
       <c r="T112" t="n" s="10">
         <v>58.29</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>58.24</v>
+        <v>58.23</v>
       </c>
       <c r="V112" t="n" s="10">
         <v>58.8</v>
       </c>
       <c r="W112" t="n" s="10">
-        <v>61.57</v>
+        <v>61.58</v>
       </c>
       <c r="X112" t="n" s="10">
-        <v>59.68</v>
+        <v>59.67</v>
       </c>
       <c r="Y112" t="n" s="10">
         <v>60.53</v>
       </c>
       <c r="Z112" t="n" s="10">
-        <v>60.93</v>
+        <v>60.92</v>
       </c>
       <c r="AA112" t="n" s="10">
-        <v>63.22</v>
+        <v>63.2</v>
       </c>
       <c r="AB112" t="n" s="10">
-        <v>69.07</v>
+        <v>69.08</v>
       </c>
       <c r="AC112" t="n" s="10">
-        <v>68.69</v>
+        <v>68.68</v>
       </c>
       <c r="AD112" t="n" s="10">
-        <v>70.62</v>
+        <v>70.61</v>
       </c>
       <c r="AE112" t="n" s="10">
-        <v>70.08</v>
+        <v>70.09</v>
       </c>
       <c r="AF112" t="n" s="10">
-        <v>70.42</v>
+        <v>70.41</v>
       </c>
       <c r="AG112" t="n" s="10">
         <v>75.85</v>
       </c>
       <c r="AH112" t="n" s="10">
-        <v>80.55</v>
+        <v>80.56</v>
       </c>
       <c r="AI112" t="n" s="10">
-        <v>79.47</v>
+        <v>79.46</v>
       </c>
       <c r="AJ112" t="n" s="10">
-        <v>78.53</v>
+        <v>78.54</v>
       </c>
       <c r="AK112" t="n" s="10">
-        <v>77.56</v>
+        <v>77.57</v>
       </c>
       <c r="AL112" t="n" s="10">
-        <v>76.33</v>
+        <v>76.35</v>
       </c>
       <c r="AM112" t="n" s="10">
-        <v>83.94</v>
+        <v>83.96</v>
       </c>
       <c r="AN112" t="n" s="10">
         <v>89.84</v>
       </c>
       <c r="AO112" t="n" s="10">
-        <v>91.36</v>
+        <v>91.35</v>
       </c>
       <c r="AP112" t="n" s="10">
-        <v>90.88</v>
+        <v>90.86</v>
       </c>
       <c r="AQ112" t="n" s="10">
         <v>87.84</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>75.66</v>
+        <v>75.65</v>
       </c>
       <c r="AS112" t="n" s="10">
-        <v>73.64</v>
+        <v>73.63</v>
       </c>
       <c r="AT112" t="n" s="10">
-        <v>71.41</v>
+        <v>71.4</v>
       </c>
       <c r="AU112" t="n" s="10">
-        <v>66.18</v>
+        <v>66.17</v>
       </c>
       <c r="AV112" t="n" s="10">
         <v>75.04</v>
@@ -39036,49 +39036,49 @@
         <v>70.52</v>
       </c>
       <c r="AX112" t="n" s="10">
-        <v>72.12</v>
+        <v>72.11</v>
       </c>
       <c r="AY112" t="n" s="10">
-        <v>78.67</v>
+        <v>78.66</v>
       </c>
       <c r="AZ112" t="n" s="10">
-        <v>70.67</v>
+        <v>70.66</v>
       </c>
       <c r="BA112" t="n" s="10">
         <v>77.23</v>
       </c>
       <c r="BB112" t="n" s="10">
-        <v>73.73</v>
+        <v>73.72</v>
       </c>
       <c r="BC112" t="n" s="10">
-        <v>72.02</v>
+        <v>72.03</v>
       </c>
       <c r="BD112" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="BE112" t="n" s="10">
-        <v>84.9</v>
+        <v>84.91</v>
       </c>
       <c r="BF112" t="n" s="10">
-        <v>87.5</v>
+        <v>87.53</v>
       </c>
       <c r="BG112" t="n" s="10">
-        <v>90.96</v>
+        <v>90.94</v>
       </c>
       <c r="BH112" t="n" s="10">
-        <v>81.7</v>
+        <v>81.73</v>
       </c>
       <c r="BI112" t="n" s="10">
-        <v>86.04</v>
+        <v>86.05</v>
       </c>
       <c r="BJ112" t="n" s="10">
         <v>95.71</v>
       </c>
       <c r="BK112" t="n" s="10">
-        <v>92.69</v>
+        <v>92.71</v>
       </c>
       <c r="BL112" t="n" s="10">
-        <v>103.59</v>
+        <v>103.58</v>
       </c>
       <c r="BM112" t="n" s="10">
         <v>104.02</v>
@@ -39090,79 +39090,79 @@
         <v>106.68</v>
       </c>
       <c r="BP112" t="n" s="10">
-        <v>100.52</v>
+        <v>100.5</v>
       </c>
       <c r="BQ112" t="n" s="10">
         <v>95.37</v>
       </c>
       <c r="BR112" t="n" s="10">
-        <v>97.49</v>
+        <v>97.48</v>
       </c>
       <c r="BS112" t="n" s="10">
-        <v>98.77</v>
+        <v>98.75</v>
       </c>
       <c r="BT112" t="n" s="10">
-        <v>97.45</v>
+        <v>97.48</v>
       </c>
       <c r="BU112" t="n" s="10">
         <v>96.74</v>
       </c>
       <c r="BV112" t="n" s="10">
-        <v>87.39</v>
+        <v>87.38</v>
       </c>
       <c r="BW112" t="n" s="10">
-        <v>69.79</v>
+        <v>69.8</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>69.62</v>
+        <v>69.61</v>
       </c>
       <c r="BY112" t="n" s="10">
         <v>74.95</v>
       </c>
       <c r="BZ112" t="n" s="10">
-        <v>74.18</v>
+        <v>74.19</v>
       </c>
       <c r="CA112" t="n" s="10">
         <v>89.04</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>93.1</v>
+        <v>93.11</v>
       </c>
       <c r="CC112" t="n" s="10">
-        <v>89.33</v>
+        <v>89.34</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>98.18</v>
+        <v>98.2</v>
       </c>
       <c r="CE112" t="n" s="10">
-        <v>96.34</v>
+        <v>96.35</v>
       </c>
       <c r="CF112" t="n" s="10">
-        <v>92.53</v>
+        <v>92.54</v>
       </c>
       <c r="CG112" t="n" s="10">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="CH112" t="n" s="10">
         <v>95.18</v>
       </c>
       <c r="CI112" t="n" s="10">
-        <v>93.72</v>
+        <v>93.73</v>
       </c>
       <c r="CJ112" t="n" s="10">
         <v>94.31</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>91.0</v>
+        <v>90.98</v>
       </c>
       <c r="CL112" t="n" s="10">
-        <v>86.97</v>
+        <v>86.96</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>88.0</v>
+        <v>87.98</v>
       </c>
       <c r="CN112" t="n" s="10">
-        <v>88.84</v>
+        <v>88.85</v>
       </c>
       <c r="CO112" t="n" s="10">
         <v>91.72</v>
@@ -39174,85 +39174,85 @@
         <v>97.53</v>
       </c>
       <c r="CR112" t="n" s="10">
-        <v>99.24</v>
+        <v>99.23</v>
       </c>
       <c r="CS112" t="n" s="10">
         <v>94.22</v>
       </c>
       <c r="CT112" t="n" s="10">
-        <v>90.9</v>
+        <v>90.89</v>
       </c>
       <c r="CU112" t="n" s="10">
         <v>96.01</v>
       </c>
       <c r="CV112" t="n" s="10">
-        <v>94.89</v>
+        <v>94.88</v>
       </c>
       <c r="CW112" t="n" s="10">
         <v>101.87</v>
       </c>
       <c r="CX112" t="n" s="10">
-        <v>106.47</v>
+        <v>106.49</v>
       </c>
       <c r="CY112" t="n" s="10">
-        <v>102.01</v>
+        <v>102.0</v>
       </c>
       <c r="CZ112" t="n" s="10">
-        <v>103.59</v>
+        <v>103.62</v>
       </c>
       <c r="DA112" t="n" s="10">
-        <v>104.25</v>
+        <v>104.26</v>
       </c>
       <c r="DB112" t="n" s="10">
         <v>105.68</v>
       </c>
       <c r="DC112" t="n" s="10">
-        <v>109.81</v>
+        <v>109.83</v>
       </c>
       <c r="DD112" t="n" s="10">
-        <v>111.49</v>
+        <v>111.48</v>
       </c>
       <c r="DE112" t="n" s="10">
         <v>114.28</v>
       </c>
       <c r="DF112" t="n" s="10">
-        <v>115.26</v>
+        <v>115.27</v>
       </c>
       <c r="DG112" t="n" s="10">
-        <v>114.84</v>
+        <v>114.83</v>
       </c>
       <c r="DH112" t="n" s="10">
-        <v>120.22</v>
+        <v>119.98</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>112.32</v>
+        <v>112.33</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>112.29</v>
+        <v>112.81</v>
       </c>
       <c r="DK112" t="n" s="10">
-        <v>127.33</v>
+        <v>128.29</v>
       </c>
       <c r="DL112" t="n" s="10">
-        <v>127.98</v>
+        <v>124.56</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>128.83</v>
+        <v>130.09</v>
       </c>
       <c r="DN112" t="n" s="10">
-        <v>120.81</v>
+        <v>123.02</v>
       </c>
       <c r="DO112" t="n" s="10">
-        <v>104.45</v>
+        <v>107.77</v>
       </c>
       <c r="DP112" t="n" s="10">
-        <v>79.08</v>
+        <v>70.53</v>
       </c>
       <c r="DQ112" t="n" s="10">
-        <v>109.24</v>
+        <v>113.38</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>114.58</v>
+        <v>117.78</v>
       </c>
       <c r="DS112" t="s" s="10">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>43</v>
       </c>
       <c r="C113" t="n" s="10">
-        <v>97.22</v>
+        <v>97.24</v>
       </c>
       <c r="D113" t="n" s="10">
         <v>99.04</v>
@@ -39284,31 +39284,31 @@
         <v>101.95</v>
       </c>
       <c r="F113" t="n" s="10">
-        <v>104.2</v>
+        <v>104.21</v>
       </c>
       <c r="G113" t="n" s="10">
-        <v>108.68</v>
+        <v>108.67</v>
       </c>
       <c r="H113" t="n" s="10">
-        <v>109.68</v>
+        <v>109.69</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>109.8</v>
       </c>
       <c r="J113" t="n" s="10">
-        <v>112.72</v>
+        <v>112.71</v>
       </c>
       <c r="K113" t="n" s="10">
         <v>110.42</v>
       </c>
       <c r="L113" t="n" s="10">
-        <v>111.71</v>
+        <v>111.7</v>
       </c>
       <c r="M113" t="n" s="10">
         <v>113.84</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>112.01</v>
+        <v>112.0</v>
       </c>
       <c r="O113" t="n" s="10">
         <v>118.63</v>
@@ -39323,40 +39323,40 @@
         <v>121.9</v>
       </c>
       <c r="S113" t="n" s="10">
-        <v>121.78</v>
+        <v>121.77</v>
       </c>
       <c r="T113" t="n" s="10">
-        <v>118.52</v>
+        <v>118.53</v>
       </c>
       <c r="U113" t="n" s="10">
-        <v>117.04</v>
+        <v>117.05</v>
       </c>
       <c r="V113" t="n" s="10">
         <v>114.97</v>
       </c>
       <c r="W113" t="n" s="10">
-        <v>112.13</v>
+        <v>112.12</v>
       </c>
       <c r="X113" t="n" s="10">
-        <v>116.27</v>
+        <v>116.28</v>
       </c>
       <c r="Y113" t="n" s="10">
         <v>116.69</v>
       </c>
       <c r="Z113" t="n" s="10">
-        <v>116.14</v>
+        <v>116.15</v>
       </c>
       <c r="AA113" t="n" s="10">
-        <v>114.39</v>
+        <v>114.4</v>
       </c>
       <c r="AB113" t="n" s="10">
-        <v>114.11</v>
+        <v>114.1</v>
       </c>
       <c r="AC113" t="n" s="10">
         <v>113.58</v>
       </c>
       <c r="AD113" t="n" s="10">
-        <v>114.61</v>
+        <v>114.62</v>
       </c>
       <c r="AE113" t="n" s="10">
         <v>115.81</v>
@@ -39374,40 +39374,40 @@
         <v>111.27</v>
       </c>
       <c r="AJ113" t="n" s="10">
-        <v>113.3</v>
+        <v>113.29</v>
       </c>
       <c r="AK113" t="n" s="10">
-        <v>114.2</v>
+        <v>114.19</v>
       </c>
       <c r="AL113" t="n" s="10">
-        <v>113.36</v>
+        <v>113.35</v>
       </c>
       <c r="AM113" t="n" s="10">
-        <v>112.67</v>
+        <v>112.66</v>
       </c>
       <c r="AN113" t="n" s="10">
         <v>110.89</v>
       </c>
       <c r="AO113" t="n" s="10">
-        <v>109.12</v>
+        <v>109.13</v>
       </c>
       <c r="AP113" t="n" s="10">
-        <v>108.3</v>
+        <v>108.31</v>
       </c>
       <c r="AQ113" t="n" s="10">
         <v>107.01</v>
       </c>
       <c r="AR113" t="n" s="10">
-        <v>106.67</v>
+        <v>106.68</v>
       </c>
       <c r="AS113" t="n" s="10">
         <v>105.36</v>
       </c>
       <c r="AT113" t="n" s="10">
-        <v>104.48</v>
+        <v>104.49</v>
       </c>
       <c r="AU113" t="n" s="10">
-        <v>102.68</v>
+        <v>102.69</v>
       </c>
       <c r="AV113" t="n" s="10">
         <v>99.77</v>
@@ -39422,16 +39422,16 @@
         <v>96.62</v>
       </c>
       <c r="AZ113" t="n" s="10">
-        <v>97.58</v>
+        <v>97.59</v>
       </c>
       <c r="BA113" t="n" s="10">
         <v>97.23</v>
       </c>
       <c r="BB113" t="n" s="10">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="BC113" t="n" s="10">
-        <v>95.49</v>
+        <v>95.48</v>
       </c>
       <c r="BD113" t="n" s="10">
         <v>92.77</v>
@@ -39440,67 +39440,67 @@
         <v>90.87</v>
       </c>
       <c r="BF113" t="n" s="10">
-        <v>89.16</v>
+        <v>89.14</v>
       </c>
       <c r="BG113" t="n" s="10">
-        <v>88.06</v>
+        <v>88.07</v>
       </c>
       <c r="BH113" t="n" s="10">
-        <v>88.97</v>
+        <v>88.96</v>
       </c>
       <c r="BI113" t="n" s="10">
-        <v>89.57</v>
+        <v>89.56</v>
       </c>
       <c r="BJ113" t="n" s="10">
         <v>90.2</v>
       </c>
       <c r="BK113" t="n" s="10">
-        <v>86.88</v>
+        <v>86.86</v>
       </c>
       <c r="BL113" t="n" s="10">
-        <v>94.89</v>
+        <v>94.9</v>
       </c>
       <c r="BM113" t="n" s="10">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
       <c r="BN113" t="n" s="10">
         <v>98.13</v>
       </c>
       <c r="BO113" t="n" s="10">
-        <v>96.02</v>
+        <v>96.01</v>
       </c>
       <c r="BP113" t="n" s="10">
-        <v>94.07</v>
+        <v>94.08</v>
       </c>
       <c r="BQ113" t="n" s="10">
-        <v>93.56</v>
+        <v>93.57</v>
       </c>
       <c r="BR113" t="n" s="10">
         <v>93.25</v>
       </c>
       <c r="BS113" t="n" s="10">
-        <v>95.74</v>
+        <v>95.75</v>
       </c>
       <c r="BT113" t="n" s="10">
-        <v>93.18</v>
+        <v>93.17</v>
       </c>
       <c r="BU113" t="n" s="10">
         <v>91.73</v>
       </c>
       <c r="BV113" t="n" s="10">
-        <v>91.13</v>
+        <v>91.14</v>
       </c>
       <c r="BW113" t="n" s="10">
         <v>89.31</v>
       </c>
       <c r="BX113" t="n" s="10">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="BY113" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="BZ113" t="n" s="10">
-        <v>91.06</v>
+        <v>91.05</v>
       </c>
       <c r="CA113" t="n" s="10">
         <v>89.02</v>
@@ -39509,25 +39509,25 @@
         <v>93.2</v>
       </c>
       <c r="CC113" t="n" s="10">
-        <v>93.89</v>
+        <v>93.88</v>
       </c>
       <c r="CD113" t="n" s="10">
-        <v>92.52</v>
+        <v>92.5</v>
       </c>
       <c r="CE113" t="n" s="10">
         <v>98.97</v>
       </c>
       <c r="CF113" t="n" s="10">
-        <v>98.57</v>
+        <v>98.56</v>
       </c>
       <c r="CG113" t="n" s="10">
-        <v>99.1</v>
+        <v>99.09</v>
       </c>
       <c r="CH113" t="n" s="10">
         <v>101.72</v>
       </c>
       <c r="CI113" t="n" s="10">
-        <v>100.78</v>
+        <v>100.77</v>
       </c>
       <c r="CJ113" t="n" s="10">
         <v>100.55</v>
@@ -39539,7 +39539,7 @@
         <v>100.32</v>
       </c>
       <c r="CM113" t="n" s="10">
-        <v>97.45</v>
+        <v>97.46</v>
       </c>
       <c r="CN113" t="n" s="10">
         <v>100.25</v>
@@ -39554,31 +39554,31 @@
         <v>104.03</v>
       </c>
       <c r="CR113" t="n" s="10">
-        <v>101.41</v>
+        <v>101.42</v>
       </c>
       <c r="CS113" t="n" s="10">
         <v>101.21</v>
       </c>
       <c r="CT113" t="n" s="10">
-        <v>101.44</v>
+        <v>101.45</v>
       </c>
       <c r="CU113" t="n" s="10">
         <v>99.08</v>
       </c>
       <c r="CV113" t="n" s="10">
-        <v>99.74</v>
+        <v>99.75</v>
       </c>
       <c r="CW113" t="n" s="10">
         <v>100.02</v>
       </c>
       <c r="CX113" t="n" s="10">
-        <v>101.06</v>
+        <v>101.05</v>
       </c>
       <c r="CY113" t="n" s="10">
-        <v>103.52</v>
+        <v>103.53</v>
       </c>
       <c r="CZ113" t="n" s="10">
-        <v>102.98</v>
+        <v>102.96</v>
       </c>
       <c r="DA113" t="n" s="10">
         <v>103.53</v>
@@ -39587,16 +39587,16 @@
         <v>103.87</v>
       </c>
       <c r="DC113" t="n" s="10">
-        <v>103.79</v>
+        <v>103.77</v>
       </c>
       <c r="DD113" t="n" s="10">
-        <v>105.47</v>
+        <v>105.48</v>
       </c>
       <c r="DE113" t="n" s="10">
-        <v>105.68</v>
+        <v>105.69</v>
       </c>
       <c r="DF113" t="n" s="10">
-        <v>106.15</v>
+        <v>106.17</v>
       </c>
       <c r="DG113" t="n" s="10">
         <v>106.49</v>
@@ -39614,34 +39614,34 @@
         <v>108.84</v>
       </c>
       <c r="DL113" t="n" s="10">
-        <v>109.12</v>
+        <v>109.1</v>
       </c>
       <c r="DM113" t="n" s="10">
-        <v>109.97</v>
+        <v>109.99</v>
       </c>
       <c r="DN113" t="n" s="10">
-        <v>109.2</v>
+        <v>109.29</v>
       </c>
       <c r="DO113" t="n" s="10">
-        <v>111.88</v>
+        <v>111.89</v>
       </c>
       <c r="DP113" t="n" s="10">
-        <v>110.25</v>
+        <v>109.96</v>
       </c>
       <c r="DQ113" t="n" s="10">
-        <v>109.85</v>
+        <v>110.2</v>
       </c>
       <c r="DR113" t="n" s="10">
-        <v>112.21</v>
+        <v>112.34</v>
       </c>
       <c r="DS113" t="n" s="10">
-        <v>110.65</v>
+        <v>110.99</v>
       </c>
       <c r="DT113" t="n" s="10">
-        <v>112.39</v>
-      </c>
-      <c r="DU113" t="s" s="10">
-        <v>44</v>
+        <v>113.94</v>
+      </c>
+      <c r="DU113" t="n" s="10">
+        <v>113.04</v>
       </c>
       <c r="DV113" t="s" s="10">
         <v>44</v>
@@ -39724,7 +39724,7 @@
         <v>109.19</v>
       </c>
       <c r="Z114" t="n" s="10">
-        <v>109.3</v>
+        <v>109.31</v>
       </c>
       <c r="AA114" t="n" s="10">
         <v>108.09</v>
@@ -39763,7 +39763,7 @@
         <v>109.17</v>
       </c>
       <c r="AM114" t="n" s="10">
-        <v>108.63</v>
+        <v>108.62</v>
       </c>
       <c r="AN114" t="n" s="10">
         <v>107.13</v>
@@ -39934,7 +39934,7 @@
         <v>103.12</v>
       </c>
       <c r="CR114" t="n" s="10">
-        <v>100.62</v>
+        <v>100.63</v>
       </c>
       <c r="CS114" t="n" s="10">
         <v>100.4</v>
@@ -39958,7 +39958,7 @@
         <v>103.91</v>
       </c>
       <c r="CZ114" t="n" s="10">
-        <v>104.11</v>
+        <v>104.1</v>
       </c>
       <c r="DA114" t="n" s="10">
         <v>104.76</v>
@@ -39991,37 +39991,37 @@
         <v>111.14</v>
       </c>
       <c r="DK114" t="n" s="10">
-        <v>110.59</v>
+        <v>110.58</v>
       </c>
       <c r="DL114" t="n" s="10">
-        <v>110.92</v>
+        <v>110.89</v>
       </c>
       <c r="DM114" t="n" s="10">
-        <v>112.08</v>
+        <v>112.09</v>
       </c>
       <c r="DN114" t="n" s="10">
-        <v>111.35</v>
+        <v>111.42</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>114.52</v>
+        <v>114.55</v>
       </c>
       <c r="DP114" t="n" s="10">
-        <v>113.09</v>
+        <v>112.87</v>
       </c>
       <c r="DQ114" t="n" s="10">
-        <v>112.86</v>
+        <v>113.16</v>
       </c>
       <c r="DR114" t="n" s="10">
-        <v>115.86</v>
+        <v>115.97</v>
       </c>
       <c r="DS114" t="n" s="10">
-        <v>113.79</v>
+        <v>114.26</v>
       </c>
       <c r="DT114" t="n" s="10">
-        <v>116.29</v>
-      </c>
-      <c r="DU114" t="s" s="10">
-        <v>44</v>
+        <v>117.87</v>
+      </c>
+      <c r="DU114" t="n" s="10">
+        <v>117.79</v>
       </c>
       <c r="DV114" t="s" s="10">
         <v>44</v>
@@ -40035,7 +40035,7 @@
         <v>43</v>
       </c>
       <c r="C115" t="n" s="10">
-        <v>120.06</v>
+        <v>120.11</v>
       </c>
       <c r="D115" t="n" s="10">
         <v>123.74</v>
@@ -40044,31 +40044,31 @@
         <v>128.19</v>
       </c>
       <c r="F115" t="n" s="10">
-        <v>131.51</v>
+        <v>131.53</v>
       </c>
       <c r="G115" t="n" s="10">
-        <v>137.41</v>
+        <v>137.39</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>137.71</v>
+        <v>137.74</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>137.91</v>
       </c>
       <c r="J115" t="n" s="10">
-        <v>140.69</v>
+        <v>140.67</v>
       </c>
       <c r="K115" t="n" s="10">
         <v>136.55</v>
       </c>
       <c r="L115" t="n" s="10">
-        <v>138.4</v>
+        <v>138.38</v>
       </c>
       <c r="M115" t="n" s="10">
         <v>138.69</v>
       </c>
       <c r="N115" t="n" s="10">
-        <v>134.18</v>
+        <v>134.16</v>
       </c>
       <c r="O115" t="n" s="10">
         <v>141.29</v>
@@ -40083,40 +40083,40 @@
         <v>140.2</v>
       </c>
       <c r="S115" t="n" s="10">
-        <v>140.68</v>
+        <v>140.66</v>
       </c>
       <c r="T115" t="n" s="10">
-        <v>134.25</v>
+        <v>134.28</v>
       </c>
       <c r="U115" t="n" s="10">
-        <v>133.32</v>
+        <v>133.35</v>
       </c>
       <c r="V115" t="n" s="10">
-        <v>129.95</v>
+        <v>129.96</v>
       </c>
       <c r="W115" t="n" s="10">
-        <v>124.99</v>
+        <v>124.97</v>
       </c>
       <c r="X115" t="n" s="10">
-        <v>129.0</v>
+        <v>129.03</v>
       </c>
       <c r="Y115" t="n" s="10">
-        <v>128.05</v>
+        <v>128.06</v>
       </c>
       <c r="Z115" t="n" s="10">
-        <v>126.49</v>
+        <v>126.5</v>
       </c>
       <c r="AA115" t="n" s="10">
-        <v>123.89</v>
+        <v>123.92</v>
       </c>
       <c r="AB115" t="n" s="10">
-        <v>122.86</v>
+        <v>122.83</v>
       </c>
       <c r="AC115" t="n" s="10">
-        <v>121.92</v>
+        <v>121.93</v>
       </c>
       <c r="AD115" t="n" s="10">
-        <v>123.26</v>
+        <v>123.29</v>
       </c>
       <c r="AE115" t="n" s="10">
         <v>123.72</v>
@@ -40134,64 +40134,64 @@
         <v>117.16</v>
       </c>
       <c r="AJ115" t="n" s="10">
-        <v>119.52</v>
+        <v>119.5</v>
       </c>
       <c r="AK115" t="n" s="10">
-        <v>120.36</v>
+        <v>120.34</v>
       </c>
       <c r="AL115" t="n" s="10">
-        <v>119.6</v>
+        <v>119.57</v>
       </c>
       <c r="AM115" t="n" s="10">
-        <v>118.68</v>
+        <v>118.67</v>
       </c>
       <c r="AN115" t="n" s="10">
         <v>116.47</v>
       </c>
       <c r="AO115" t="n" s="10">
-        <v>115.18</v>
+        <v>115.21</v>
       </c>
       <c r="AP115" t="n" s="10">
-        <v>115.61</v>
+        <v>115.63</v>
       </c>
       <c r="AQ115" t="n" s="10">
-        <v>115.41</v>
+        <v>115.42</v>
       </c>
       <c r="AR115" t="n" s="10">
-        <v>115.55</v>
+        <v>115.58</v>
       </c>
       <c r="AS115" t="n" s="10">
-        <v>114.1</v>
+        <v>114.11</v>
       </c>
       <c r="AT115" t="n" s="10">
-        <v>113.23</v>
+        <v>113.25</v>
       </c>
       <c r="AU115" t="n" s="10">
-        <v>111.0</v>
+        <v>111.03</v>
       </c>
       <c r="AV115" t="n" s="10">
         <v>108.05</v>
       </c>
       <c r="AW115" t="n" s="10">
-        <v>107.05</v>
+        <v>107.06</v>
       </c>
       <c r="AX115" t="n" s="10">
         <v>104.24</v>
       </c>
       <c r="AY115" t="n" s="10">
-        <v>104.04</v>
+        <v>104.05</v>
       </c>
       <c r="AZ115" t="n" s="10">
-        <v>105.05</v>
+        <v>105.08</v>
       </c>
       <c r="BA115" t="n" s="10">
         <v>104.01</v>
       </c>
       <c r="BB115" t="n" s="10">
-        <v>103.73</v>
+        <v>103.76</v>
       </c>
       <c r="BC115" t="n" s="10">
-        <v>101.72</v>
+        <v>101.69</v>
       </c>
       <c r="BD115" t="n" s="10">
         <v>98.33</v>
@@ -40200,67 +40200,67 @@
         <v>96.97</v>
       </c>
       <c r="BF115" t="n" s="10">
-        <v>95.44</v>
+        <v>95.4</v>
       </c>
       <c r="BG115" t="n" s="10">
-        <v>94.15</v>
+        <v>94.17</v>
       </c>
       <c r="BH115" t="n" s="10">
-        <v>96.11</v>
+        <v>96.09</v>
       </c>
       <c r="BI115" t="n" s="10">
-        <v>96.31</v>
+        <v>96.29</v>
       </c>
       <c r="BJ115" t="n" s="10">
         <v>97.26</v>
       </c>
       <c r="BK115" t="n" s="10">
-        <v>90.9</v>
+        <v>90.85</v>
       </c>
       <c r="BL115" t="n" s="10">
-        <v>100.57</v>
+        <v>100.6</v>
       </c>
       <c r="BM115" t="n" s="10">
-        <v>102.9</v>
+        <v>102.93</v>
       </c>
       <c r="BN115" t="n" s="10">
         <v>103.96</v>
       </c>
       <c r="BO115" t="n" s="10">
-        <v>103.04</v>
+        <v>103.02</v>
       </c>
       <c r="BP115" t="n" s="10">
-        <v>101.05</v>
+        <v>101.08</v>
       </c>
       <c r="BQ115" t="n" s="10">
-        <v>100.6</v>
+        <v>100.63</v>
       </c>
       <c r="BR115" t="n" s="10">
         <v>101.8</v>
       </c>
       <c r="BS115" t="n" s="10">
-        <v>105.98</v>
+        <v>106.01</v>
       </c>
       <c r="BT115" t="n" s="10">
-        <v>104.16</v>
+        <v>104.14</v>
       </c>
       <c r="BU115" t="n" s="10">
         <v>102.71</v>
       </c>
       <c r="BV115" t="n" s="10">
-        <v>101.21</v>
+        <v>101.24</v>
       </c>
       <c r="BW115" t="n" s="10">
         <v>99.05</v>
       </c>
       <c r="BX115" t="n" s="10">
-        <v>98.78</v>
+        <v>98.81</v>
       </c>
       <c r="BY115" t="n" s="10">
         <v>99.31</v>
       </c>
       <c r="BZ115" t="n" s="10">
-        <v>100.87</v>
+        <v>100.85</v>
       </c>
       <c r="CA115" t="n" s="10">
         <v>97.22</v>
@@ -40269,28 +40269,28 @@
         <v>102.44</v>
       </c>
       <c r="CC115" t="n" s="10">
-        <v>103.14</v>
+        <v>103.12</v>
       </c>
       <c r="CD115" t="n" s="10">
-        <v>100.67</v>
+        <v>100.62</v>
       </c>
       <c r="CE115" t="n" s="10">
         <v>107.75</v>
       </c>
       <c r="CF115" t="n" s="10">
-        <v>105.76</v>
+        <v>105.74</v>
       </c>
       <c r="CG115" t="n" s="10">
-        <v>105.39</v>
+        <v>105.36</v>
       </c>
       <c r="CH115" t="n" s="10">
         <v>107.55</v>
       </c>
       <c r="CI115" t="n" s="10">
-        <v>104.86</v>
+        <v>104.83</v>
       </c>
       <c r="CJ115" t="n" s="10">
-        <v>103.64</v>
+        <v>103.63</v>
       </c>
       <c r="CK115" t="n" s="10">
         <v>103.78</v>
@@ -40299,7 +40299,7 @@
         <v>102.7</v>
       </c>
       <c r="CM115" t="n" s="10">
-        <v>99.87</v>
+        <v>99.9</v>
       </c>
       <c r="CN115" t="n" s="10">
         <v>103.26</v>
@@ -40314,31 +40314,31 @@
         <v>105.41</v>
       </c>
       <c r="CR115" t="n" s="10">
-        <v>102.61</v>
+        <v>102.62</v>
       </c>
       <c r="CS115" t="n" s="10">
         <v>102.44</v>
       </c>
       <c r="CT115" t="n" s="10">
-        <v>102.49</v>
+        <v>102.51</v>
       </c>
       <c r="CU115" t="n" s="10">
         <v>99.63</v>
       </c>
       <c r="CV115" t="n" s="10">
-        <v>99.82</v>
+        <v>99.84</v>
       </c>
       <c r="CW115" t="n" s="10">
         <v>99.85</v>
       </c>
       <c r="CX115" t="n" s="10">
-        <v>101.09</v>
+        <v>101.06</v>
       </c>
       <c r="CY115" t="n" s="10">
-        <v>102.93</v>
+        <v>102.95</v>
       </c>
       <c r="CZ115" t="n" s="10">
-        <v>101.27</v>
+        <v>101.23</v>
       </c>
       <c r="DA115" t="n" s="10">
         <v>101.66</v>
@@ -40347,16 +40347,16 @@
         <v>101.41</v>
       </c>
       <c r="DC115" t="n" s="10">
-        <v>102.38</v>
+        <v>102.33</v>
       </c>
       <c r="DD115" t="n" s="10">
-        <v>103.97</v>
+        <v>104.0</v>
       </c>
       <c r="DE115" t="n" s="10">
-        <v>103.94</v>
+        <v>103.96</v>
       </c>
       <c r="DF115" t="n" s="10">
-        <v>104.41</v>
+        <v>104.46</v>
       </c>
       <c r="DG115" t="n" s="10">
         <v>104.16</v>
@@ -40371,37 +40371,37 @@
         <v>107.27</v>
       </c>
       <c r="DK115" t="n" s="10">
-        <v>106.19</v>
+        <v>106.21</v>
       </c>
       <c r="DL115" t="n" s="10">
-        <v>106.4</v>
+        <v>106.39</v>
       </c>
       <c r="DM115" t="n" s="10">
-        <v>106.78</v>
+        <v>106.82</v>
       </c>
       <c r="DN115" t="n" s="10">
-        <v>105.95</v>
+        <v>106.07</v>
       </c>
       <c r="DO115" t="n" s="10">
-        <v>107.89</v>
+        <v>107.87</v>
       </c>
       <c r="DP115" t="n" s="10">
-        <v>105.96</v>
+        <v>105.57</v>
       </c>
       <c r="DQ115" t="n" s="10">
-        <v>105.31</v>
+        <v>105.73</v>
       </c>
       <c r="DR115" t="n" s="10">
-        <v>106.7</v>
+        <v>106.86</v>
       </c>
       <c r="DS115" t="n" s="10">
-        <v>105.91</v>
+        <v>106.05</v>
       </c>
       <c r="DT115" t="n" s="10">
-        <v>106.51</v>
-      </c>
-      <c r="DU115" t="s" s="10">
-        <v>44</v>
+        <v>108.01</v>
+      </c>
+      <c r="DU115" t="n" s="10">
+        <v>105.88</v>
       </c>
       <c r="DV115" t="s" s="10">
         <v>44</v>
@@ -40781,7 +40781,7 @@
         <v>57</v>
       </c>
       <c r="DU116" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV116" t="s" s="10">
         <v>44</v>
@@ -41161,7 +41161,7 @@
         <v>57</v>
       </c>
       <c r="DU117" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV117" t="s" s="10">
         <v>44</v>
@@ -41472,76 +41472,76 @@
         <v>100.64</v>
       </c>
       <c r="CX118" t="n" s="10">
-        <v>102.01</v>
+        <v>102.04</v>
       </c>
       <c r="CY118" t="n" s="10">
         <v>103.62</v>
       </c>
       <c r="CZ118" t="n" s="10">
-        <v>104.88</v>
+        <v>104.81</v>
       </c>
       <c r="DA118" t="n" s="10">
-        <v>105.92</v>
+        <v>105.78</v>
       </c>
       <c r="DB118" t="n" s="10">
-        <v>105.86</v>
+        <v>106.28</v>
       </c>
       <c r="DC118" t="n" s="10">
-        <v>107.52</v>
+        <v>107.38</v>
       </c>
       <c r="DD118" t="n" s="10">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="DE118" t="n" s="10">
-        <v>109.75</v>
+        <v>109.47</v>
       </c>
       <c r="DF118" t="n" s="10">
-        <v>111.58</v>
+        <v>112.35</v>
       </c>
       <c r="DG118" t="n" s="10">
-        <v>111.39</v>
+        <v>111.11</v>
       </c>
       <c r="DH118" t="n" s="10">
-        <v>113.11</v>
+        <v>112.9</v>
       </c>
       <c r="DI118" t="n" s="10">
-        <v>114.33</v>
+        <v>114.19</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>115.36</v>
+        <v>115.83</v>
       </c>
       <c r="DK118" t="n" s="10">
-        <v>117.39</v>
+        <v>117.24</v>
       </c>
       <c r="DL118" t="n" s="10">
-        <v>119.92</v>
+        <v>119.73</v>
       </c>
       <c r="DM118" t="n" s="10">
-        <v>120.55</v>
+        <v>120.42</v>
       </c>
       <c r="DN118" t="n" s="10">
-        <v>120.89</v>
+        <v>121.56</v>
       </c>
       <c r="DO118" t="n" s="10">
-        <v>121.76</v>
+        <v>121.59</v>
       </c>
       <c r="DP118" t="n" s="10">
-        <v>119.33</v>
+        <v>119.08</v>
       </c>
       <c r="DQ118" t="n" s="10">
-        <v>120.79</v>
+        <v>120.5</v>
       </c>
       <c r="DR118" t="n" s="10">
-        <v>121.85</v>
+        <v>122.97</v>
       </c>
       <c r="DS118" t="n" s="10">
-        <v>119.54</v>
+        <v>119.32</v>
       </c>
       <c r="DT118" t="n" s="10">
-        <v>122.43</v>
-      </c>
-      <c r="DU118" t="s" s="10">
-        <v>44</v>
+        <v>122.03</v>
+      </c>
+      <c r="DU118" t="n" s="10">
+        <v>121.46</v>
       </c>
       <c r="DV118" t="s" s="10">
         <v>44</v>
@@ -41926,7 +41926,7 @@
         <v>57</v>
       </c>
       <c r="DU120" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV120" t="s" s="10">
         <v>44</v>
@@ -42306,7 +42306,7 @@
         <v>57</v>
       </c>
       <c r="DU121" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV121" t="s" s="10">
         <v>44</v>
@@ -42686,7 +42686,7 @@
         <v>57</v>
       </c>
       <c r="DU122" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV122" t="s" s="10">
         <v>44</v>
@@ -43066,7 +43066,7 @@
         <v>57</v>
       </c>
       <c r="DU123" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV123" t="s" s="10">
         <v>44</v>
@@ -43446,7 +43446,7 @@
         <v>57</v>
       </c>
       <c r="DU124" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV124" t="s" s="10">
         <v>44</v>
@@ -43826,7 +43826,7 @@
         <v>57</v>
       </c>
       <c r="DU125" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV125" t="s" s="10">
         <v>44</v>
@@ -44206,7 +44206,7 @@
         <v>57</v>
       </c>
       <c r="DU126" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV126" t="s" s="10">
         <v>44</v>
@@ -44586,7 +44586,7 @@
         <v>57</v>
       </c>
       <c r="DU127" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV127" t="s" s="10">
         <v>44</v>
@@ -44966,7 +44966,7 @@
         <v>57</v>
       </c>
       <c r="DU128" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV128" t="s" s="10">
         <v>44</v>
@@ -45346,7 +45346,7 @@
         <v>57</v>
       </c>
       <c r="DU129" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV129" t="s" s="10">
         <v>44</v>
@@ -45731,7 +45731,7 @@
         <v>57</v>
       </c>
       <c r="DU131" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV131" t="s" s="10">
         <v>44</v>
@@ -46111,7 +46111,7 @@
         <v>57</v>
       </c>
       <c r="DU132" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV132" t="s" s="10">
         <v>44</v>
@@ -46491,7 +46491,7 @@
         <v>57</v>
       </c>
       <c r="DU133" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV133" t="s" s="10">
         <v>44</v>
@@ -46871,7 +46871,7 @@
         <v>57</v>
       </c>
       <c r="DU134" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV134" t="s" s="10">
         <v>44</v>
@@ -47251,7 +47251,7 @@
         <v>57</v>
       </c>
       <c r="DU135" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV135" t="s" s="10">
         <v>44</v>
@@ -47631,7 +47631,7 @@
         <v>57</v>
       </c>
       <c r="DU136" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV136" t="s" s="10">
         <v>44</v>
@@ -48011,7 +48011,7 @@
         <v>57</v>
       </c>
       <c r="DU137" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV137" t="s" s="10">
         <v>44</v>
@@ -48391,7 +48391,7 @@
         <v>57</v>
       </c>
       <c r="DU138" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV138" t="s" s="10">
         <v>44</v>
@@ -48771,7 +48771,7 @@
         <v>57</v>
       </c>
       <c r="DU139" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV139" t="s" s="10">
         <v>44</v>
@@ -49151,7 +49151,7 @@
         <v>57</v>
       </c>
       <c r="DU140" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="DV140" t="s" s="10">
         <v>44</v>
@@ -49278,7 +49278,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:48:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:51:12&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>